--- a/data/hotels_by_city/Dallas/Dallas_shard_649.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_649.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="865">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2511 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r565072133-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>30141</t>
+  </si>
+  <si>
+    <t>109565</t>
+  </si>
+  <si>
+    <t>565072133</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>Exactly what we expected</t>
+  </si>
+  <si>
+    <t>This hotel is exactly what you would expect from a Residence Inn in a business district.  It was quiet night's sleep on the top floor with the exception of teens hanging out by the pool.  It wasn't extraordinary, but we didn't have any trouble either.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Debbie D, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded March 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is exactly what you would expect from a Residence Inn in a business district.  It was quiet night's sleep on the top floor with the exception of teens hanging out by the pool.  It wasn't extraordinary, but we didn't have any trouble either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r560320220-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>560320220</t>
+  </si>
+  <si>
+    <t>02/13/2018</t>
+  </si>
+  <si>
+    <t>Quiet confortable and secure in great location</t>
+  </si>
+  <si>
+    <t>I stayed at the Addison/Quorum Drive Residence Inn for 1 week while on businees in the area.
+My suite was on the 3rd floor near the end of the hall facing inwards away from the parking, but not close to the pool.  This location turned out to be very quiet, especially imprortaint becasue during this week, I was working late and sleeping through part of the day.  I read an earlier review about some kind of parking lot parties in the area.  I saw nothing like this around the hotel property at all.
+There are no elevators, so bringing bags up to the 3rd floor on the first day was a bit of a chore.
+Card access is required to get into the building - seems very  secure.
+There is plenty of parking.
+My suite was in very good shape with quite recent decor and furnishings.
+When I first saw the bed, I thought it was smaller than a queen, but in fact it is a queen size, but perhaps the height makes it look smaller.
+TV channel and selection were excellent and you can plug a media player into a free HDMI port and change the input with the remote.
+I really liked the L shaped couch and table.
+The area is full of restaurants with at least a half dozen that you can walk to.  I really liked Ida Claire restaurant.
+As far as walking, there are many...I stayed at the Addison/Quorum Drive Residence Inn for 1 week while on businees in the area.My suite was on the 3rd floor near the end of the hall facing inwards away from the parking, but not close to the pool.  This location turned out to be very quiet, especially imprortaint becasue during this week, I was working late and sleeping through part of the day.  I read an earlier review about some kind of parking lot parties in the area.  I saw nothing like this around the hotel property at all.There are no elevators, so bringing bags up to the 3rd floor on the first day was a bit of a chore.Card access is required to get into the building - seems very  secure.There is plenty of parking.My suite was in very good shape with quite recent decor and furnishings.When I first saw the bed, I thought it was smaller than a queen, but in fact it is a queen size, but perhaps the height makes it look smaller.TV channel and selection were excellent and you can plug a media player into a free HDMI port and change the input with the remote.I really liked the L shaped couch and table.The area is full of restaurants with at least a half dozen that you can walk to.  I really liked Ida Claire restaurant.As far as walking, there are many sidewalks and you can see many people walking.The strip mall on the same side as the hotel (diagonally across the street) has (at least) a steak restaurant, a japanese restaurant, 2 cafes, and moreWhat I liked:- Quiet room - never heard my neighbours- Very clean and spacious suite- Feeling of security- Location location location - an area fulll of stuff and you can actually walk to quite a bit - and at the same time, be on the highway in 1 minuteMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Debbie D, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded February 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2018</t>
+  </si>
+  <si>
+    <t>I stayed at the Addison/Quorum Drive Residence Inn for 1 week while on businees in the area.
+My suite was on the 3rd floor near the end of the hall facing inwards away from the parking, but not close to the pool.  This location turned out to be very quiet, especially imprortaint becasue during this week, I was working late and sleeping through part of the day.  I read an earlier review about some kind of parking lot parties in the area.  I saw nothing like this around the hotel property at all.
+There are no elevators, so bringing bags up to the 3rd floor on the first day was a bit of a chore.
+Card access is required to get into the building - seems very  secure.
+There is plenty of parking.
+My suite was in very good shape with quite recent decor and furnishings.
+When I first saw the bed, I thought it was smaller than a queen, but in fact it is a queen size, but perhaps the height makes it look smaller.
+TV channel and selection were excellent and you can plug a media player into a free HDMI port and change the input with the remote.
+I really liked the L shaped couch and table.
+The area is full of restaurants with at least a half dozen that you can walk to.  I really liked Ida Claire restaurant.
+As far as walking, there are many...I stayed at the Addison/Quorum Drive Residence Inn for 1 week while on businees in the area.My suite was on the 3rd floor near the end of the hall facing inwards away from the parking, but not close to the pool.  This location turned out to be very quiet, especially imprortaint becasue during this week, I was working late and sleeping through part of the day.  I read an earlier review about some kind of parking lot parties in the area.  I saw nothing like this around the hotel property at all.There are no elevators, so bringing bags up to the 3rd floor on the first day was a bit of a chore.Card access is required to get into the building - seems very  secure.There is plenty of parking.My suite was in very good shape with quite recent decor and furnishings.When I first saw the bed, I thought it was smaller than a queen, but in fact it is a queen size, but perhaps the height makes it look smaller.TV channel and selection were excellent and you can plug a media player into a free HDMI port and change the input with the remote.I really liked the L shaped couch and table.The area is full of restaurants with at least a half dozen that you can walk to.  I really liked Ida Claire restaurant.As far as walking, there are many sidewalks and you can see many people walking.The strip mall on the same side as the hotel (diagonally across the street) has (at least) a steak restaurant, a japanese restaurant, 2 cafes, and moreWhat I liked:- Quiet room - never heard my neighbours- Very clean and spacious suite- Feeling of security- Location location location - an area fulll of stuff and you can actually walk to quite a bit - and at the same time, be on the highway in 1 minuteMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r558408382-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>558408382</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t>A pleasant stay over the Christmas holidays in December, 2017</t>
+  </si>
+  <si>
+    <t>My family of two adults and our late teen kids, plus a sister and my parents stayed here spread out over two rooms for six days over the Christmas holidays while visiting family in the Addison area.  Because of the holiday season, the hotel was pretty quiet.  In spite of that, their team took good care of us.  This Residence Inn is a pretty standard layout for the brand and we occupied their two-bedroom, two-bath suites which were quite comfortable.  In our room on the 3rd floor, it was quiet and we could barely hear any outside noise.  The location is great because there are numerous restaurants nearby as well as a Whole Foods market within a 5 minute drive or 15 minute walk.  The breakfast is standard fare for Residence Inn (sausages, bacon, scrambled eggs, cereals, etc.), but good enough for a few days - supplemented by whatever we got from the supermarket.  It's in North Dallas, away from the central downtown area - about 20-30 minute drive, but since we were there to hang out with family that were in the Addison area who were about 5 to 7 minutes away, the location was perfect for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>My family of two adults and our late teen kids, plus a sister and my parents stayed here spread out over two rooms for six days over the Christmas holidays while visiting family in the Addison area.  Because of the holiday season, the hotel was pretty quiet.  In spite of that, their team took good care of us.  This Residence Inn is a pretty standard layout for the brand and we occupied their two-bedroom, two-bath suites which were quite comfortable.  In our room on the 3rd floor, it was quiet and we could barely hear any outside noise.  The location is great because there are numerous restaurants nearby as well as a Whole Foods market within a 5 minute drive or 15 minute walk.  The breakfast is standard fare for Residence Inn (sausages, bacon, scrambled eggs, cereals, etc.), but good enough for a few days - supplemented by whatever we got from the supermarket.  It's in North Dallas, away from the central downtown area - about 20-30 minute drive, but since we were there to hang out with family that were in the Addison area who were about 5 to 7 minutes away, the location was perfect for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r500054420-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>500054420</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>Amazing front desk and rooms</t>
+  </si>
+  <si>
+    <t>I absolutely love this hotel. I stayed here a week to visit our grandbaby for the first time. This hotel is immaculate, in a beautiful area, well maintained and ran by the most amazing team of people. Allen, Alan, Celina and Alexis made our stay exceptional and i cant be more impressed. There's a free shuttle, nightly wine down, free parking and amazing restaurants in walking distance. The complimentary breakfast daily was hot, fresh and shared with a smile. Not one request was denied or not one question left unanswered. We were in a gorgeous room with kitchenette and never ran low on essentials. Im grateful for Residence Inn Addison and their awesome team immaculately running it. This hotel absolutely rocks!  Oh and housekeeping Miss Cynthia and Sylvia are awesome sauce as well. Please remember to tip these ladies they are worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Debbie D, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded August 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2017</t>
+  </si>
+  <si>
+    <t>I absolutely love this hotel. I stayed here a week to visit our grandbaby for the first time. This hotel is immaculate, in a beautiful area, well maintained and ran by the most amazing team of people. Allen, Alan, Celina and Alexis made our stay exceptional and i cant be more impressed. There's a free shuttle, nightly wine down, free parking and amazing restaurants in walking distance. The complimentary breakfast daily was hot, fresh and shared with a smile. Not one request was denied or not one question left unanswered. We were in a gorgeous room with kitchenette and never ran low on essentials. Im grateful for Residence Inn Addison and their awesome team immaculately running it. This hotel absolutely rocks!  Oh and housekeeping Miss Cynthia and Sylvia are awesome sauce as well. Please remember to tip these ladies they are worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r491072752-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>491072752</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>Noisy Night</t>
+  </si>
+  <si>
+    <t>Hotel is in good shape.  Desk crew is friendly and courteous.  Breakfast is typical hotel fare.  Wednesday mixer had an odd menu, green olives, s'mores, and watermelon. However, there are loud partyers in the parking lot adjacent to Building B carousing into the wee hours on most nights.  They blast music from the car stereos, and eventually usually set off their car alarms before they leave.  If you need to wake up at 0500, you can consider the car alarms like an added wakeup service.  They arrive somewhere around midnight, and depart somewhere around 5 am.  Ask for a room facing into the courtyard, particularly if you find yourself assigned to building B.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Hotel is in good shape.  Desk crew is friendly and courteous.  Breakfast is typical hotel fare.  Wednesday mixer had an odd menu, green olives, s'mores, and watermelon. However, there are loud partyers in the parking lot adjacent to Building B carousing into the wee hours on most nights.  They blast music from the car stereos, and eventually usually set off their car alarms before they leave.  If you need to wake up at 0500, you can consider the car alarms like an added wakeup service.  They arrive somewhere around midnight, and depart somewhere around 5 am.  Ask for a room facing into the courtyard, particularly if you find yourself assigned to building B.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r488360296-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>488360296</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t>Very Good Stay</t>
+  </si>
+  <si>
+    <t>I had a good recent stay at the Residence Inn.  Summary:ROOMS:  The rooms are well sized, clean, and comfortable.  I found the free wifi to work well and I didn't have any real issues during the stay including streaming music or TV shows.  The main TV service for the hotel did not have too many channels and even some of them did not come in very well, so the streaming TV shows came in handy.SERVICE:  I found the service to be friendly and great overall.  Sometimes at the breakfast or evening receptions items were out on more than one occasion and had to wait for them to be filled back up or select something else.LOCATION:  The location of the hotel could not be much better.  It is easy to find and just off a main road, but tucked away so it is more quiet and relaxing than one might expect.  There is tons of shopping and food of any kind in short distance from the hotel and a number of places within short walking distance.  It is close to major highways to get anywhere in the area fairly easy.The hotel had a pool, sports court and exercise room as well.  I enjoyed the stay at this hotel and would stay here again without a doubt in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>I had a good recent stay at the Residence Inn.  Summary:ROOMS:  The rooms are well sized, clean, and comfortable.  I found the free wifi to work well and I didn't have any real issues during the stay including streaming music or TV shows.  The main TV service for the hotel did not have too many channels and even some of them did not come in very well, so the streaming TV shows came in handy.SERVICE:  I found the service to be friendly and great overall.  Sometimes at the breakfast or evening receptions items were out on more than one occasion and had to wait for them to be filled back up or select something else.LOCATION:  The location of the hotel could not be much better.  It is easy to find and just off a main road, but tucked away so it is more quiet and relaxing than one might expect.  There is tons of shopping and food of any kind in short distance from the hotel and a number of places within short walking distance.  It is close to major highways to get anywhere in the area fairly easy.The hotel had a pool, sports court and exercise room as well.  I enjoyed the stay at this hotel and would stay here again without a doubt in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r462911688-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>462911688</t>
+  </si>
+  <si>
+    <t>02/26/2017</t>
+  </si>
+  <si>
+    <t>Disappointing for a family of 4 - A/C not working.</t>
+  </si>
+  <si>
+    <t>My family visited Dallas on Sat Feb. 18th &amp; 19th. We were looking forward to a quick, fun weekend getaway in the Dallas/Addison but unfortunately, all did not go well. The air conditioner was not functioning properly in our unit. Although it was February, the daytime temperature was in the upper 70s to low 80s and since our room was on the west end of the property nearest the setting sun, the room temperature began to rise at night and  climbed to very uncomfortable levels leading to very poor sleep for myself and my wife. After a late evening swim in the pool, we returned to the room to settle in for the night, watch some TV with the kids and go to sleep. The rising temperature was not initially noted since we had come from the pool but shortly after my wife and two children had gone to bed it became apparent. I stayed up a bit later then noticed the issue as I was preparing for bed. 
+At this point I noted that although the thermostat was set at 68 degrees it indicated a room temperature of 77 degrees. It also indicated a low battery warning so I took a photo of the thermostat to the front desk (see photos) and explained the issue to the attendant. I was given two options: 1) change the the thermostat batteries myself then wait 20 minutes to see if that would...My family visited Dallas on Sat Feb. 18th &amp; 19th. We were looking forward to a quick, fun weekend getaway in the Dallas/Addison but unfortunately, all did not go well. The air conditioner was not functioning properly in our unit. Although it was February, the daytime temperature was in the upper 70s to low 80s and since our room was on the west end of the property nearest the setting sun, the room temperature began to rise at night and  climbed to very uncomfortable levels leading to very poor sleep for myself and my wife. After a late evening swim in the pool, we returned to the room to settle in for the night, watch some TV with the kids and go to sleep. The rising temperature was not initially noted since we had come from the pool but shortly after my wife and two children had gone to bed it became apparent. I stayed up a bit later then noticed the issue as I was preparing for bed. At this point I noted that although the thermostat was set at 68 degrees it indicated a room temperature of 77 degrees. It also indicated a low battery warning so I took a photo of the thermostat to the front desk (see photos) and explained the issue to the attendant. I was given two options: 1) change the the thermostat batteries myself then wait 20 minutes to see if that would help the situation; 2) move to 2 separate 1 bedroom units, each located across the hall from one another, with the rate for both rooms together equally the same rate I currently had on the 2 bedroom 2 bathroom unit we were in.Since by this time it was 12:27 am and the kids were already asleep it was not feasible to move to 2 new rooms at that hour of the night/morning. Instead, I took the 2 new batteries from the front desk attendant and on my return trip to our room, I noted that as I walked further and further from the front desk and closer to our room, the temperature in the hallway became warmer and warmer. Upon returning to the room I put the batteries in the thermostat as instructed. Twenty minutes later it was no cooler. I then tried opening two small windows in the living area but since the air outside was still, no airflow could develop and at one point the temperature actually rose to 79 degrees. It should be noted that the A/C system did turn both before and after changing the batteries but when it did so, a very, very meager amount of air exited the vents and the temperature of that air was not very cool at all. Fortunately, the temperature in the children's bedroom appeared to be a couple degrees cooler than the living room or the bedroom my wife in I were staying, The temperature during the night never fell below 77 degrees and when we left the next day at 10:15 it rose to 79 degrees. Serial photos were taken of the thermostat to document the temperature over time and also to point out that it was properly set to "cool" and "auto" as it should be for proper function. Our night was long, hot and miserable and after finally falling asleep in the middle of the night, I awoke unrefreshed and tired.During this disappointing stay, the same front desk attendant that knew about our situation was approached on 3 separate occasions during the night and follwing morning but unfortunately during none of those encounters was any offer made to offset our discomfort and disappointment other than the one option to wake up the children and change rooms in the middle of the night. We secured a room rate in good faith and paid $ for that room to keep honor our side of the agreement but unfortunately we did NOT receive all the benefits that were offered in the agreement, namely an appropriate room temperature. In that light, the VERY least Marriott could have done was to offer us a price concession since we did not receive the full benefits offered. Once again, Marriott had 3 separate human interactions that could have lead to a different opinion on our part but they either would not or could not take the necessary step to change our opinion by offering us something of value. Now we will share our opinion of Marriott with anyone willing to listen.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Debbie D, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded March 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2017</t>
+  </si>
+  <si>
+    <t>My family visited Dallas on Sat Feb. 18th &amp; 19th. We were looking forward to a quick, fun weekend getaway in the Dallas/Addison but unfortunately, all did not go well. The air conditioner was not functioning properly in our unit. Although it was February, the daytime temperature was in the upper 70s to low 80s and since our room was on the west end of the property nearest the setting sun, the room temperature began to rise at night and  climbed to very uncomfortable levels leading to very poor sleep for myself and my wife. After a late evening swim in the pool, we returned to the room to settle in for the night, watch some TV with the kids and go to sleep. The rising temperature was not initially noted since we had come from the pool but shortly after my wife and two children had gone to bed it became apparent. I stayed up a bit later then noticed the issue as I was preparing for bed. 
+At this point I noted that although the thermostat was set at 68 degrees it indicated a room temperature of 77 degrees. It also indicated a low battery warning so I took a photo of the thermostat to the front desk (see photos) and explained the issue to the attendant. I was given two options: 1) change the the thermostat batteries myself then wait 20 minutes to see if that would...My family visited Dallas on Sat Feb. 18th &amp; 19th. We were looking forward to a quick, fun weekend getaway in the Dallas/Addison but unfortunately, all did not go well. The air conditioner was not functioning properly in our unit. Although it was February, the daytime temperature was in the upper 70s to low 80s and since our room was on the west end of the property nearest the setting sun, the room temperature began to rise at night and  climbed to very uncomfortable levels leading to very poor sleep for myself and my wife. After a late evening swim in the pool, we returned to the room to settle in for the night, watch some TV with the kids and go to sleep. The rising temperature was not initially noted since we had come from the pool but shortly after my wife and two children had gone to bed it became apparent. I stayed up a bit later then noticed the issue as I was preparing for bed. At this point I noted that although the thermostat was set at 68 degrees it indicated a room temperature of 77 degrees. It also indicated a low battery warning so I took a photo of the thermostat to the front desk (see photos) and explained the issue to the attendant. I was given two options: 1) change the the thermostat batteries myself then wait 20 minutes to see if that would help the situation; 2) move to 2 separate 1 bedroom units, each located across the hall from one another, with the rate for both rooms together equally the same rate I currently had on the 2 bedroom 2 bathroom unit we were in.Since by this time it was 12:27 am and the kids were already asleep it was not feasible to move to 2 new rooms at that hour of the night/morning. Instead, I took the 2 new batteries from the front desk attendant and on my return trip to our room, I noted that as I walked further and further from the front desk and closer to our room, the temperature in the hallway became warmer and warmer. Upon returning to the room I put the batteries in the thermostat as instructed. Twenty minutes later it was no cooler. I then tried opening two small windows in the living area but since the air outside was still, no airflow could develop and at one point the temperature actually rose to 79 degrees. It should be noted that the A/C system did turn both before and after changing the batteries but when it did so, a very, very meager amount of air exited the vents and the temperature of that air was not very cool at all. Fortunately, the temperature in the children's bedroom appeared to be a couple degrees cooler than the living room or the bedroom my wife in I were staying, The temperature during the night never fell below 77 degrees and when we left the next day at 10:15 it rose to 79 degrees. Serial photos were taken of the thermostat to document the temperature over time and also to point out that it was properly set to "cool" and "auto" as it should be for proper function. Our night was long, hot and miserable and after finally falling asleep in the middle of the night, I awoke unrefreshed and tired.During this disappointing stay, the same front desk attendant that knew about our situation was approached on 3 separate occasions during the night and follwing morning but unfortunately during none of those encounters was any offer made to offset our discomfort and disappointment other than the one option to wake up the children and change rooms in the middle of the night. We secured a room rate in good faith and paid $ for that room to keep honor our side of the agreement but unfortunately we did NOT receive all the benefits that were offered in the agreement, namely an appropriate room temperature. In that light, the VERY least Marriott could have done was to offer us a price concession since we did not receive the full benefits offered. Once again, Marriott had 3 separate human interactions that could have lead to a different opinion on our part but they either would not or could not take the necessary step to change our opinion by offering us something of value. Now we will share our opinion of Marriott with anyone willing to listen.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r448590090-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>448590090</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>We were very impressed with this hotel.  Our room was clean, fresh and large.  The bed was very comfortable.  We had a suite.  Great location to restaurants all within walking distance.  The staff was very courteous.  Very easy to reach from the airport.  We will stay here again.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r435191815-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>435191815</t>
+  </si>
+  <si>
+    <t>11/06/2016</t>
+  </si>
+  <si>
+    <t>Perfect Location!!</t>
+  </si>
+  <si>
+    <t>We stayed here while in town for a Cowboys game.  Since it was  three of us, we shared a two bedroom suite.  Plenty of space and all the comforts of home.  Breakfast was decent, but there are tons of places to go grab something... most within walking distance.  The staff was nice, room was clean and the property was neat.  We were about 25 minutes from both the stadium and the airport (DAL).  We'll definitely be back on our next trip to town.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Debbie D, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded November 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here while in town for a Cowboys game.  Since it was  three of us, we shared a two bedroom suite.  Plenty of space and all the comforts of home.  Breakfast was decent, but there are tons of places to go grab something... most within walking distance.  The staff was nice, room was clean and the property was neat.  We were about 25 minutes from both the stadium and the airport (DAL).  We'll definitely be back on our next trip to town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r422133484-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>422133484</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>My go to hotel for business travel in Addison</t>
+  </si>
+  <si>
+    <t>I travel to Dallas quite often for work and have stayed at a number of hotels in Addison/quorum area and this is my favorite.  Large rooms, super clean and friendly staff.  With all my travels for business, a comfortable room is a big deal for me.  I continue to come back here. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Debbie D, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2016</t>
+  </si>
+  <si>
+    <t>I travel to Dallas quite often for work and have stayed at a number of hotels in Addison/quorum area and this is my favorite.  Large rooms, super clean and friendly staff.  With all my travels for business, a comfortable room is a big deal for me.  I continue to come back here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r419333557-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>419333557</t>
+  </si>
+  <si>
+    <t>09/16/2016</t>
+  </si>
+  <si>
+    <t>Really great hotel in north Dallas</t>
+  </si>
+  <si>
+    <t>Stayed here while on business at Hitachi.  Great rate and really good location for local business and restaurants.  The hotel is rather big and the rooms are in very nice condition.  Somehow I lucked out and got a suite with 2 bedrooms, 2 bathrooms, and kitchen and sitting area.  Fantastic!  Hotel breakfast is included and a great spread.  Lots of variety and hot food.  There was free drinks and appetizers one evening - actual beer and food (chicken strips). Wow!  Pool area and gym both nice.  This was my first time at the Residence by Marriott brand - I was very impressed.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Stayed here while on business at Hitachi.  Great rate and really good location for local business and restaurants.  The hotel is rather big and the rooms are in very nice condition.  Somehow I lucked out and got a suite with 2 bedrooms, 2 bathrooms, and kitchen and sitting area.  Fantastic!  Hotel breakfast is included and a great spread.  Lots of variety and hot food.  There was free drinks and appetizers one evening - actual beer and food (chicken strips). Wow!  Pool area and gym both nice.  This was my first time at the Residence by Marriott brand - I was very impressed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r409541154-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>409541154</t>
+  </si>
+  <si>
+    <t>08/23/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>The hotel is very clean the room is big and has kitchen inside which is nice.i really like this place. Second time Im here and second time i enjoy it. The location is good close to so many places. Really liked itMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Debbie D, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded September 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is very clean the room is big and has kitchen inside which is nice.i really like this place. Second time Im here and second time i enjoy it. The location is good close to so many places. Really liked itMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r396398280-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>396398280</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel...Great Price!</t>
+  </si>
+  <si>
+    <t>Booked 5 rooms here for a basketball team for 3 nights, over the weekend.  Got a rate of $76 and it was worth every penny.   Every room was clean, roomy, had a nice kitchenette with microwave and full refrigerator...dishwasher also.   Free breakfast bar each morning was great..eggs, sausage, waffles, bagels, toast, muffins, yogurt, juices, coffee, milks...our team got filled up and was able to spend less money when we went out for lunch.  The outdoor pool was very nice, nice hot tub and basketball court.  The front desk staff was friendly and accommodating.  They allowed us to utilize their meeting room for our teambuilding activities and pre-game meetings.    April was very welcoming and worked with us to get our payment arrangements sorted out for each room.  This hotel is in a nice area...Addison is a beautiful suburb of Dallas...clean, many choices of restaurants close by.  We walked several places.  When in the area in the future,  we will check this property first for vacancy.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Debbie D, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded August 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2016</t>
+  </si>
+  <si>
+    <t>Booked 5 rooms here for a basketball team for 3 nights, over the weekend.  Got a rate of $76 and it was worth every penny.   Every room was clean, roomy, had a nice kitchenette with microwave and full refrigerator...dishwasher also.   Free breakfast bar each morning was great..eggs, sausage, waffles, bagels, toast, muffins, yogurt, juices, coffee, milks...our team got filled up and was able to spend less money when we went out for lunch.  The outdoor pool was very nice, nice hot tub and basketball court.  The front desk staff was friendly and accommodating.  They allowed us to utilize their meeting room for our teambuilding activities and pre-game meetings.    April was very welcoming and worked with us to get our payment arrangements sorted out for each room.  This hotel is in a nice area...Addison is a beautiful suburb of Dallas...clean, many choices of restaurants close by.  We walked several places.  When in the area in the future,  we will check this property first for vacancy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r394785087-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>394785087</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>It was wonderful!</t>
+  </si>
+  <si>
+    <t>The room was clean and spacious. Breakfast was delicious! Front desk was very kind. Kids left basketballs at home. They had some extras, that was allowed to be borrow. Addison Circle Park was a close walk. We stayed for Kaboom Town. Great job as usual, Marriot! MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was clean and spacious. Breakfast was delicious! Front desk was very kind. Kids left basketballs at home. They had some extras, that was allowed to be borrow. Addison Circle Park was a close walk. We stayed for Kaboom Town. Great job as usual, Marriot! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r389557641-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>389557641</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>A TRUE Geм!!! 4тн oғ Jυly Vacaтιon</t>
+  </si>
+  <si>
+    <t>Tнιѕ waѕ oυr ѕecond тιмe ѕтayιng aт тнιѕ Reѕιdence Inn and we love тнιѕ place! Kaвooм тown waѕ goιng on and we coυld ѕee тнe evenт ғroм oυr ѕυιтe. Everyтнιng aвoυт тнιѕ нoтel ιѕ oυтѕтandιng and Greg, тнe ѕтaғғ мeмвer aт nιgнт, ιѕ тнe BEST! Hιм and Allen! Boтн gυyѕ wenт aвove and вeyond тo мaĸe ѕυre we were coмғorтaвle dυrιng oυr enтιre 4 day ѕтay and тнey are ѕυper ғrιendly. My нυѕвand and I are тrυcĸ drιver'ѕ and have ѕтayed aт a loт oғ нoтelѕ ιn тнe area, вυт тнιѕ place ιѕ вy FAR тнe вeѕт yeт! Tнanĸ yoυ gυyѕ ғor everyтнιng and we looĸ ғorward тo ѕeeιng yoυ agaιn very ѕoon! Sιncerely,Mr. And Mrѕ. Harrιѕ, "Tнe Trυcĸer Coυple"MoreShow less</t>
+  </si>
+  <si>
+    <t>Tнιѕ waѕ oυr ѕecond тιмe ѕтayιng aт тнιѕ Reѕιdence Inn and we love тнιѕ place! Kaвooм тown waѕ goιng on and we coυld ѕee тнe evenт ғroм oυr ѕυιтe. Everyтнιng aвoυт тнιѕ нoтel ιѕ oυтѕтandιng and Greg, тнe ѕтaғғ мeмвer aт nιgнт, ιѕ тнe BEST! Hιм and Allen! Boтн gυyѕ wenт aвove and вeyond тo мaĸe ѕυre we were coмғorтaвle dυrιng oυr enтιre 4 day ѕтay and тнey are ѕυper ғrιendly. My нυѕвand and I are тrυcĸ drιver'ѕ and have ѕтayed aт a loт oғ нoтelѕ ιn тнe area, вυт тнιѕ place ιѕ вy FAR тнe вeѕт yeт! Tнanĸ yoυ gυyѕ ғor everyтнιng and we looĸ ғorward тo ѕeeιng yoυ agaιn very ѕoon! Sιncerely,Mr. And Mrѕ. Harrιѕ, "Tнe Trυcĸer Coυple"More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r381527230-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>381527230</t>
+  </si>
+  <si>
+    <t>06/10/2016</t>
+  </si>
+  <si>
+    <t>Spacious Queen Studio With Sofa Bed</t>
+  </si>
+  <si>
+    <t>I returned to this hotel for several reasons.  The pool area and small patio off the dining room are nicely landscaped spaces to converse, eat, or relax alone.  I was in town for my granddaughter's high school graduation, to see clients, and to visit with a friend who also came in from out of town.  One night my teenage granddaughters stayed with me, and two nights my friend stayed with me. The Q Studio is laid out well for three or four adults to lounge and visit comfortably.  The L-shaped sofa bed provides seating even when the bed is unfolded.  The dining table seats two and there is a very wide work desk.  The hot dishes at breakfast nearly ran out a little early the first day, but were fine the other four days.  The pool was chilly for most of us, but we all enjoyed the adjacent hot tub.  The property was spotlessly clean, but a close look showed beginning signs of wear.Staff support was outstanding, and everyone seemed happy to be working there.The hotel is on a quiet street off two major arteries.  You can walk to several restaurants such as Smashburger or drive 5' to many restaurants or a Whole Foods. There is a hotel shuttle to the Galleria shopping center and other places.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Debbie D, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded July 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2016</t>
+  </si>
+  <si>
+    <t>I returned to this hotel for several reasons.  The pool area and small patio off the dining room are nicely landscaped spaces to converse, eat, or relax alone.  I was in town for my granddaughter's high school graduation, to see clients, and to visit with a friend who also came in from out of town.  One night my teenage granddaughters stayed with me, and two nights my friend stayed with me. The Q Studio is laid out well for three or four adults to lounge and visit comfortably.  The L-shaped sofa bed provides seating even when the bed is unfolded.  The dining table seats two and there is a very wide work desk.  The hot dishes at breakfast nearly ran out a little early the first day, but were fine the other four days.  The pool was chilly for most of us, but we all enjoyed the adjacent hot tub.  The property was spotlessly clean, but a close look showed beginning signs of wear.Staff support was outstanding, and everyone seemed happy to be working there.The hotel is on a quiet street off two major arteries.  You can walk to several restaurants such as Smashburger or drive 5' to many restaurants or a Whole Foods. There is a hotel shuttle to the Galleria shopping center and other places.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r380494174-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>380494174</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Two day stay on way home</t>
+  </si>
+  <si>
+    <t>Very welcoming and polite staff who did all they could to oblige including driving us to the local Walmart and shopping centre. Very clean, large spacious room with AC. Would certainly go here again - thanks to all the staff at Residence Inn, Dallas.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very welcoming and polite staff who did all they could to oblige including driving us to the local Walmart and shopping centre. Very clean, large spacious room with AC. Would certainly go here again - thanks to all the staff at Residence Inn, Dallas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r380072079-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>380072079</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>Customer Service is Excellent!</t>
+  </si>
+  <si>
+    <t>My wife, my daughter and I arrived at this property around midnight.  I was not an easy customer and asked them for room preferences that were not easy to deliver on, but Tom and Aileen worked hard to meet my requests.  They were very understanding and very patient in working with me.  I travel a lot on business and appreciate the genuine customer service that both Tom and Aileen displayed at that crazy hour of the night. Hotel has been upgraded in the last few years and is nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife, my daughter and I arrived at this property around midnight.  I was not an easy customer and asked them for room preferences that were not easy to deliver on, but Tom and Aileen worked hard to meet my requests.  They were very understanding and very patient in working with me.  I travel a lot on business and appreciate the genuine customer service that both Tom and Aileen displayed at that crazy hour of the night. Hotel has been upgraded in the last few years and is nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r369936996-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>369936996</t>
+  </si>
+  <si>
+    <t>05/03/2016</t>
+  </si>
+  <si>
+    <t>A Great Stay</t>
+  </si>
+  <si>
+    <t>We were surprised at how well we enjoyed our stay at this Residence Inn.  It was for only one night but we would have been happy to stay there for an extended time!  From the Guest Services Desk to our breakfast lady, everyone was very pleasant and were ready to make our stay enjoyable.  Our room was very clean, well kept, well equipped and the beds were very comfortable (this is important to me because of back problems).  There were three TV's in our unit which is nice for families.The location was easy to find and close to the events we had to attend.  (Also, the location was nice and quiet).  I would highly recommend this hotel to anyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Debbie D, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded May 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2016</t>
+  </si>
+  <si>
+    <t>We were surprised at how well we enjoyed our stay at this Residence Inn.  It was for only one night but we would have been happy to stay there for an extended time!  From the Guest Services Desk to our breakfast lady, everyone was very pleasant and were ready to make our stay enjoyable.  Our room was very clean, well kept, well equipped and the beds were very comfortable (this is important to me because of back problems).  There were three TV's in our unit which is nice for families.The location was easy to find and close to the events we had to attend.  (Also, the location was nice and quiet).  I would highly recommend this hotel to anyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r367989798-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>367989798</t>
+  </si>
+  <si>
+    <t>04/26/2016</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>A great hotel with comfortable rooms, which answers all your needs. The room is actually a bedroom with a bath and a restroom and a salon with a kitchen. Both are large enough and have tv's. Other facilities are plenty of parking, free WiFi, a pool and a jacuzzi, small but enough fitness room and a basketball yard.The staff is quiet and helpful. The hotel has a pretty nice location, which allows you not driving to the local pub or a restaurant and there are few worth visiting near it.A nice place to consider whether you're visiting Dallas as a couple, as a family with kids, or just solo.MoreShow less</t>
+  </si>
+  <si>
+    <t>Debbie D, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded April 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2016</t>
+  </si>
+  <si>
+    <t>A great hotel with comfortable rooms, which answers all your needs. The room is actually a bedroom with a bath and a restroom and a salon with a kitchen. Both are large enough and have tv's. Other facilities are plenty of parking, free WiFi, a pool and a jacuzzi, small but enough fitness room and a basketball yard.The staff is quiet and helpful. The hotel has a pretty nice location, which allows you not driving to the local pub or a restaurant and there are few worth visiting near it.A nice place to consider whether you're visiting Dallas as a couple, as a family with kids, or just solo.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r367518643-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>367518643</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Rags to Riches</t>
+  </si>
+  <si>
+    <t>I called this location while encountering a HORRIBLE experience at Hawthorne Inn 15200 Addison Rd, Addison, TX.  The receptionist who took my call said that he would hold the room for me and I was able to get there and settled in very quickly.  It was clean, spacious and felt like home.  It is also in close proximity to many venues I visited such as the Improv, Zen Spa and Massage Envy.  It truly played a great part in our Ladies Relaxation weekend.  My cousin and I were treating our Mothers and they truly enjoyed themselves.MoreShow less</t>
+  </si>
+  <si>
+    <t>I called this location while encountering a HORRIBLE experience at Hawthorne Inn 15200 Addison Rd, Addison, TX.  The receptionist who took my call said that he would hold the room for me and I was able to get there and settled in very quickly.  It was clean, spacious and felt like home.  It is also in close proximity to many venues I visited such as the Improv, Zen Spa and Massage Envy.  It truly played a great part in our Ladies Relaxation weekend.  My cousin and I were treating our Mothers and they truly enjoyed themselves.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r357257378-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>357257378</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Very good place, excellent service and neiborhood</t>
+  </si>
+  <si>
+    <t>Very good place, excellent service and neiborhood, large and complete room, excellent breakfast, everything is very good for family with children,  the hotel is near of restaurants and mall with skate arena.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded April 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2016</t>
+  </si>
+  <si>
+    <t>Very good place, excellent service and neiborhood, large and complete room, excellent breakfast, everything is very good for family with children,  the hotel is near of restaurants and mall with skate arena.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r355276568-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>355276568</t>
+  </si>
+  <si>
+    <t>03/14/2016</t>
+  </si>
+  <si>
+    <t>Nice amenities and breakfast</t>
+  </si>
+  <si>
+    <t>Overall this was a good hotel experience.  Only negative was the bed which was way to soft.  Kept rolling to the middle.  Otherwise staff was very nice, breakfast was great, and location was close to things we were doing.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded March 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2016</t>
+  </si>
+  <si>
+    <t>Overall this was a good hotel experience.  Only negative was the bed which was way to soft.  Kept rolling to the middle.  Otherwise staff was very nice, breakfast was great, and location was close to things we were doing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r353947126-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>353947126</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>Great hotel with an exceptional staff</t>
+  </si>
+  <si>
+    <t>This hotel was quite nice and comfortable, but what made the difference was the helpfulness of the front desk team. Every day (I was there for 3 nights) they greeted me with a smile and a "hello" each time I passed the front desk, morning or evening, and when my phone charger broke they searched their lost-and-found for a replacement! The location was good as well - many, many restaurants within walking distance of the hotel. I will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded March 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2016</t>
+  </si>
+  <si>
+    <t>This hotel was quite nice and comfortable, but what made the difference was the helpfulness of the front desk team. Every day (I was there for 3 nights) they greeted me with a smile and a "hello" each time I passed the front desk, morning or evening, and when my phone charger broke they searched their lost-and-found for a replacement! The location was good as well - many, many restaurants within walking distance of the hotel. I will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r350940945-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>350940945</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>Clean, Quiet Place to Stay</t>
+  </si>
+  <si>
+    <t>Friendly service from the staff.  Room was spacious and clean with nearly new furnishings.  Bed was very comfortable.  Had a good hot breakfast included in the rate.  Preferred location in Addison. Will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Friendly service from the staff.  Room was spacious and clean with nearly new furnishings.  Bed was very comfortable.  Had a good hot breakfast included in the rate.  Preferred location in Addison. Will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r346276533-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>346276533</t>
+  </si>
+  <si>
+    <t>02/09/2016</t>
+  </si>
+  <si>
+    <t>Great Night auditor and stay</t>
+  </si>
+  <si>
+    <t>I checked in late and the night auditor was awesome friendly and helped me after my disaster at another hotel chain. I loved breakfast and majority of the restaurants and fun things were in walking distance which was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded February 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2016</t>
+  </si>
+  <si>
+    <t>I checked in late and the night auditor was awesome friendly and helped me after my disaster at another hotel chain. I loved breakfast and majority of the restaurants and fun things were in walking distance which was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r346005267-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>346005267</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t>Always dependably clean and a great location</t>
+  </si>
+  <si>
+    <t>We've stayed at this location several times in the past 5 years. Every time we've stayed here it's been hassle free and the perfect stay.  The rooms are clean and the pool/hot tub is well maintained also. Each person we've dealt with at the front desk has always greeted us with a smile and very professional. The location is perfect if you're looking to just walk to dinner or entertainment.  Pete's Dueling Piano Bar &amp; The Improv Comedy Club are 1/2 a block away. Cross the street to the Addison Walk for great restaurants such as Kenny's Wood Fire Grill (great steaks, heck everything is great!), Shuck n Jive &amp; Memphis for great Cajun food and AWESOME live music any night of the week, Kobe's Japanese Steakhouse, or Buffalo Wild Wings if that's more your type. If that's not enough then just look up and down Beltline Dr for 50 more choices!!  It's a great place for a weekend get away. We love it.MoreShow less</t>
+  </si>
+  <si>
+    <t>We've stayed at this location several times in the past 5 years. Every time we've stayed here it's been hassle free and the perfect stay.  The rooms are clean and the pool/hot tub is well maintained also. Each person we've dealt with at the front desk has always greeted us with a smile and very professional. The location is perfect if you're looking to just walk to dinner or entertainment.  Pete's Dueling Piano Bar &amp; The Improv Comedy Club are 1/2 a block away. Cross the street to the Addison Walk for great restaurants such as Kenny's Wood Fire Grill (great steaks, heck everything is great!), Shuck n Jive &amp; Memphis for great Cajun food and AWESOME live music any night of the week, Kobe's Japanese Steakhouse, or Buffalo Wild Wings if that's more your type. If that's not enough then just look up and down Beltline Dr for 50 more choices!!  It's a great place for a weekend get away. We love it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r342838099-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>342838099</t>
+  </si>
+  <si>
+    <t>01/26/2016</t>
+  </si>
+  <si>
+    <t>Our regular stop</t>
+  </si>
+  <si>
+    <t>When we visit Dallas family, we stay here. We like Residence Inn, and this property suites our needs. Pros: 1 br suite, dog friendly, full sized fridge and stove top. Location and price great. Cons: recommend King beds and would prefer a stove to a cook top. Really small exercise room.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded January 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2016</t>
+  </si>
+  <si>
+    <t>When we visit Dallas family, we stay here. We like Residence Inn, and this property suites our needs. Pros: 1 br suite, dog friendly, full sized fridge and stove top. Location and price great. Cons: recommend King beds and would prefer a stove to a cook top. Really small exercise room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r341721135-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>341721135</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t>Nice place, just off the main road</t>
+  </si>
+  <si>
+    <t>Quietest and cleanest place I have been in Addison.  The socials put together in the evening, while small were appreciated and helped me relax after work.  Room was super clean and comfortable. The staff was super attentive to any of my requests.  I would repeat here often if the price was just a little lower.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quietest and cleanest place I have been in Addison.  The socials put together in the evening, while small were appreciated and helped me relax after work.  Room was super clean and comfortable. The staff was super attentive to any of my requests.  I would repeat here often if the price was just a little lower.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r338332340-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>338332340</t>
+  </si>
+  <si>
+    <t>01/07/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will Not Return </t>
+  </si>
+  <si>
+    <t>I had a horrible experience at this hotel. Although I had my Do Not Disturb sign on my door staff members would still knock on my door. The maintenance man came in to change the filters on the air conditioner even though I had my Do Not Disturb sign on the door. when I made a complaint to front office staff and ask to speak to the manager she was never available. I contacted guest services to make a formal complaint receive additional marriott reward points however I will not return to this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded January 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2016</t>
+  </si>
+  <si>
+    <t>I had a horrible experience at this hotel. Although I had my Do Not Disturb sign on my door staff members would still knock on my door. The maintenance man came in to change the filters on the air conditioner even though I had my Do Not Disturb sign on the door. when I made a complaint to front office staff and ask to speak to the manager she was never available. I contacted guest services to make a formal complaint receive additional marriott reward points however I will not return to this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r327162272-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>327162272</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>Great clean place!</t>
+  </si>
+  <si>
+    <t>This place is a great place to stay at. Clean bathroom and room. We got the studio queen and it was very spacious. The bed was amazing as well. Soft pillow top bed with awesome pillows. The front desk employees were really nice too. They greeted us with smile and was very helpful. The breakfast was good too if you can get up early enough to enjoy it. I would definitely come back to stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, Guest Relations Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded November 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2015</t>
+  </si>
+  <si>
+    <t>This place is a great place to stay at. Clean bathroom and room. We got the studio queen and it was very spacious. The bed was amazing as well. Soft pillow top bed with awesome pillows. The front desk employees were really nice too. They greeted us with smile and was very helpful. The breakfast was good too if you can get up early enough to enjoy it. I would definitely come back to stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r317267379-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>317267379</t>
+  </si>
+  <si>
+    <t>10/09/2015</t>
+  </si>
+  <si>
+    <t>Awesome place for long weekend or extended stay</t>
+  </si>
+  <si>
+    <t>We drove up from Austin to take State Fair of Texas over the long OU Texas Weekend. We came up Thursday night October 8. We had reserved our two bedroom back in August on one of the travel sites and got a 2/2 with full kitchen for $134/night plus 13 or 14% taxes. Great Deal for such a roomy place near Beltline Rd and the Dallas Galleria. Lots and lots of great eating out choices everywhere or you may shop and keep food and drink items in the full kitchen. The property is an older property but has been kept fresh and updated. Our condo type room has three flat panel TVs, free wifi, ice maker in fridge, even a manufactured log burning fireplace and the first log is free at the desk. We preffer Residence Inns for their breakfast which is great for a family with small children and the after work Happy Hours or food  get together M-W or so. (depends on property and location) This property does not have a HH but does have some after work food.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded October 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2015</t>
+  </si>
+  <si>
+    <t>We drove up from Austin to take State Fair of Texas over the long OU Texas Weekend. We came up Thursday night October 8. We had reserved our two bedroom back in August on one of the travel sites and got a 2/2 with full kitchen for $134/night plus 13 or 14% taxes. Great Deal for such a roomy place near Beltline Rd and the Dallas Galleria. Lots and lots of great eating out choices everywhere or you may shop and keep food and drink items in the full kitchen. The property is an older property but has been kept fresh and updated. Our condo type room has three flat panel TVs, free wifi, ice maker in fridge, even a manufactured log burning fireplace and the first log is free at the desk. We preffer Residence Inns for their breakfast which is great for a family with small children and the after work Happy Hours or food  get together M-W or so. (depends on property and location) This property does not have a HH but does have some after work food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r314498214-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>314498214</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>Best front desk staff ever!</t>
+  </si>
+  <si>
+    <t>My experience was made more relaxing by knowing I could count on the front desk staff. The fitness center, breakfast area and pool were kept very clean and in order.  My room was spacious and I enjoyed the full kitchen and living areas.  Parking all the way around the buildings was always available.  My only concern was they entered my room to do some service, but didn't notify me of the work.  A card leaving some info about entry time and date would have been awesome.  The internet also tended to be spotty and almost unreliable at times.  Otherwise, I have nothing to complain about.  Will stay here in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded September 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2015</t>
+  </si>
+  <si>
+    <t>My experience was made more relaxing by knowing I could count on the front desk staff. The fitness center, breakfast area and pool were kept very clean and in order.  My room was spacious and I enjoyed the full kitchen and living areas.  Parking all the way around the buildings was always available.  My only concern was they entered my room to do some service, but didn't notify me of the work.  A card leaving some info about entry time and date would have been awesome.  The internet also tended to be spotty and almost unreliable at times.  Otherwise, I have nothing to complain about.  Will stay here in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r288561842-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>288561842</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>NOT Recommended if you want your room cleaned during your stay!!</t>
+  </si>
+  <si>
+    <t>This property has a REAL customer service issue &amp; no manager available on staff on weekends, so problems can only be handled on week-day stay...unfortunately like many people, we stayed over a weekend &amp; they DID NOT clean our room after we were out of the room for 6 hours (11 am to 5 pm)...When I called down to the front desk to inquire about our dirty room I was told the housekeeping staff were gone for the day &amp; they could send up some clean towels! I felt this was unacceptable so I went to the front desk to speak to a manager &amp; was told no manger would be available on the weekends...Basically tough luck lady! The staff was ill prepared to solve a problem, a problem I would have NEVER had, had they just done their jobs in the first place! Is it too much to ask to expect a clean hotel room during my stay?? I have stayed with a friend at this hotel &amp; this has happened to us during that stay also...I called Marriot to file an official complaint on the property &amp; the manager finally called me &amp; said her staff said it wasn't cleaned because of a "do not disturb" sign which was NOT true! The maid knocked on our door at 10 am &amp; opened it less then 5 seconds later while I was undressed!! Then never came back to clean...This property has a REAL customer service issue &amp; no manager available on staff on weekends, so problems can only be handled on week-day stay...unfortunately like many people, we stayed over a weekend &amp; they DID NOT clean our room after we were out of the room for 6 hours (11 am to 5 pm)...When I called down to the front desk to inquire about our dirty room I was told the housekeeping staff were gone for the day &amp; they could send up some clean towels! I felt this was unacceptable so I went to the front desk to speak to a manager &amp; was told no manger would be available on the weekends...Basically tough luck lady! The staff was ill prepared to solve a problem, a problem I would have NEVER had, had they just done their jobs in the first place! Is it too much to ask to expect a clean hotel room during my stay?? I have stayed with a friend at this hotel &amp; this has happened to us during that stay also...I called Marriot to file an official complaint on the property &amp; the manager finally called me &amp; said her staff said it wasn't cleaned because of a "do not disturb" sign which was NOT true! The maid knocked on our door at 10 am &amp; opened it less then 5 seconds later while I was undressed!! Then never came back to clean I guess...Basically tons of excuses for NOT doing what they were supposed to do &amp; a total lack of customer service!  Skip this hotel if you value cleanliness &amp; GOOD customer service...MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded July 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2015</t>
+  </si>
+  <si>
+    <t>This property has a REAL customer service issue &amp; no manager available on staff on weekends, so problems can only be handled on week-day stay...unfortunately like many people, we stayed over a weekend &amp; they DID NOT clean our room after we were out of the room for 6 hours (11 am to 5 pm)...When I called down to the front desk to inquire about our dirty room I was told the housekeeping staff were gone for the day &amp; they could send up some clean towels! I felt this was unacceptable so I went to the front desk to speak to a manager &amp; was told no manger would be available on the weekends...Basically tough luck lady! The staff was ill prepared to solve a problem, a problem I would have NEVER had, had they just done their jobs in the first place! Is it too much to ask to expect a clean hotel room during my stay?? I have stayed with a friend at this hotel &amp; this has happened to us during that stay also...I called Marriot to file an official complaint on the property &amp; the manager finally called me &amp; said her staff said it wasn't cleaned because of a "do not disturb" sign which was NOT true! The maid knocked on our door at 10 am &amp; opened it less then 5 seconds later while I was undressed!! Then never came back to clean...This property has a REAL customer service issue &amp; no manager available on staff on weekends, so problems can only be handled on week-day stay...unfortunately like many people, we stayed over a weekend &amp; they DID NOT clean our room after we were out of the room for 6 hours (11 am to 5 pm)...When I called down to the front desk to inquire about our dirty room I was told the housekeeping staff were gone for the day &amp; they could send up some clean towels! I felt this was unacceptable so I went to the front desk to speak to a manager &amp; was told no manger would be available on the weekends...Basically tough luck lady! The staff was ill prepared to solve a problem, a problem I would have NEVER had, had they just done their jobs in the first place! Is it too much to ask to expect a clean hotel room during my stay?? I have stayed with a friend at this hotel &amp; this has happened to us during that stay also...I called Marriot to file an official complaint on the property &amp; the manager finally called me &amp; said her staff said it wasn't cleaned because of a "do not disturb" sign which was NOT true! The maid knocked on our door at 10 am &amp; opened it less then 5 seconds later while I was undressed!! Then never came back to clean I guess...Basically tons of excuses for NOT doing what they were supposed to do &amp; a total lack of customer service!  Skip this hotel if you value cleanliness &amp; GOOD customer service...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r287431229-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>287431229</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>Huge, clean studio</t>
+  </si>
+  <si>
+    <t>I stayed on the 3rd floor, it's a studio setting complete with small sink, fridge, dishwasher. The amenities are ok &amp; everything works perfectly. I stayed solo, but the room could easily fit 1 more adult &amp; children. It's a short 5-10 minutes walk to the belt line where the restaurants are &amp; the addison circle park where the 4th of july celebration are. This is the right hotel to be. Close enough to the "happening" but far enough for peace &amp; quite sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed on the 3rd floor, it's a studio setting complete with small sink, fridge, dishwasher. The amenities are ok &amp; everything works perfectly. I stayed solo, but the room could easily fit 1 more adult &amp; children. It's a short 5-10 minutes walk to the belt line where the restaurants are &amp; the addison circle park where the 4th of july celebration are. This is the right hotel to be. Close enough to the "happening" but far enough for peace &amp; quite sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r280218086-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>280218086</t>
+  </si>
+  <si>
+    <t>06/14/2015</t>
+  </si>
+  <si>
+    <t>Great hotel. For $85, nice big room. Big fridge and stove top.  Big nice couch. Overall nice clean hotel. Good breakfast, pool area. Couple grills outside to cook on. The staff was nice, but not too talkative that you would think they was just dumb or not caring.  Overall great. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Great hotel. For $85, nice big room. Big fridge and stove top.  Big nice couch. Overall nice clean hotel. Good breakfast, pool area. Couple grills outside to cook on. The staff was nice, but not too talkative that you would think they was just dumb or not caring.  Overall great. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r267197519-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>267197519</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>Comfy Home Away From Home</t>
+  </si>
+  <si>
+    <t>While it's not in the most exciting part of town, you can't help but feel the comfort of home by staying here. The rooms are fantastic. Large enough to fit a family and come with a kitchen, including a full-sized fridge, stove-top, dish washer, and microwave. The works! This is definitely a fantastic place to be if you need to take an extended stay away from home (foundation repairs come to mind). They also offer breakfast for guests every morning. The selection is enough that even those with diet restrictions are able to eat.Staff was friendly and accommodating. We didn't spend much time interacting with them, but they were always a pleasure to speak with.As a whole, great stay. But be prepared to drive. If you're in town to see the sights, you'll need to rent a car. Everything you want to see will be south, or west out in Ft. Worth. There isn't much to do in Addison other then eat. The hotel's location is right off of "restaurant row."MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded April 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2015</t>
+  </si>
+  <si>
+    <t>While it's not in the most exciting part of town, you can't help but feel the comfort of home by staying here. The rooms are fantastic. Large enough to fit a family and come with a kitchen, including a full-sized fridge, stove-top, dish washer, and microwave. The works! This is definitely a fantastic place to be if you need to take an extended stay away from home (foundation repairs come to mind). They also offer breakfast for guests every morning. The selection is enough that even those with diet restrictions are able to eat.Staff was friendly and accommodating. We didn't spend much time interacting with them, but they were always a pleasure to speak with.As a whole, great stay. But be prepared to drive. If you're in town to see the sights, you'll need to rent a car. Everything you want to see will be south, or west out in Ft. Worth. There isn't much to do in Addison other then eat. The hotel's location is right off of "restaurant row."More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r266537568-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>266537568</t>
+  </si>
+  <si>
+    <t>04/18/2015</t>
+  </si>
+  <si>
+    <t>Be aware!!!!</t>
+  </si>
+  <si>
+    <t>We had 2 rooms and there was NO PARKING  told to find a parking in a different hotel and walk back to hotel and take a chance of being towed. Mean while has truck with trailer taking up 5 spaces, handicap spots taken without tags. Told US to call cops to get them towed that they couldn't do it. Would not even pay for cab or arrange transportation back to hotel from having to walk back from parking at another locations.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had 2 rooms and there was NO PARKING  told to find a parking in a different hotel and walk back to hotel and take a chance of being towed. Mean while has truck with trailer taking up 5 spaces, handicap spots taken without tags. Told US to call cops to get them towed that they couldn't do it. Would not even pay for cab or arrange transportation back to hotel from having to walk back from parking at another locations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r266303191-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>266303191</t>
+  </si>
+  <si>
+    <t>04/17/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best comfort away from home </t>
+  </si>
+  <si>
+    <t>Stayed here for eight days for business purposes. I found the rooms to be very clean, spacious and well equipped given a kitchen, seating area separate from the bedroom and bathroom. Staff were very friendly at all times and breakfast could cater for both vegetarians and meat eaters. It made  my stay enjoyable and hassle free. I found the hotel to be quite at night and would be very suitable for family holidays also. I will be returning to Dallas for work and will definitely stay there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, Front Office Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded April 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for eight days for business purposes. I found the rooms to be very clean, spacious and well equipped given a kitchen, seating area separate from the bedroom and bathroom. Staff were very friendly at all times and breakfast could cater for both vegetarians and meat eaters. It made  my stay enjoyable and hassle free. I found the hotel to be quite at night and would be very suitable for family holidays also. I will be returning to Dallas for work and will definitely stay there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r265072701-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>265072701</t>
+  </si>
+  <si>
+    <t>04/11/2015</t>
+  </si>
+  <si>
+    <t>Business Trip Stay... great for families</t>
+  </si>
+  <si>
+    <t>Had to find a place to stay for the week, wanted a short drive for work and the ability to walk once back for food/entertainment.
+FOOD (Hotel &amp; Nearby)
+You will be very pleased with the amount of businesses you can walk to for food/drink. A Starbucks is within walking distance for your coffee fix. Buffalo Wild Wings is right across the street for watching the game and good bar food.
+But don't sell the property short either, on Monday they had free snacks (you couldget full for dinner if desired) and drinks (beer - decent bottled beer, not generic drafts, wine and soft drinks). On Tuesday they had hamburgers, chips, potato salad and apps. The hamburger was grilled out, but it was a pre-made patty, but edible. Wednesday had a food truck, this week it was Gourmet BBQ, but it was not free you had to pay the vendor. I did not see any advertisements for Thur-Sun, but I left Thursday so they may have additional activities I didn't see.
+Each morning, there was a buffet setup that had fresh fruit, cereal and yogurt, breads and pastries, and some hot food (I didn't eat any of the hot food, but it smelled/looked good). Overall a better selection than many other hotel offerings.
+EXERCISE (Hotel &amp; Outside)
+The hotel had one exercise "room" in the main building. It has one cycle, one elliptical, and two treadmills. Everyone of these had...Had to find a place to stay for the week, wanted a short drive for work and the ability to walk once back for food/entertainment.FOOD (Hotel &amp; Nearby)You will be very pleased with the amount of businesses you can walk to for food/drink. A Starbucks is within walking distance for your coffee fix. Buffalo Wild Wings is right across the street for watching the game and good bar food.But don't sell the property short either, on Monday they had free snacks (you couldget full for dinner if desired) and drinks (beer - decent bottled beer, not generic drafts, wine and soft drinks). On Tuesday they had hamburgers, chips, potato salad and apps. The hamburger was grilled out, but it was a pre-made patty, but edible. Wednesday had a food truck, this week it was Gourmet BBQ, but it was not free you had to pay the vendor. I did not see any advertisements for Thur-Sun, but I left Thursday so they may have additional activities I didn't see.Each morning, there was a buffet setup that had fresh fruit, cereal and yogurt, breads and pastries, and some hot food (I didn't eat any of the hot food, but it smelled/looked good). Overall a better selection than many other hotel offerings.EXERCISE (Hotel &amp; Outside)The hotel had one exercise "room" in the main building. It has one cycle, one elliptical, and two treadmills. Everyone of these had a TV so you can watch what you wanted (one of the treadmills TV was broken), there was not a TV on a wall for the room. There is also a selection of weights and a filtered water station present with a shelf full of towels for use. There is not a fan in the room, and the door was propped open and the window was open while I was there to get fresh/cool air in, if this door was closed I would imagine that it would get stuffy quick. The room did have a despensor for wipes, so everyone could wipe down the equipment after use, I appreciate this versus just the towels.Outside, it is a nice tree lined road, with sidewalks. I went out for a walk (one way goes to the main road and the other direction is a short walk down to a park, while there is a sidewalk the time I went the amount of cars coming out of the businesses (its in a commercial area) prevented me from trying to run outside, I did not ask the desk for local trails/running paths as I was not there for a long time, but this is information they might think about putting in the exercise room.ROOMSI was put into a two bedroom, it had a small kitchen (fridge, oven, sink, dishwasher, coffeemaker) a sofa and table (with 4 chairs), fireplace and TV in the main area. One of the bedrooms had a desk, while both had a queen bed, two stands with lamps, a phone and alarm clock, and a bath (the room without the desk had the larger bath area).The pillows were all feather pillows, maybe I am in a minority as this is what I see everywhere, but if they can give me 4 pillows per bed, why cant one of them (or heck even put it in the closet) be a foam pillow?The largest con I have was the lighting, everything is controlled via each light (other than the bathroom and the light over the kitchen). I don't come home and turn on each and every light, please go back to a light-switch to control the lights, minor nitpick but its a pain to have to go turn off 8 separate lights when its time to go to bed.WIFIThis deserves a section for itself, they do offer "free WiFi" but its 1 meg or less. You have to purchase "Premium WiFi" for $4.95/day for WiFi that allows you to stream (I tried the free with mlb.tv/netflix and it would not work, preformed fine once I paid and switched. Tech data, speedtest.net showed 4meg down/up on premium connection.OVERALLThe staff at check-in was very friendly, even with a delay in my room being ready. The rest of the staff during my stay was pleasant and visible.I was very pleased, and this is a location that I would bring my family to as it offered many activities outside for families (pool, activity court, businesses nearby for them).If you are gold/plat with Marriott the premium WiFi is free, otherwise if your going to be using the WiFi figure the extra $5/day into your expenses.MISC NOTEThere is a Whole Foods near the hotel, great place to grab stuff if your staying here for an extended stayMoreShow less</t>
+  </si>
+  <si>
+    <t>Had to find a place to stay for the week, wanted a short drive for work and the ability to walk once back for food/entertainment.
+FOOD (Hotel &amp; Nearby)
+You will be very pleased with the amount of businesses you can walk to for food/drink. A Starbucks is within walking distance for your coffee fix. Buffalo Wild Wings is right across the street for watching the game and good bar food.
+But don't sell the property short either, on Monday they had free snacks (you couldget full for dinner if desired) and drinks (beer - decent bottled beer, not generic drafts, wine and soft drinks). On Tuesday they had hamburgers, chips, potato salad and apps. The hamburger was grilled out, but it was a pre-made patty, but edible. Wednesday had a food truck, this week it was Gourmet BBQ, but it was not free you had to pay the vendor. I did not see any advertisements for Thur-Sun, but I left Thursday so they may have additional activities I didn't see.
+Each morning, there was a buffet setup that had fresh fruit, cereal and yogurt, breads and pastries, and some hot food (I didn't eat any of the hot food, but it smelled/looked good). Overall a better selection than many other hotel offerings.
+EXERCISE (Hotel &amp; Outside)
+The hotel had one exercise "room" in the main building. It has one cycle, one elliptical, and two treadmills. Everyone of these had...Had to find a place to stay for the week, wanted a short drive for work and the ability to walk once back for food/entertainment.FOOD (Hotel &amp; Nearby)You will be very pleased with the amount of businesses you can walk to for food/drink. A Starbucks is within walking distance for your coffee fix. Buffalo Wild Wings is right across the street for watching the game and good bar food.But don't sell the property short either, on Monday they had free snacks (you couldget full for dinner if desired) and drinks (beer - decent bottled beer, not generic drafts, wine and soft drinks). On Tuesday they had hamburgers, chips, potato salad and apps. The hamburger was grilled out, but it was a pre-made patty, but edible. Wednesday had a food truck, this week it was Gourmet BBQ, but it was not free you had to pay the vendor. I did not see any advertisements for Thur-Sun, but I left Thursday so they may have additional activities I didn't see.Each morning, there was a buffet setup that had fresh fruit, cereal and yogurt, breads and pastries, and some hot food (I didn't eat any of the hot food, but it smelled/looked good). Overall a better selection than many other hotel offerings.EXERCISE (Hotel &amp; Outside)The hotel had one exercise "room" in the main building. It has one cycle, one elliptical, and two treadmills. Everyone of these had a TV so you can watch what you wanted (one of the treadmills TV was broken), there was not a TV on a wall for the room. There is also a selection of weights and a filtered water station present with a shelf full of towels for use. There is not a fan in the room, and the door was propped open and the window was open while I was there to get fresh/cool air in, if this door was closed I would imagine that it would get stuffy quick. The room did have a despensor for wipes, so everyone could wipe down the equipment after use, I appreciate this versus just the towels.Outside, it is a nice tree lined road, with sidewalks. I went out for a walk (one way goes to the main road and the other direction is a short walk down to a park, while there is a sidewalk the time I went the amount of cars coming out of the businesses (its in a commercial area) prevented me from trying to run outside, I did not ask the desk for local trails/running paths as I was not there for a long time, but this is information they might think about putting in the exercise room.ROOMSI was put into a two bedroom, it had a small kitchen (fridge, oven, sink, dishwasher, coffeemaker) a sofa and table (with 4 chairs), fireplace and TV in the main area. One of the bedrooms had a desk, while both had a queen bed, two stands with lamps, a phone and alarm clock, and a bath (the room without the desk had the larger bath area).The pillows were all feather pillows, maybe I am in a minority as this is what I see everywhere, but if they can give me 4 pillows per bed, why cant one of them (or heck even put it in the closet) be a foam pillow?The largest con I have was the lighting, everything is controlled via each light (other than the bathroom and the light over the kitchen). I don't come home and turn on each and every light, please go back to a light-switch to control the lights, minor nitpick but its a pain to have to go turn off 8 separate lights when its time to go to bed.WIFIThis deserves a section for itself, they do offer "free WiFi" but its 1 meg or less. You have to purchase "Premium WiFi" for $4.95/day for WiFi that allows you to stream (I tried the free with mlb.tv/netflix and it would not work, preformed fine once I paid and switched. Tech data, speedtest.net showed 4meg down/up on premium connection.OVERALLThe staff at check-in was very friendly, even with a delay in my room being ready. The rest of the staff during my stay was pleasant and visible.I was very pleased, and this is a location that I would bring my family to as it offered many activities outside for families (pool, activity court, businesses nearby for them).If you are gold/plat with Marriott the premium WiFi is free, otherwise if your going to be using the WiFi figure the extra $5/day into your expenses.MISC NOTEThere is a Whole Foods near the hotel, great place to grab stuff if your staying here for an extended stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r264525225-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>264525225</t>
+  </si>
+  <si>
+    <t>04/08/2015</t>
+  </si>
+  <si>
+    <t>Home Comfort @ Business Trip</t>
+  </si>
+  <si>
+    <t>The One bedroom suite was quite comfortable. Liked their breakfast. They used to change the menu in order to ensure you don't end up having the same breakfast day in and day out. Social evening was decent.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r260074854-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>260074854</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Better rooms than the regular Marriott!</t>
+  </si>
+  <si>
+    <t>Pros:  room size, front desk folks, same great Marriott bed/bedding, desk space, bathroom space, free guest parking, internet, power options, very clean, great location to businesses and restaurants. Cons:  no food on site, property laid out not a benefit for those without a car, small slow elevator. I'd say here again!</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r256274168-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>256274168</t>
+  </si>
+  <si>
+    <t>02/24/2015</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>Of course, it all starts at the front desk for me. They share with me my requirement I had online and offered a great room. The room was quiet and offered two bedrooms with great space in both of them. The hotel also offered free breakfast that was alright. Every time I had a question, they had very good answers for me.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r256084297-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>256084297</t>
+  </si>
+  <si>
+    <t>02/23/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel and Amenities at a Great Price</t>
+  </si>
+  <si>
+    <t>We stayed here two nights while my son was playing in a hockey tournament in the area. The rate could not be beat, and included a hot breakfast each morning. The room was huge, much larger than a standard hotel. We had a full size fridge, and studio kitchen with all utensils, place settings, etc. provided. There was a living area with a fold out sofa and a separate bedroom with a queen bed. The 3 of us were quite comfortable. We made use of the sport court, which I thought was a neat amenity that I had not seen at a hotel before. Our group played street hockey on the sport court for a fun warm up. The court also has a basketball hoop, and we saw others enjoying this as well. I used the fitness center too...small but adequate for a hotel facility. The hotel also has a nice outside lounge area with a fire pit going at night. There's also a hot tub and pool. Hotel is in a great location with plenty of restaurants and night life around. Staff was friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>We stayed here two nights while my son was playing in a hockey tournament in the area. The rate could not be beat, and included a hot breakfast each morning. The room was huge, much larger than a standard hotel. We had a full size fridge, and studio kitchen with all utensils, place settings, etc. provided. There was a living area with a fold out sofa and a separate bedroom with a queen bed. The 3 of us were quite comfortable. We made use of the sport court, which I thought was a neat amenity that I had not seen at a hotel before. Our group played street hockey on the sport court for a fun warm up. The court also has a basketball hoop, and we saw others enjoying this as well. I used the fitness center too...small but adequate for a hotel facility. The hotel also has a nice outside lounge area with a fire pit going at night. There's also a hot tub and pool. Hotel is in a great location with plenty of restaurants and night life around. Staff was friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r253413973-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>253413973</t>
+  </si>
+  <si>
+    <t>02/09/2015</t>
+  </si>
+  <si>
+    <t>Nice and comfortable.</t>
+  </si>
+  <si>
+    <t>This is a nice hotel  to use as a base. With two bedrooms and a nice little kitchenette and sitting room it,s very relaxed and comfortable. The buffet breakfast was very good ( included in the cost )so all in all a nice stay.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r250939050-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>250939050</t>
+  </si>
+  <si>
+    <t>01/25/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel. Great location. </t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for one night even though it's really set up for extended stays.  The room was very nice and clean.  The bedroom is separate from the living/kitchenette. It is in a great location close (walking distance) to restaurants and bars. It is also close to the DART line. The check-in staff was very friendly and helpful. We would definitely stay again especially for an extended stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded January 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2015</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for one night even though it's really set up for extended stays.  The room was very nice and clean.  The bedroom is separate from the living/kitchenette. It is in a great location close (walking distance) to restaurants and bars. It is also close to the DART line. The check-in staff was very friendly and helpful. We would definitely stay again especially for an extended stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r249113381-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>249113381</t>
+  </si>
+  <si>
+    <t>01/13/2015</t>
+  </si>
+  <si>
+    <t>Great location, great rooms, very clean!</t>
+  </si>
+  <si>
+    <t>The neighborhood is great. Many restaurants, bars, nightclubs, shopping. Good location in the Dallas FW metro. Rooms are very clean, updated.My only two complaints: The bed was bad, we only stayed for one night and I therefore survived. But for a long stay, business trip, probably no sleep.The other thing we didn´t like was that in order to walk from our room to the main lobby for breakfast, we had to go outside. It was rainy and cold, and we could not find a way under the roof. Maybe there is a way, but we did not find it.We had a great price for saturday, and we will probably come back, but making sure we have a good bed.MoreShow less</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded January 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2015</t>
+  </si>
+  <si>
+    <t>The neighborhood is great. Many restaurants, bars, nightclubs, shopping. Good location in the Dallas FW metro. Rooms are very clean, updated.My only two complaints: The bed was bad, we only stayed for one night and I therefore survived. But for a long stay, business trip, probably no sleep.The other thing we didn´t like was that in order to walk from our room to the main lobby for breakfast, we had to go outside. It was rainy and cold, and we could not find a way under the roof. Maybe there is a way, but we did not find it.We had a great price for saturday, and we will probably come back, but making sure we have a good bed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r246360901-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>246360901</t>
+  </si>
+  <si>
+    <t>12/29/2014</t>
+  </si>
+  <si>
+    <t>Great Long Stay Hotel</t>
+  </si>
+  <si>
+    <t>I recently stayed at this property for one month after moving back from Europe.  The facilities are good and the kitchens are very functional in the rooms.  The staff were all outstanding and courteous, getting to know me &amp; my family by name given our length of stay.  Any time we needed extra things from housekeeping they were always prompt in getting them to us.  The complementary breakfast is very good and certainly worth the visit each morning.  If you need a long term place in Addison this is certainly one to chose.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded December 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2014</t>
+  </si>
+  <si>
+    <t>I recently stayed at this property for one month after moving back from Europe.  The facilities are good and the kitchens are very functional in the rooms.  The staff were all outstanding and courteous, getting to know me &amp; my family by name given our length of stay.  Any time we needed extra things from housekeeping they were always prompt in getting them to us.  The complementary breakfast is very good and certainly worth the visit each morning.  If you need a long term place in Addison this is certainly one to chose.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r243402189-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>243402189</t>
+  </si>
+  <si>
+    <t>12/07/2014</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>recently sold our home quicker than expected. We are using Homewood Suite as our temporary home.Very clean, quite and comfortable. Breakfast included every morning. Dinner included Monday - Thursday.If you consider this in the price then you are looking at a price that is comparable to the cheapest hotel in town.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r241253455-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>241253455</t>
+  </si>
+  <si>
+    <t>11/24/2014</t>
+  </si>
+  <si>
+    <t>Centrally Located and convenient</t>
+  </si>
+  <si>
+    <t>If you are looking for a long stay, then this place is absolutely convenient for stay. There are a lot of eating options nearby within walking distance. The place is good, clean and typical of residence inn. I would definitely recommend for long stay over 2-3 weeks. I enjoyed the stay here, the staff was courteous and hospitable. They have a hot pool as well if you are adventurous to jump into it during the cold :-).Overall, great experienc.eMoreShow less</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded December 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2014</t>
+  </si>
+  <si>
+    <t>If you are looking for a long stay, then this place is absolutely convenient for stay. There are a lot of eating options nearby within walking distance. The place is good, clean and typical of residence inn. I would definitely recommend for long stay over 2-3 weeks. I enjoyed the stay here, the staff was courteous and hospitable. They have a hot pool as well if you are adventurous to jump into it during the cold :-).Overall, great experienc.eMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r238144941-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>238144941</t>
+  </si>
+  <si>
+    <t>11/04/2014</t>
+  </si>
+  <si>
+    <t>Great stay as always</t>
+  </si>
+  <si>
+    <t>Up in Dallas for the weekend. This hotel is great for families traveling with children as you can get a suite and have the ability for everyone to have their own room. Internet was fast, breakfast was good. The only issue we had was that our room backed up to the elevator so there was some random mechanical noises during the day.MoreShow less</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded November 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2014</t>
+  </si>
+  <si>
+    <t>Up in Dallas for the weekend. This hotel is great for families traveling with children as you can get a suite and have the ability for everyone to have their own room. Internet was fast, breakfast was good. The only issue we had was that our room backed up to the elevator so there was some random mechanical noises during the day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r235973039-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>235973039</t>
+  </si>
+  <si>
+    <t>10/23/2014</t>
+  </si>
+  <si>
+    <t>The staff is great</t>
+  </si>
+  <si>
+    <t>the hotel has a great location within walking distance to lots of great dinning and nearby shopping. The hotel is showing some age, the facilities are maintained, however, the rooms and hallways are not crisp like new facilities.  Both of our mattresses in the two room suite should have been updated.  The rooms were nice, however, I expect new and crisp.  The morning breakfast was nothing special, decent selections but it felt more about volume then quality.  Saying all of this, you couldn't ask for a more friendly staff.  Overall, the hotel is clean, has a great location, it gets lots of volume and overdue for a deep renovation. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded October 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2014</t>
+  </si>
+  <si>
+    <t>the hotel has a great location within walking distance to lots of great dinning and nearby shopping. The hotel is showing some age, the facilities are maintained, however, the rooms and hallways are not crisp like new facilities.  Both of our mattresses in the two room suite should have been updated.  The rooms were nice, however, I expect new and crisp.  The morning breakfast was nothing special, decent selections but it felt more about volume then quality.  Saying all of this, you couldn't ask for a more friendly staff.  Overall, the hotel is clean, has a great location, it gets lots of volume and overdue for a deep renovation. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r235111509-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>235111509</t>
+  </si>
+  <si>
+    <t>10/18/2014</t>
+  </si>
+  <si>
+    <t>Dissappointing !!</t>
+  </si>
+  <si>
+    <t>This hotel was rated #1 on tripadvisor but not sure why. We had friends staying with us and first thing we had a very large black insect on the white tile floor. The next morning our friends were awakened @ 5am with the alarm music next door which was never turned off . We had a nice breakfast and did not complain. Next night from 9pm till 11:30pm it sounded like the ceiling would cave in with possibly unattended children upstairs. We did finally alert the front desk who after calling twice with no change finally told us that she was Alone and did not have any security (???) until after 11 to be able to physically go knock on their door.  I guess the kids fell asleep after 11:30 since they did stop jumping on the floor.  Again the alarm went off @ 5am with loud music and the front desk said since the room was supposedly rented they could do nothing.  We spoke to the front desk at checkout and asked for the mgr to call us. Sergio never did. I even called back a week later and said we had not received a call still no reply.  We will not return.  Pretty grounds but not good service.  Old rooms remodeled with very thin walls and large bugs.MoreShow less</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded October 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2014</t>
+  </si>
+  <si>
+    <t>This hotel was rated #1 on tripadvisor but not sure why. We had friends staying with us and first thing we had a very large black insect on the white tile floor. The next morning our friends were awakened @ 5am with the alarm music next door which was never turned off . We had a nice breakfast and did not complain. Next night from 9pm till 11:30pm it sounded like the ceiling would cave in with possibly unattended children upstairs. We did finally alert the front desk who after calling twice with no change finally told us that she was Alone and did not have any security (???) until after 11 to be able to physically go knock on their door.  I guess the kids fell asleep after 11:30 since they did stop jumping on the floor.  Again the alarm went off @ 5am with loud music and the front desk said since the room was supposedly rented they could do nothing.  We spoke to the front desk at checkout and asked for the mgr to call us. Sergio never did. I even called back a week later and said we had not received a call still no reply.  We will not return.  Pretty grounds but not good service.  Old rooms remodeled with very thin walls and large bugs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r228380274-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>228380274</t>
+  </si>
+  <si>
+    <t>09/11/2014</t>
+  </si>
+  <si>
+    <t>Long stay for business</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel from February to April this year for work. The staff was friendly and very accommodating especially for an overseas visitor. The suite was clean and in good order with plenty of room for just myself could be a bit squashy for more than one adult staying for long periods. The room I was in did have some noise from the people above but as I was on the ground floor that is to be expected. Breakfast very ordinary however all hotels I have been sent to by my Company in America have similar breakfast choices. I am normally used to having more choices and the breakfast being cooked as required when staying in hotel for business in Australia or England There are plenty of restaurants and some shops within a short walk of the hotel which is good as the hotel doesn’t have a restaurant. There is a large fridge and kitchen utilizes which use can use to cook you own lunch and dinner if you are staying for long periods. Overall my stay here was good and quite enjoyable.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded September 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2014</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel from February to April this year for work. The staff was friendly and very accommodating especially for an overseas visitor. The suite was clean and in good order with plenty of room for just myself could be a bit squashy for more than one adult staying for long periods. The room I was in did have some noise from the people above but as I was on the ground floor that is to be expected. Breakfast very ordinary however all hotels I have been sent to by my Company in America have similar breakfast choices. I am normally used to having more choices and the breakfast being cooked as required when staying in hotel for business in Australia or England There are plenty of restaurants and some shops within a short walk of the hotel which is good as the hotel doesn’t have a restaurant. There is a large fridge and kitchen utilizes which use can use to cook you own lunch and dinner if you are staying for long periods. Overall my stay here was good and quite enjoyable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r225518139-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>225518139</t>
+  </si>
+  <si>
+    <t>08/30/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>i have stayed at this hotel numerous times. the staff are very accommodating and i have never experienced a problem. clean and well maintained.  the breakfast choices leave much to be desired, it bests going elsewhere early in the morning.i love the location--it is close to all kinds of restaurants and nightlife.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded September 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2014</t>
+  </si>
+  <si>
+    <t>i have stayed at this hotel numerous times. the staff are very accommodating and i have never experienced a problem. clean and well maintained.  the breakfast choices leave much to be desired, it bests going elsewhere early in the morning.i love the location--it is close to all kinds of restaurants and nightlife.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r224075898-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>224075898</t>
+  </si>
+  <si>
+    <t>08/24/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little things </t>
+  </si>
+  <si>
+    <t>Stay was great good breakfast and Monday thru Thursday they do dinner they have a menu what they will serve but my wife was won over with small things for example we got a crib and when they dropped it off there were baby toys that we keep and in there lobby restrooms they has a baby changing station MoreShow less</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded August 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2014</t>
+  </si>
+  <si>
+    <t>Stay was great good breakfast and Monday thru Thursday they do dinner they have a menu what they will serve but my wife was won over with small things for example we got a crib and when they dropped it off there were baby toys that we keep and in there lobby restrooms they has a baby changing station More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r223522457-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>223522457</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t>Failed to launder my clothes in time for business meeting</t>
+  </si>
+  <si>
+    <t>Gave them my laundry one evening. When it was not returned by 8:30 pm the next evening I went to front desk. It had not been sent to the cleaners and I needed it for meetings the next morning. Management knew it had missed the morning pick up and had done nothing to make it right.No adequate explanation, no effort to get it done, no communication, no accountability by management, no compensation (not that it would help my situation), no handover from shift to shift.The single front desk clerk did not know the name of the manager.I tried this hotel as a cheaper, better (with kitchen etc) alternative to the local Marriott. Will not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded August 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2014</t>
+  </si>
+  <si>
+    <t>Gave them my laundry one evening. When it was not returned by 8:30 pm the next evening I went to front desk. It had not been sent to the cleaners and I needed it for meetings the next morning. Management knew it had missed the morning pick up and had done nothing to make it right.No adequate explanation, no effort to get it done, no communication, no accountability by management, no compensation (not that it would help my situation), no handover from shift to shift.The single front desk clerk did not know the name of the manager.I tried this hotel as a cheaper, better (with kitchen etc) alternative to the local Marriott. Will not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r215250618-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>215250618</t>
+  </si>
+  <si>
+    <t>07/13/2014</t>
+  </si>
+  <si>
+    <t>We had a 2 br. suite. i used our Marriott reward membership and go an upgrade. It was be4autiful. Our daughter stayed with us, and we ord3ered in food. There were plenty of dishes for 4 of us, and we enjoyed the place and will go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded July 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2014</t>
+  </si>
+  <si>
+    <t>We had a 2 br. suite. i used our Marriott reward membership and go an upgrade. It was be4autiful. Our daughter stayed with us, and we ord3ered in food. There were plenty of dishes for 4 of us, and we enjoyed the place and will go back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r214132328-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>214132328</t>
+  </si>
+  <si>
+    <t>07/07/2014</t>
+  </si>
+  <si>
+    <t>Favorite Stay at a Residence Inn EVER!</t>
+  </si>
+  <si>
+    <t>I was greeted by an overwhelmingly cheerful staff, not just the front desk person, but EVERYONE was so nice.  Kudos to the management, you must be doing something right, because it is very obvious that these people enjoy their job.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>I was greeted by an overwhelmingly cheerful staff, not just the front desk person, but EVERYONE was so nice.  Kudos to the management, you must be doing something right, because it is very obvious that these people enjoy their job.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r214079825-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>214079825</t>
+  </si>
+  <si>
+    <t>Just below average</t>
+  </si>
+  <si>
+    <t>First of all the check in was great and courteous.  The next morning, not so much.  I went to the breakfast area and asked a VERY simple question of the breakfast attendant.  It was "do you have Tabasco?"  She did not speak English and turned immediately to a manager that was in another conversation, who rightly, but annoyingly blew me off.  The way she did it was frankly annoying, but most of all, why doesn't (I am assuming) someone from Mexico have no idea what Tabasco is??  It is a state in Mexico and is pretty recognized all over.  If you cannot hire a breakfast attendant that does not understand a pretty basic and normal question, then expect a crap review.  One of the reasons that you spend a single night in a Residence Inn is the size of the room and/or the decent free breakfast in the morning.  The latter being a hassle, puts this right in line with the Springhill across the road,  The Springhill across the road is a lot less money and I feel real silly for straying from it.  I will not make the same mistake again.MoreShow less</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded July 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2014</t>
+  </si>
+  <si>
+    <t>First of all the check in was great and courteous.  The next morning, not so much.  I went to the breakfast area and asked a VERY simple question of the breakfast attendant.  It was "do you have Tabasco?"  She did not speak English and turned immediately to a manager that was in another conversation, who rightly, but annoyingly blew me off.  The way she did it was frankly annoying, but most of all, why doesn't (I am assuming) someone from Mexico have no idea what Tabasco is??  It is a state in Mexico and is pretty recognized all over.  If you cannot hire a breakfast attendant that does not understand a pretty basic and normal question, then expect a crap review.  One of the reasons that you spend a single night in a Residence Inn is the size of the room and/or the decent free breakfast in the morning.  The latter being a hassle, puts this right in line with the Springhill across the road,  The Springhill across the road is a lot less money and I feel real silly for straying from it.  I will not make the same mistake again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r205267109-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>205267109</t>
+  </si>
+  <si>
+    <t>05/12/2014</t>
+  </si>
+  <si>
+    <t>Awesome hotel even while being renovated.</t>
+  </si>
+  <si>
+    <t>First time to the Dallas area and this was the hotel that my company put me in.  I usually tend to look for Marriott branded properties but had not stayed at a Residence Inn before.  The staff was very good at check in, gracious and friendly.  Rooms were very nice and quite roomy, more so than I needed for my short stay.  The property was undergoing a renovation, but even so, was very clean &amp; organized.  Staff even secured my ground transportation for the next day to the airport.  Will definitely mark this hotel as a favorite.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded May 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2014</t>
+  </si>
+  <si>
+    <t>First time to the Dallas area and this was the hotel that my company put me in.  I usually tend to look for Marriott branded properties but had not stayed at a Residence Inn before.  The staff was very good at check in, gracious and friendly.  Rooms were very nice and quite roomy, more so than I needed for my short stay.  The property was undergoing a renovation, but even so, was very clean &amp; organized.  Staff even secured my ground transportation for the next day to the airport.  Will definitely mark this hotel as a favorite.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r205229391-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>205229391</t>
+  </si>
+  <si>
+    <t>Great hotel in a great location</t>
+  </si>
+  <si>
+    <t>Loved the location on a quite street off the crowded Belt Line Road. If you are looking for a great restaurant they are all within a mile or 2 on the Belt Line. Traffic is very congested in the area. Lots of freeway construction. Took about 15 minutes to get to DFW on a Saturday. Hotel had the best hospitality meals we have ever had, breakfasts were quite good also. Hotel is a well maintained older property. Nice pool area. Staff couldn't have been more friendly. Dallas was a very pleasant change after visiting sleazy New Orleans.MoreShow less</t>
+  </si>
+  <si>
+    <t>Loved the location on a quite street off the crowded Belt Line Road. If you are looking for a great restaurant they are all within a mile or 2 on the Belt Line. Traffic is very congested in the area. Lots of freeway construction. Took about 15 minutes to get to DFW on a Saturday. Hotel had the best hospitality meals we have ever had, breakfasts were quite good also. Hotel is a well maintained older property. Nice pool area. Staff couldn't have been more friendly. Dallas was a very pleasant change after visiting sleazy New Orleans.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r204327252-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>204327252</t>
+  </si>
+  <si>
+    <t>05/06/2014</t>
+  </si>
+  <si>
+    <t>All around Excellent!</t>
+  </si>
+  <si>
+    <t>We had an excellent experience at this hotel. The staff was the best! Very friendly, professional, and helpful. The property was in beautiful condition,the suite was very comfortable and clean, not to mention the breakfast was enjoyable as well. We will definately come back and stay here when we are in the area again. It was probably on of the most enjoyable recent hotel experiences. Keep up the good work!MoreShow less</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded May 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2014</t>
+  </si>
+  <si>
+    <t>We had an excellent experience at this hotel. The staff was the best! Very friendly, professional, and helpful. The property was in beautiful condition,the suite was very comfortable and clean, not to mention the breakfast was enjoyable as well. We will definately come back and stay here when we are in the area again. It was probably on of the most enjoyable recent hotel experiences. Keep up the good work!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r199769746-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>199769746</t>
+  </si>
+  <si>
+    <t>04/03/2014</t>
+  </si>
+  <si>
+    <t>Kellie-Ann is the best in the WHOLE Wide World</t>
+  </si>
+  <si>
+    <t>I know people really read these reviews because I do.  Often times people complain about the bad stuff but I wanted to tell everybody about my experience with Kellie-Ann at the Residence Inn Dallas Addison/Quorum Drive location.  The Marriott customer service made a terrible mistake with a reservation and even though they had proof that it was their fault they did not want to change or even fix the problem.  So I decided to called the hotel personally, even though I had reservations because customer service told me no one could help me.  But, Kellie-Ann listened to my concerns and without any hesitation or confrustation noticed it was an error and corrected it while being polite and professional.  I will for sure go back to her hotel just because I know they are fair and don't have a problem fixing a problem!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded April 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2014</t>
+  </si>
+  <si>
+    <t>I know people really read these reviews because I do.  Often times people complain about the bad stuff but I wanted to tell everybody about my experience with Kellie-Ann at the Residence Inn Dallas Addison/Quorum Drive location.  The Marriott customer service made a terrible mistake with a reservation and even though they had proof that it was their fault they did not want to change or even fix the problem.  So I decided to called the hotel personally, even though I had reservations because customer service told me no one could help me.  But, Kellie-Ann listened to my concerns and without any hesitation or confrustation noticed it was an error and corrected it while being polite and professional.  I will for sure go back to her hotel just because I know they are fair and don't have a problem fixing a problem!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r198643418-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>198643418</t>
+  </si>
+  <si>
+    <t>03/25/2014</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>I stayed over the weekend and it was wonderful! Clean and well put together. The GM, Wendy was so kind to make sure our suite was everything we needed. They even have us cookies when we checked in. Loved this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded March 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2014</t>
+  </si>
+  <si>
+    <t>I stayed over the weekend and it was wonderful! Clean and well put together. The GM, Wendy was so kind to make sure our suite was everything we needed. They even have us cookies when we checked in. Loved this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r198523269-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>198523269</t>
+  </si>
+  <si>
+    <t>03/24/2014</t>
+  </si>
+  <si>
+    <t>Absolutely LOVED my stay!!</t>
+  </si>
+  <si>
+    <t>I had a girls' weekend and we stayed at this hotel! It was not only a great location near many attractions, but this hotel pays attention to details! From the cookies greeting you at the front desk, to the artwork in the hotel rooms, all the way to the whipped cream for your coffee in the morning at breakfast- my expectations were exceeded! The GM, Wendy, made sure that our suite was comfortable and convenient. Definitely will stay again if I come to Dallas!!! Thank you for such a wonderful experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded March 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2014</t>
+  </si>
+  <si>
+    <t>I had a girls' weekend and we stayed at this hotel! It was not only a great location near many attractions, but this hotel pays attention to details! From the cookies greeting you at the front desk, to the artwork in the hotel rooms, all the way to the whipped cream for your coffee in the morning at breakfast- my expectations were exceeded! The GM, Wendy, made sure that our suite was comfortable and convenient. Definitely will stay again if I come to Dallas!!! Thank you for such a wonderful experience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r195846265-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>195846265</t>
+  </si>
+  <si>
+    <t>03/01/2014</t>
+  </si>
+  <si>
+    <t>Excellent Place to Stay!!</t>
+  </si>
+  <si>
+    <t>If you need to spend a week of your life away from home, then this is the place to do it!   I spend two weeks every month here and I can tell you that this is the best extended stay hotel in the area.   The staff is amazing, dedicated, hard working and really professional.  The location is fantatic.  You will love your stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded March 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2014</t>
+  </si>
+  <si>
+    <t>If you need to spend a week of your life away from home, then this is the place to do it!   I spend two weeks every month here and I can tell you that this is the best extended stay hotel in the area.   The staff is amazing, dedicated, hard working and really professional.  The location is fantatic.  You will love your stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r191650421-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>191650421</t>
+  </si>
+  <si>
+    <t>01/21/2014</t>
+  </si>
+  <si>
+    <t>This place is great!</t>
+  </si>
+  <si>
+    <t>This hotel is so nice. It has a great location and the food is tasty. The staff is very helpful and happy. Our room was clean and comfortable. This place just feel comfortable. You can walk to other restaurants and shopping. We were only there for a weekend and had a really nice experience and will definitely be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded January 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2014</t>
+  </si>
+  <si>
+    <t>This hotel is so nice. It has a great location and the food is tasty. The staff is very helpful and happy. Our room was clean and comfortable. This place just feel comfortable. You can walk to other restaurants and shopping. We were only there for a weekend and had a really nice experience and will definitely be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r188945337-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>188945337</t>
+  </si>
+  <si>
+    <t>12/29/2013</t>
+  </si>
+  <si>
+    <t>Awesome place to stay</t>
+  </si>
+  <si>
+    <t>Loved this hotel, mainly because the staff went above and beyond to make us feel at home. The customer service was amazing. It was very clean and the rooms were up to date and extremely comfortable. Will definitely recommend and will stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded December 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2013</t>
+  </si>
+  <si>
+    <t>Loved this hotel, mainly because the staff went above and beyond to make us feel at home. The customer service was amazing. It was very clean and the rooms were up to date and extremely comfortable. Will definitely recommend and will stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r187111734-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>187111734</t>
+  </si>
+  <si>
+    <t>12/08/2013</t>
+  </si>
+  <si>
+    <t>Gracious staff for unexpected visit.</t>
+  </si>
+  <si>
+    <t>Due to ice storm with major power loss in Dallas,  we searched for an Inn which would accept us with our dog.  These folks were extra nice and very accommodating.  The one bedroom had sitting room with TV, free WiFi and a kitchen fully equipped.  We brought our dinner since they do not have a restaurant.  (We did not even have free WiFi at the Ritz in Phila. last month!)  The room was clean and inviting.  The bathroom was large and bright.                                     A beautiful breakfast buffet is served with eggs, bacon, sausage, pancakes, waffles, bagel, breads, Eng. muffins, yogurt.On Sat., with ice still on ground I asked if we could remain an extra night and was told "yes".Went home to find power on so called and cancelled the reserve for that night.  Again, they were very nice and allowed the cancellation with no penalty.  I wouldn't hesitate to stay at a Residence Inn again, anywhere in the states.MoreShow less</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded December 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2013</t>
+  </si>
+  <si>
+    <t>Due to ice storm with major power loss in Dallas,  we searched for an Inn which would accept us with our dog.  These folks were extra nice and very accommodating.  The one bedroom had sitting room with TV, free WiFi and a kitchen fully equipped.  We brought our dinner since they do not have a restaurant.  (We did not even have free WiFi at the Ritz in Phila. last month!)  The room was clean and inviting.  The bathroom was large and bright.                                     A beautiful breakfast buffet is served with eggs, bacon, sausage, pancakes, waffles, bagel, breads, Eng. muffins, yogurt.On Sat., with ice still on ground I asked if we could remain an extra night and was told "yes".Went home to find power on so called and cancelled the reserve for that night.  Again, they were very nice and allowed the cancellation with no penalty.  I wouldn't hesitate to stay at a Residence Inn again, anywhere in the states.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r185859970-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>185859970</t>
+  </si>
+  <si>
+    <t>11/25/2013</t>
+  </si>
+  <si>
+    <t>"Pink" concert weekend</t>
+  </si>
+  <si>
+    <t>We traveled to the Dallas area for "Pink" concert.  Residence Inn was amazing!! Very spacious (we had 2 bedroom suite) and staff was very informative and prompt. Rooms were very nice! Would recommend staying here again!!!  Great restaurants....all within .6 miles!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded December 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2013</t>
+  </si>
+  <si>
+    <t>We traveled to the Dallas area for "Pink" concert.  Residence Inn was amazing!! Very spacious (we had 2 bedroom suite) and staff was very informative and prompt. Rooms were very nice! Would recommend staying here again!!!  Great restaurants....all within .6 miles!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r185542055-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>185542055</t>
+  </si>
+  <si>
+    <t>11/22/2013</t>
+  </si>
+  <si>
+    <t>Mixed bag</t>
+  </si>
+  <si>
+    <t>Staff is very friendly and eager to help.  They don't wait for you to come to them, but rather go out of their way to assist guests.  Rooms are nicely done, with plenty of workspace and are well decorated.  My only complaint is the quality of the food for breakfast and at the happy hour/dinner.  It is hard to complain about free, but some of it is pretty low quality.  Eggs are pretty awful, and sweaty lunch meat should never be on the bar for happy hour.  A keg of Shiner wouldn't bankrupt the place either.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded November 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2013</t>
+  </si>
+  <si>
+    <t>Staff is very friendly and eager to help.  They don't wait for you to come to them, but rather go out of their way to assist guests.  Rooms are nicely done, with plenty of workspace and are well decorated.  My only complaint is the quality of the food for breakfast and at the happy hour/dinner.  It is hard to complain about free, but some of it is pretty low quality.  Eggs are pretty awful, and sweaty lunch meat should never be on the bar for happy hour.  A keg of Shiner wouldn't bankrupt the place either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r184682736-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>184682736</t>
+  </si>
+  <si>
+    <t>11/14/2013</t>
+  </si>
+  <si>
+    <t>Great Staff, Really Nice Rooms</t>
+  </si>
+  <si>
+    <t>Cannot say enough about the staff at this hotel but I'll keep it simple. They were very nice and accommodating to everything I needed. The place was clean, the grounds were nice, even had a basketball court! There is also a lot to do around there as well, with a piano bar and comedy club right next door and restaurants all up and down the street.I would highly recommend this hotel for any occasion.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded November 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2013</t>
+  </si>
+  <si>
+    <t>Cannot say enough about the staff at this hotel but I'll keep it simple. They were very nice and accommodating to everything I needed. The place was clean, the grounds were nice, even had a basketball court! There is also a lot to do around there as well, with a piano bar and comedy club right next door and restaurants all up and down the street.I would highly recommend this hotel for any occasion.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r182994259-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>182994259</t>
+  </si>
+  <si>
+    <t>10/30/2013</t>
+  </si>
+  <si>
+    <t>Wonderful Location and Hotel</t>
+  </si>
+  <si>
+    <t>We spent several evenings at the Residence Inn and really enjoyed our stay.  The room was large and extremely clean.  The staff was helpful and provided great assistance.  The breakfast was delicious.  Finally, the location is perfect if you are in the North Dallas area - easy access to everywhere and right in the middle of hundreds of restaurants and shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded November 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2013</t>
+  </si>
+  <si>
+    <t>We spent several evenings at the Residence Inn and really enjoyed our stay.  The room was large and extremely clean.  The staff was helpful and provided great assistance.  The breakfast was delicious.  Finally, the location is perfect if you are in the North Dallas area - easy access to everywhere and right in the middle of hundreds of restaurants and shopping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r181537907-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>181537907</t>
+  </si>
+  <si>
+    <t>10/18/2013</t>
+  </si>
+  <si>
+    <t>3 day weekend</t>
+  </si>
+  <si>
+    <t>Wife and I stayed here and were pleased. Room seemed to be built for extended stay - with full supplied kitchen, studio style arrangement with separate sleeping and lounging/desk area. Breakfast was adequate, exercise room decent, nice outside pool and conversation areas.The place is not new but was kept up rather well. Two subtractions were door frame was way oversize for door letting sound, and a million watt light right over lounge window which lightened up room too much for my taste. Very pleasant staff. Would stay again, without a doubt.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded October 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2013</t>
+  </si>
+  <si>
+    <t>Wife and I stayed here and were pleased. Room seemed to be built for extended stay - with full supplied kitchen, studio style arrangement with separate sleeping and lounging/desk area. Breakfast was adequate, exercise room decent, nice outside pool and conversation areas.The place is not new but was kept up rather well. Two subtractions were door frame was way oversize for door letting sound, and a million watt light right over lounge window which lightened up room too much for my taste. Very pleasant staff. Would stay again, without a doubt.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r175174857-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>175174857</t>
+  </si>
+  <si>
+    <t>09/01/2013</t>
+  </si>
+  <si>
+    <t>An oasis!</t>
+  </si>
+  <si>
+    <t>The first night of our vacation at another hotel was disastrous - sleepless and exhausting. I plotted our escape and found this newly-renovated Residence Inn. They rescued our vacation!
+Being just a few miles from the Galleria, the location is centrally-located to most anything in Dallas, and Addison is a classy little area of DFW with lots of corporate headquarters - and plenty of entertainment to cater to them. 
+The rooms are larger - or just laid out better - than many Residence Inns. We stayed on the first floor in a full hotel and never heard anyone overhead. (I'm sure it is possible, though). EVERY single employee we encountered was eager, kind, helpful and simply professional. KUDOS! 
+There is a landscaped, large outdoor pool with a nearby firepit and a fun little combo tennis/half-basketball court. We saw LOTS of young kids having a great time! The fitness center is adequate with dumbbells, treadmills, bike and a stair climber - all clean and in excellent condition. Breakfast was the standard fare. Powdered eggs and frozen sausage but plenty of other options like fresh fruit cut in the kitchen (I saw them!), oatmeal and yogurt. 
+It isn't perfect but the list is SO small I can rattle it off. There are NO KING BEDS in this large property. The HVAC doesn't work as well as it should - one room was colder than the other and neither were cold enough for...The first night of our vacation at another hotel was disastrous - sleepless and exhausting. I plotted our escape and found this newly-renovated Residence Inn. They rescued our vacation!Being just a few miles from the Galleria, the location is centrally-located to most anything in Dallas, and Addison is a classy little area of DFW with lots of corporate headquarters - and plenty of entertainment to cater to them. The rooms are larger - or just laid out better - than many Residence Inns. We stayed on the first floor in a full hotel and never heard anyone overhead. (I'm sure it is possible, though). EVERY single employee we encountered was eager, kind, helpful and simply professional. KUDOS! There is a landscaped, large outdoor pool with a nearby firepit and a fun little combo tennis/half-basketball court. We saw LOTS of young kids having a great time! The fitness center is adequate with dumbbells, treadmills, bike and a stair climber - all clean and in excellent condition. Breakfast was the standard fare. Powdered eggs and frozen sausage but plenty of other options like fresh fruit cut in the kitchen (I saw them!), oatmeal and yogurt. It isn't perfect but the list is SO small I can rattle it off. There are NO KING BEDS in this large property. The HVAC doesn't work as well as it should - one room was colder than the other and neither were cold enough for the humid 106 degrees outside. They left the popcorn ceilings (that's just me). And the TV and Internet systems are old - bandwidth-limited internet, little HD, no onscreen tv guide, 30 channels which are infomercials all night. They should fire their 3rd party IT operator and get someone LOCAL to do it right. But very honestly, these were minor concerns. The remodel is GENUINE. Classy and clean and comfortable, including the mattresses, furniture, woodwork, carpets. *** This is how you run a hotel! *** We will definitely be back. Highly recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded September 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2013</t>
+  </si>
+  <si>
+    <t>The first night of our vacation at another hotel was disastrous - sleepless and exhausting. I plotted our escape and found this newly-renovated Residence Inn. They rescued our vacation!
+Being just a few miles from the Galleria, the location is centrally-located to most anything in Dallas, and Addison is a classy little area of DFW with lots of corporate headquarters - and plenty of entertainment to cater to them. 
+The rooms are larger - or just laid out better - than many Residence Inns. We stayed on the first floor in a full hotel and never heard anyone overhead. (I'm sure it is possible, though). EVERY single employee we encountered was eager, kind, helpful and simply professional. KUDOS! 
+There is a landscaped, large outdoor pool with a nearby firepit and a fun little combo tennis/half-basketball court. We saw LOTS of young kids having a great time! The fitness center is adequate with dumbbells, treadmills, bike and a stair climber - all clean and in excellent condition. Breakfast was the standard fare. Powdered eggs and frozen sausage but plenty of other options like fresh fruit cut in the kitchen (I saw them!), oatmeal and yogurt. 
+It isn't perfect but the list is SO small I can rattle it off. There are NO KING BEDS in this large property. The HVAC doesn't work as well as it should - one room was colder than the other and neither were cold enough for...The first night of our vacation at another hotel was disastrous - sleepless and exhausting. I plotted our escape and found this newly-renovated Residence Inn. They rescued our vacation!Being just a few miles from the Galleria, the location is centrally-located to most anything in Dallas, and Addison is a classy little area of DFW with lots of corporate headquarters - and plenty of entertainment to cater to them. The rooms are larger - or just laid out better - than many Residence Inns. We stayed on the first floor in a full hotel and never heard anyone overhead. (I'm sure it is possible, though). EVERY single employee we encountered was eager, kind, helpful and simply professional. KUDOS! There is a landscaped, large outdoor pool with a nearby firepit and a fun little combo tennis/half-basketball court. We saw LOTS of young kids having a great time! The fitness center is adequate with dumbbells, treadmills, bike and a stair climber - all clean and in excellent condition. Breakfast was the standard fare. Powdered eggs and frozen sausage but plenty of other options like fresh fruit cut in the kitchen (I saw them!), oatmeal and yogurt. It isn't perfect but the list is SO small I can rattle it off. There are NO KING BEDS in this large property. The HVAC doesn't work as well as it should - one room was colder than the other and neither were cold enough for the humid 106 degrees outside. They left the popcorn ceilings (that's just me). And the TV and Internet systems are old - bandwidth-limited internet, little HD, no onscreen tv guide, 30 channels which are infomercials all night. They should fire their 3rd party IT operator and get someone LOCAL to do it right. But very honestly, these were minor concerns. The remodel is GENUINE. Classy and clean and comfortable, including the mattresses, furniture, woodwork, carpets. *** This is how you run a hotel! *** We will definitely be back. Highly recommended!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r171808435-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>171808435</t>
+  </si>
+  <si>
+    <t>08/11/2013</t>
+  </si>
+  <si>
+    <t>Convenient location</t>
+  </si>
+  <si>
+    <t>I spent 2 nights here while visiting family.  Very roomy and comfortable.  Desk clerk was very nice and took time to explain and apologize for the need for 2 keys while they change out the lock system.  Really liked the new key system.  Only negative was not really the facilities fault.  I was awakened at 1 a.m. to the thundering footsteps (stomps) of my upstairs neighbor.  They must have been dancing in the living room for over 30 minutes. Sounded like a heard of buffalo!  Walls and ceiling a bit thin but I've experienced worse at other hotels.  Not much you can do about rude/inconsiderate neighbors.  Checkout is always painless with Marriotts and this was no exception.  I will definitely stay again but will request a top floor next time.  MoreShow less</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded August 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2013</t>
+  </si>
+  <si>
+    <t>I spent 2 nights here while visiting family.  Very roomy and comfortable.  Desk clerk was very nice and took time to explain and apologize for the need for 2 keys while they change out the lock system.  Really liked the new key system.  Only negative was not really the facilities fault.  I was awakened at 1 a.m. to the thundering footsteps (stomps) of my upstairs neighbor.  They must have been dancing in the living room for over 30 minutes. Sounded like a heard of buffalo!  Walls and ceiling a bit thin but I've experienced worse at other hotels.  Not much you can do about rude/inconsiderate neighbors.  Checkout is always painless with Marriotts and this was no exception.  I will definitely stay again but will request a top floor next time.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r171217731-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>171217731</t>
+  </si>
+  <si>
+    <t>08/07/2013</t>
+  </si>
+  <si>
+    <t>Good location, helpful staff</t>
+  </si>
+  <si>
+    <t>I stayed here with my sons and nephews while we visited museums, water-parks and Lego Discovery Center.  The lobby area was clean, neat and safe feeling.  The staff at the desk, housekeepers and breakfast area service workers were all very friendly, helpful and professional.  The breakfast was more complete than I thought it would be and they kept it replenished until past the close-up time.  The room was clean.  Beds were comfortable and made up well.  The pull out sofa was fine for the 15 year old boy.  The towels were clean and new but only average quality.  The big disappointment was the small size of the swimming pool.  But it was clean and had nice seating around.  The double bed suite had enough  room to move around in and the fridge and microwave were good for evening snacks.  Would easily recommend for business travelers, families traveling for sports tournaments and camps and family in town for other visits.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded August 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here with my sons and nephews while we visited museums, water-parks and Lego Discovery Center.  The lobby area was clean, neat and safe feeling.  The staff at the desk, housekeepers and breakfast area service workers were all very friendly, helpful and professional.  The breakfast was more complete than I thought it would be and they kept it replenished until past the close-up time.  The room was clean.  Beds were comfortable and made up well.  The pull out sofa was fine for the 15 year old boy.  The towels were clean and new but only average quality.  The big disappointment was the small size of the swimming pool.  But it was clean and had nice seating around.  The double bed suite had enough  room to move around in and the fridge and microwave were good for evening snacks.  Would easily recommend for business travelers, families traveling for sports tournaments and camps and family in town for other visits.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r159815353-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>159815353</t>
+  </si>
+  <si>
+    <t>05/06/2013</t>
+  </si>
+  <si>
+    <t>Newly renovated</t>
+  </si>
+  <si>
+    <t>Newly renovated and very nice. Food for breakfast and supper are real good. Location is excellent for foodies too. Right next to Pete's Dueling Piano (you get a free drink with your room card). So far the best hotel I've stayed in in Texas.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded May 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2013</t>
+  </si>
+  <si>
+    <t>Newly renovated and very nice. Food for breakfast and supper are real good. Location is excellent for foodies too. Right next to Pete's Dueling Piano (you get a free drink with your room card). So far the best hotel I've stayed in in Texas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r158430537-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>158430537</t>
+  </si>
+  <si>
+    <t>04/21/2013</t>
+  </si>
+  <si>
+    <t>Exceeds expectations!</t>
+  </si>
+  <si>
+    <t>My girlfriends and I stayed in the two bedroom/2 bathroom suite with the pull out sofa and fireplace which comfortably fit all 5 of us. The full kitchen was an added benefit. Pete's Piano bar and the Improve Comedy club were conveniently located behind the hotel and less than a 5 minute walk. The staff was wonderful, breakfast was delicious, the room was perfect and the price was very affordable. Would highly recommend to anyone looking to stay in this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded April 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2013</t>
+  </si>
+  <si>
+    <t>My girlfriends and I stayed in the two bedroom/2 bathroom suite with the pull out sofa and fireplace which comfortably fit all 5 of us. The full kitchen was an added benefit. Pete's Piano bar and the Improve Comedy club were conveniently located behind the hotel and less than a 5 minute walk. The staff was wonderful, breakfast was delicious, the room was perfect and the price was very affordable. Would highly recommend to anyone looking to stay in this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r157643102-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>157643102</t>
+  </si>
+  <si>
+    <t>04/13/2013</t>
+  </si>
+  <si>
+    <t>Great value, big rooms</t>
+  </si>
+  <si>
+    <t>Stayed here for two weeks while on business.  The room was a good size with lounge, bedroom and kitchen area.  Staff were extremely friendly.  Breakfast and evening supper were good too.  Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Stayed here for two weeks while on business.  The room was a good size with lounge, bedroom and kitchen area.  Staff were extremely friendly.  Breakfast and evening supper were good too.  Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r148796572-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>148796572</t>
+  </si>
+  <si>
+    <t>01/04/2013</t>
+  </si>
+  <si>
+    <t>Great Place &amp; Great Value</t>
+  </si>
+  <si>
+    <t>I would stay again.  I think their updating stuff as well, which should take care of the out dated hallways.  The breakfast was very good with a lot of options.  Very friendly staff throughout the complex.  Convenient location to a million restaurants and other things in north Dallas.  I even used the hot tub while I was there, which was nice and clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded January 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2013</t>
+  </si>
+  <si>
+    <t>I would stay again.  I think their updating stuff as well, which should take care of the out dated hallways.  The breakfast was very good with a lot of options.  Very friendly staff throughout the complex.  Convenient location to a million restaurants and other things in north Dallas.  I even used the hot tub while I was there, which was nice and clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r144977295-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>144977295</t>
+  </si>
+  <si>
+    <t>11/08/2012</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here in early October.  The reception at the front desk was warm friendly. The rooms were spacious, modern, and clean. The living room was a bonus as it was a delight not to be viewing the TV from a bed.  I can say that everything that we needed was at our disposal.  My only complaint would be that the breakfast room was very crowded, and both mornings it was difficult to secure a table.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded November 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2012</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here in early October.  The reception at the front desk was warm friendly. The rooms were spacious, modern, and clean. The living room was a bonus as it was a delight not to be viewing the TV from a bed.  I can say that everything that we needed was at our disposal.  My only complaint would be that the breakfast room was very crowded, and both mornings it was difficult to secure a table.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r144702930-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>144702930</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>I like this hotel but...</t>
+  </si>
+  <si>
+    <t>We had a very pleasant stay this year however, the free wi-fi only worked if you sat in certain parts of our hotel room so the service was spotty at best.  Also they only offer Queen beds and no kings so if you sleep with a big guy like me this can be a problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded November 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2012</t>
+  </si>
+  <si>
+    <t>We had a very pleasant stay this year however, the free wi-fi only worked if you sat in certain parts of our hotel room so the service was spotty at best.  Also they only offer Queen beds and no kings so if you sleep with a big guy like me this can be a problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r136534975-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>136534975</t>
+  </si>
+  <si>
+    <t>08/07/2012</t>
+  </si>
+  <si>
+    <t>Great location, excellent service, comfy room!</t>
+  </si>
+  <si>
+    <t>From start to finish, our experience here was amazing!  The staff was very enthusiastic and eager to assist, our room was clean, spacious, and comfortable, and the complimentary hot breakfast provided a wide variety to please everyone.  There is a pool, jacuzzi, sport court which provided entertainment for our group.  The location is perfect as you are close enough to a bizillion restaurants and shops that you can walk to, and have easy access to 635 and the North Tollway!Definitely a winner!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded August 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2012</t>
+  </si>
+  <si>
+    <t>From start to finish, our experience here was amazing!  The staff was very enthusiastic and eager to assist, our room was clean, spacious, and comfortable, and the complimentary hot breakfast provided a wide variety to please everyone.  There is a pool, jacuzzi, sport court which provided entertainment for our group.  The location is perfect as you are close enough to a bizillion restaurants and shops that you can walk to, and have easy access to 635 and the North Tollway!Definitely a winner!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r136474875-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>136474875</t>
+  </si>
+  <si>
+    <t>Great location, very accommodating!</t>
+  </si>
+  <si>
+    <t>Can't say enough good things about this location!  Easy on/off access to the highway, but also walking distance to many restaurants and shops.  The front office staff was attentive and personable, the rooms were spacious, comfortable, and clean, and the complimentary hot breakfast had something for everyone.  The children in our group enjoyed the sport court as well as the pool.  We would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Can't say enough good things about this location!  Easy on/off access to the highway, but also walking distance to many restaurants and shops.  The front office staff was attentive and personable, the rooms were spacious, comfortable, and clean, and the complimentary hot breakfast had something for everyone.  The children in our group enjoyed the sport court as well as the pool.  We would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r136419329-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>136419329</t>
+  </si>
+  <si>
+    <t>08/06/2012</t>
+  </si>
+  <si>
+    <t>Excellent service, clean and close to everything!</t>
+  </si>
+  <si>
+    <t>We had excellent service from making our reservations to our check in, our stay, morning breakfast and check out! Lovely, updated, very clean place and room! We loved the sport court and having a pool.  Hot breakfast was great and the hotel is very close to the freeway, stores, shops and restaurants!MoreShow less</t>
+  </si>
+  <si>
+    <t>We had excellent service from making our reservations to our check in, our stay, morning breakfast and check out! Lovely, updated, very clean place and room! We loved the sport court and having a pool.  Hot breakfast was great and the hotel is very close to the freeway, stores, shops and restaurants!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r135900904-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>135900904</t>
+  </si>
+  <si>
+    <t>07/31/2012</t>
+  </si>
+  <si>
+    <t>Good place for extended stay guest</t>
+  </si>
+  <si>
+    <t>Overall everything is great. Stuff are really nice and friendly. There is maid service and free breakfast provided everyday. Shops and Restaurants are also near to the hotel. There is also shuttle to bring you to the market and shopping centre on the weekends. It is a good place to be at.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r135899295-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>135899295</t>
+  </si>
+  <si>
+    <t>Good and Bad</t>
+  </si>
+  <si>
+    <t>I spent a year here. They have good services like Reward point program, free dinner from Mon to Thu, convenient studio room, etc. but the AC unit in each room is really bad.The Compressor is put inside your wooden room, wooden floor. It is super noisy and it vibrates like a buzz. I've changed 4 rooms and asked manager to change the AC. Their manager and staff are nice, they did that but it did not help. When all ACs from other room turned on, it was a nightmare. My sleep quality is ZERO.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r135894086-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>135894086</t>
+  </si>
+  <si>
+    <t>Very Easy and Nice</t>
+  </si>
+  <si>
+    <t>Stayed here for business meetings.  Friendly Staff, Clean place, great breakfast, great service.  Short and to the point, but it was a nice venue.  They food was good, and they had a lot of options.  The meeting room was a little small, but served it's purpose.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r132602473-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>132602473</t>
+  </si>
+  <si>
+    <t>06/23/2012</t>
+  </si>
+  <si>
+    <t>Just average at best.</t>
+  </si>
+  <si>
+    <t>The staff here was nice but this hotel has a few problems.  First some of the rooms face inward and they have a pool and basketball court in the inside courtyard.  There Are screaming kids and teenagers till 10pm nightly.  You can request an outside room.  Second the free breakfast is plentiful but gljuat not very good.  Rooms were clean and adequate.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 2, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2012</t>
+  </si>
+  <si>
+    <t>The staff here was nice but this hotel has a few problems.  First some of the rooms face inward and they have a pool and basketball court in the inside courtyard.  There Are screaming kids and teenagers till 10pm nightly.  You can request an outside room.  Second the free breakfast is plentiful but gljuat not very good.  Rooms were clean and adequate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r132370805-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>132370805</t>
+  </si>
+  <si>
+    <t>06/20/2012</t>
+  </si>
+  <si>
+    <t>3 weeks in Addison TX</t>
+  </si>
+  <si>
+    <t>The overall stay was ok. The internet was extremely slow.  The free breakfast was good, the coffee not so good.  The exercise room has broken equipment.  The bed was comfortable.  I think that they need to have a designated smoking area not outside of every exit of the hotel, especially at the entrance of the main lobby from the guest rooms.  Room service/cleaning/guest services was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>The overall stay was ok. The internet was extremely slow.  The free breakfast was good, the coffee not so good.  The exercise room has broken equipment.  The bed was comfortable.  I think that they need to have a designated smoking area not outside of every exit of the hotel, especially at the entrance of the main lobby from the guest rooms.  Room service/cleaning/guest services was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r131891913-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>131891913</t>
+  </si>
+  <si>
+    <t>06/13/2012</t>
+  </si>
+  <si>
+    <t>Good hotel in great area near everything</t>
+  </si>
+  <si>
+    <t>We decided to stay at this hotel during out home relocation trip to the area and also the low price it offered for a two bedroom suite when compared to other similarly priced hotels. This Residence Inn is centrally located in the Addison business district and within walking distance to more restaurants than you ca try in a weekend. Check inn was quick and friendly and the hotel lobby area is kept clean and organized. The only gripe we had during our stay was the musty smell our suite had. I am almost certain that the smell is due to the A/C system and the fact that the windows are never opened to let fresh air in. Other than the musty smell issue, I would not hesitate recommending this hotel to any Trip Advisor members.MoreShow less</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded June 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2012</t>
+  </si>
+  <si>
+    <t>We decided to stay at this hotel during out home relocation trip to the area and also the low price it offered for a two bedroom suite when compared to other similarly priced hotels. This Residence Inn is centrally located in the Addison business district and within walking distance to more restaurants than you ca try in a weekend. Check inn was quick and friendly and the hotel lobby area is kept clean and organized. The only gripe we had during our stay was the musty smell our suite had. I am almost certain that the smell is due to the A/C system and the fact that the windows are never opened to let fresh air in. Other than the musty smell issue, I would not hesitate recommending this hotel to any Trip Advisor members.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r131433099-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>131433099</t>
+  </si>
+  <si>
+    <t>06/06/2012</t>
+  </si>
+  <si>
+    <t>I stayed here for training and it was really nice. Good food with happy hour drinks too. The staff was really nice too.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for training and it was really nice. Good food with happy hour drinks too. The staff was really nice too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r131189753-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>131189753</t>
+  </si>
+  <si>
+    <t>06/03/2012</t>
+  </si>
+  <si>
+    <t>Huge rooms and very good service.</t>
+  </si>
+  <si>
+    <t>The rooms are very big and include a real kitchen. The hotel also offer a very nice seevice: they do the grocery shopping for you and the service is free. The hotel also offers a full breakfast (included) and few days per week (included). Amenities include a nuce gym, tennis court and an outdoor pool+Jacuzzi! Great value for money!MoreShow less</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded June 4, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2012</t>
+  </si>
+  <si>
+    <t>The rooms are very big and include a real kitchen. The hotel also offer a very nice seevice: they do the grocery shopping for you and the service is free. The hotel also offers a full breakfast (included) and few days per week (included). Amenities include a nuce gym, tennis court and an outdoor pool+Jacuzzi! Great value for money!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r130813472-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>130813472</t>
+  </si>
+  <si>
+    <t>05/28/2012</t>
+  </si>
+  <si>
+    <t>Excellent Hotel, will absolutely stay again</t>
+  </si>
+  <si>
+    <t>This is a beautiful place to stay. The room is very nice and well kept. The full size refrigerator is a big help if you are going to stock a lot of supplies. Two TVs in two rooms (bedroom and the seating area) will surely come in handy when staying with kids. The breakfast offered great food. The evening social dinner had separate main items every night along with salads, soft drinks, wine and beer. The location is great, just off the Belt Line road with loads of eating places, but a little inside, so you do not get the traffic noise. The employees are very welcoming, and I was glad to see that they honored y request for a high floor room (even though the hotel has only 3 floors, I always prefer the highest floor). The pool and the gym seemd very clean and well maintained. Overall, this is a great hotel, and next time when I am in Dallas/Addison area, I am going to stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>ResidenceInnAddison, General Manager at Residence Inn Dallas Addison/Quorum Drive, responded to this reviewResponded June 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2012</t>
+  </si>
+  <si>
+    <t>This is a beautiful place to stay. The room is very nice and well kept. The full size refrigerator is a big help if you are going to stock a lot of supplies. Two TVs in two rooms (bedroom and the seating area) will surely come in handy when staying with kids. The breakfast offered great food. The evening social dinner had separate main items every night along with salads, soft drinks, wine and beer. The location is great, just off the Belt Line road with loads of eating places, but a little inside, so you do not get the traffic noise. The employees are very welcoming, and I was glad to see that they honored y request for a high floor room (even though the hotel has only 3 floors, I always prefer the highest floor). The pool and the gym seemd very clean and well maintained. Overall, this is a great hotel, and next time when I am in Dallas/Addison area, I am going to stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r126459577-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>126459577</t>
+  </si>
+  <si>
+    <t>03/21/2012</t>
+  </si>
+  <si>
+    <t>The only place I stay when in Dallas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Been a home away from home for the past 2 years. Arrive on Sunday and leave on Friday and never had any problems with billing.  Excellent personnel, clean rooms and by many restrauants.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r125795371-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>125795371</t>
+  </si>
+  <si>
+    <t>03/08/2012</t>
+  </si>
+  <si>
+    <t>Very Nice Experience</t>
+  </si>
+  <si>
+    <t>I came to visit a colleague staying here, and was persuaded by the Manager to shift into one of their suites. I moved in and did not regret it. The stay was extremely comfotable, and I felt so welcome in this place. The staff here is incredible. They genuinely care for each of their guests and this is what makes this place special. They treat their guests' guests as their own.I moved in as a guest and left as a friend!</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r124036364-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>124036364</t>
+  </si>
+  <si>
+    <t>02/02/2012</t>
+  </si>
+  <si>
+    <t>Wonder place to me</t>
+  </si>
+  <si>
+    <t>Have pent a week in this hotel and has been a wonderful place to stay.  The suites are large and are kept very clean, and are fully furnished.  The meeting rooms are comfortable.  The breakfast and evening food provided is good comfort food.  Will stay here again</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r117600551-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>117600551</t>
+  </si>
+  <si>
+    <t>09/02/2011</t>
+  </si>
+  <si>
+    <t>Decent hotel, good location.</t>
+  </si>
+  <si>
+    <t>I've stayed here 4 times and never had a single problem. The rooms are very big, housekeeping do an excellent job, the reception staff are friendly and helpful. There are plenty of bars and restaurants nearby, The whole hotel including the pool area is always kept clean.The breakfast isn't great, just the usual boring stuff, but they do offer free beers for 1hr in the evenings which is a nice touch.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r111583521-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>111583521</t>
+  </si>
+  <si>
+    <t>06/05/2011</t>
+  </si>
+  <si>
+    <t>Great Hotel &amp; Staff</t>
+  </si>
+  <si>
+    <t>Stayed here in a 1 bed suitewith facilities from 25th May to 2 June, 2011. Everything was great, very good value for its class. The staff are excellent, especially reception, always willing to accomodate requests and are happy in a genuine way. Rooms very good, very clean, good quality and tidy........maids even dishwashed 2 cups!! They will shop &amp; deliver for you if you need to. Pool great, could do with more shades perhaps? Hotel ran free drinks and meals in the evening............great.No problems recommending this JW hotel and would stay again. Thanks to Wendy and her staff.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r76570152-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>76570152</t>
+  </si>
+  <si>
+    <t>08/23/2010</t>
+  </si>
+  <si>
+    <t>Recommended - with a caveat.</t>
+  </si>
+  <si>
+    <t>I spent one night here, and I was very impressed the quality of the staff, including the young lady who checked me in Thursday (8/19) night.  My room was very clean and the hotel has been updated within the past few years.  The breakfast bar was excellent. The Wi-Fi worked well with my laptop.One minor complaint is that the televisions were older CRT-based sets.  They both worked well, but neither could be connected to my laptop's S-Video or VGA outputs.My caveat is the basic architecture of the hotel.  It is set up like a miniature apartment complex with three separate buildings.  The lobby is in one building, and the guest rooms split between the other two.  I think that this arrangement could be problematic on very hot or rainy days.  Also, I had problems with some of the card readers on one of the buildings, but those may have been my fault.In brief, recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>I spent one night here, and I was very impressed the quality of the staff, including the young lady who checked me in Thursday (8/19) night.  My room was very clean and the hotel has been updated within the past few years.  The breakfast bar was excellent. The Wi-Fi worked well with my laptop.One minor complaint is that the televisions were older CRT-based sets.  They both worked well, but neither could be connected to my laptop's S-Video or VGA outputs.My caveat is the basic architecture of the hotel.  It is set up like a miniature apartment complex with three separate buildings.  The lobby is in one building, and the guest rooms split between the other two.  I think that this arrangement could be problematic on very hot or rainy days.  Also, I had problems with some of the card readers on one of the buildings, but those may have been my fault.In brief, recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r19994273-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>19994273</t>
+  </si>
+  <si>
+    <t>09/11/2008</t>
+  </si>
+  <si>
+    <t>Very Nice Stay</t>
+  </si>
+  <si>
+    <t>Stayed a week here. Very comfortable stay in a well-maintained property. The location was great with dining options galore in the Addison area. The staff was very helpful attending to every small need of ours. The complimentary breakfast was nice as well. The complimentary Wi-fi is a huge plus.Would definitely recommend it.</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r17507131-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>17507131</t>
+  </si>
+  <si>
+    <t>07/03/2008</t>
+  </si>
+  <si>
+    <t>Another Great Marriott Property</t>
+  </si>
+  <si>
+    <t>I spent 10 days at this property with my wife and son and have to say it is another good Residence Inn.  We picked the location in Addison due to the great eating establishments surrounding the property, as well as the easy access to the Dallas North Tollway and main arteries.  The staff was very friendly, from the front desk staff, the dining area staff and cleaning crew.  The room was just as requested, a one room suite.  I would have rated this stay as excellent but the furniture and carpet were a bit worn.  The kitchen did have new stainless steel appliances, and the bed was quite comfortable.  The only bummer is that no king size suites are offered at his property (maybe a residence inn policy?).  Whether your are on business or pleasure, this is the place to stay.  Hot breakfast in the morning, light dinner service Mon-Thur, outdoor pool and hot tub, it has it all.  In terms of amenities, the exercise room was quite weak.  Only an elliptical machine and 2 treadmills if I'm not mistaken.  Overall a good property, would recommend to family and friends!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>I spent 10 days at this property with my wife and son and have to say it is another good Residence Inn.  We picked the location in Addison due to the great eating establishments surrounding the property, as well as the easy access to the Dallas North Tollway and main arteries.  The staff was very friendly, from the front desk staff, the dining area staff and cleaning crew.  The room was just as requested, a one room suite.  I would have rated this stay as excellent but the furniture and carpet were a bit worn.  The kitchen did have new stainless steel appliances, and the bed was quite comfortable.  The only bummer is that no king size suites are offered at his property (maybe a residence inn policy?).  Whether your are on business or pleasure, this is the place to stay.  Hot breakfast in the morning, light dinner service Mon-Thur, outdoor pool and hot tub, it has it all.  In terms of amenities, the exercise room was quite weak.  Only an elliptical machine and 2 treadmills if I'm not mistaken.  Overall a good property, would recommend to family and friends!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r16421891-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>16421891</t>
+  </si>
+  <si>
+    <t>05/26/2008</t>
+  </si>
+  <si>
+    <t>Residence Inn - Done Right</t>
+  </si>
+  <si>
+    <t>My friend and I stayed for 5 days in April at this property in order to visit with her daughter and son-in-law who recently moved to the area.  We had a two bedroom suite and it was perfect.  The hotel appears to have had a recent renovation as all the appliances were stainless and  the living room furniture did not show any sign of wear.  The hotel is in a business park and therefore caters to a business client - which suited us - though there were also a couple of families.The front desk staff was welcoming and very accomodating and it was a pleasure any time we had to ask directions, etc - excellent and very well trained.The property was well care for and welcoming,  The breakfast in the morning was more than one would expect - also during the week there was a big spread in the afternoon.We enjoyed the hotel and the area - so many restaurants and stores and we look forward to returning.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2008</t>
+  </si>
+  <si>
+    <t>My friend and I stayed for 5 days in April at this property in order to visit with her daughter and son-in-law who recently moved to the area.  We had a two bedroom suite and it was perfect.  The hotel appears to have had a recent renovation as all the appliances were stainless and  the living room furniture did not show any sign of wear.  The hotel is in a business park and therefore caters to a business client - which suited us - though there were also a couple of families.The front desk staff was welcoming and very accomodating and it was a pleasure any time we had to ask directions, etc - excellent and very well trained.The property was well care for and welcoming,  The breakfast in the morning was more than one would expect - also during the week there was a big spread in the afternoon.We enjoyed the hotel and the area - so many restaurants and stores and we look forward to returning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r6738230-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>6738230</t>
+  </si>
+  <si>
+    <t>02/02/2007</t>
+  </si>
+  <si>
+    <t>Great for the Holidays</t>
+  </si>
+  <si>
+    <t>The hotel, staff, and service were excellent. We were away from home for the holidays, but the hotel made our holiday experience just lovely. Everything we asked for or needed, the staff provided for us quickly and with a smile. Rather than having a blue hoiday, we were able to have a wonderful Christmas celebration, thanks to the hotel and its staff.</t>
+  </si>
+  <si>
+    <t>December 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r5774641-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>5774641</t>
+  </si>
+  <si>
+    <t>09/05/2006</t>
+  </si>
+  <si>
+    <t>Excellent stay at the Residence Inn in Addison</t>
+  </si>
+  <si>
+    <t>We had an excellent one night stay... our studio suite was roomy... smelled clean... livingroom/kitchen provided plenty of room for the two of us. The queen sized bed was comfortable... quiet room, even though close to the Addison airport &amp; restaurant row... nice layout in bathroom with lavoratory separate from the commode &amp; shower/tub.. water pressure was great... nice showerhead &amp; shower curtain rod was curved so water wouldn't leak out of the tub while showering...EXCELLENT BREAKFAST BUFFET-- offered eggs, sausage, french toast &amp; waffles, yogurt, medley of thawed berries, granola, juices, milk, coffee, tea, pastries &amp; cereal... It is within walking distance to many restaurants &amp; Addison Circle Park. We walked to the park to view the Labor Day fireworks!We will definitely stay here again... the staff were friendly with easy check-in and check out.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2006</t>
+  </si>
+  <si>
+    <t>We had an excellent one night stay... our studio suite was roomy... smelled clean... livingroom/kitchen provided plenty of room for the two of us. The queen sized bed was comfortable... quiet room, even though close to the Addison airport &amp; restaurant row... nice layout in bathroom with lavoratory separate from the commode &amp; shower/tub.. water pressure was great... nice showerhead &amp; shower curtain rod was curved so water wouldn't leak out of the tub while showering...EXCELLENT BREAKFAST BUFFET-- offered eggs, sausage, french toast &amp; waffles, yogurt, medley of thawed berries, granola, juices, milk, coffee, tea, pastries &amp; cereal... It is within walking distance to many restaurants &amp; Addison Circle Park. We walked to the park to view the Labor Day fireworks!We will definitely stay here again... the staff were friendly with easy check-in and check out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r4896729-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>4896729</t>
+  </si>
+  <si>
+    <t>04/03/2006</t>
+  </si>
+  <si>
+    <t>Great place for family, need improvement on Internet</t>
+  </si>
+  <si>
+    <t>This is a great place to stay for both business and families.   It's close to restaurants and the expressway.   The rooms are very clean and comfortable.   The breakfast is very convenient, and it really does feel like home.   The only drawback is the internet connectivity.  The wireless connection is spotty and doing work in your suite is difficult because of it.   Also, there was no hard wired connection in the suite, so you are out of luck unless you go down to the lobby.Other than the internet access, I have no complaints!   Staff is extremely friendly, and facilities are very well kept.   I would definitely stay here again and recommend it to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2006</t>
+  </si>
+  <si>
+    <t>This is a great place to stay for both business and families.   It's close to restaurants and the expressway.   The rooms are very clean and comfortable.   The breakfast is very convenient, and it really does feel like home.   The only drawback is the internet connectivity.  The wireless connection is spotty and doing work in your suite is difficult because of it.   Also, there was no hard wired connection in the suite, so you are out of luck unless you go down to the lobby.Other than the internet access, I have no complaints!   Staff is extremely friendly, and facilities are very well kept.   I would definitely stay here again and recommend it to anyone.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +3153,7118 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>64</v>
+      </c>
+      <c r="X4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>80</v>
+      </c>
+      <c r="X7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" t="s">
+        <v>118</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>127</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>128</v>
+      </c>
+      <c r="X12" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13" t="s">
+        <v>142</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O13" t="s">
+        <v>144</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>145</v>
+      </c>
+      <c r="X13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>153</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>154</v>
+      </c>
+      <c r="X14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" t="s">
+        <v>159</v>
+      </c>
+      <c r="K15" t="s">
+        <v>160</v>
+      </c>
+      <c r="L15" t="s">
+        <v>161</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>154</v>
+      </c>
+      <c r="X15" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" t="s">
+        <v>167</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>154</v>
+      </c>
+      <c r="X16" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" t="s">
+        <v>175</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>176</v>
+      </c>
+      <c r="X17" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" t="s">
+        <v>182</v>
+      </c>
+      <c r="L18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>174</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>176</v>
+      </c>
+      <c r="X18" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" t="s">
+        <v>187</v>
+      </c>
+      <c r="K19" t="s">
+        <v>188</v>
+      </c>
+      <c r="L19" t="s">
+        <v>189</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>174</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>176</v>
+      </c>
+      <c r="X19" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>192</v>
+      </c>
+      <c r="J20" t="s">
+        <v>193</v>
+      </c>
+      <c r="K20" t="s">
+        <v>194</v>
+      </c>
+      <c r="L20" t="s">
+        <v>195</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>196</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>197</v>
+      </c>
+      <c r="X20" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>201</v>
+      </c>
+      <c r="J21" t="s">
+        <v>202</v>
+      </c>
+      <c r="K21" t="s">
+        <v>203</v>
+      </c>
+      <c r="L21" t="s">
+        <v>204</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>196</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>205</v>
+      </c>
+      <c r="X21" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" t="s">
+        <v>211</v>
+      </c>
+      <c r="L22" t="s">
+        <v>212</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>196</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>205</v>
+      </c>
+      <c r="X22" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>215</v>
+      </c>
+      <c r="J23" t="s">
+        <v>216</v>
+      </c>
+      <c r="K23" t="s">
+        <v>217</v>
+      </c>
+      <c r="L23" t="s">
+        <v>218</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>219</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>220</v>
+      </c>
+      <c r="X23" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>224</v>
+      </c>
+      <c r="J24" t="s">
+        <v>225</v>
+      </c>
+      <c r="K24" t="s">
+        <v>226</v>
+      </c>
+      <c r="L24" t="s">
+        <v>227</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>228</v>
+      </c>
+      <c r="O24" t="s">
+        <v>118</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>229</v>
+      </c>
+      <c r="X24" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>233</v>
+      </c>
+      <c r="J25" t="s">
+        <v>234</v>
+      </c>
+      <c r="K25" t="s">
+        <v>235</v>
+      </c>
+      <c r="L25" t="s">
+        <v>236</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>237</v>
+      </c>
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>238</v>
+      </c>
+      <c r="X25" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>241</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>242</v>
+      </c>
+      <c r="J26" t="s">
+        <v>243</v>
+      </c>
+      <c r="K26" t="s">
+        <v>244</v>
+      </c>
+      <c r="L26" t="s">
+        <v>245</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>237</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>238</v>
+      </c>
+      <c r="X26" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>247</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>248</v>
+      </c>
+      <c r="J27" t="s">
+        <v>249</v>
+      </c>
+      <c r="K27" t="s">
+        <v>250</v>
+      </c>
+      <c r="L27" t="s">
+        <v>251</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>237</v>
+      </c>
+      <c r="O27" t="s">
+        <v>175</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>252</v>
+      </c>
+      <c r="X27" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>255</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>256</v>
+      </c>
+      <c r="J28" t="s">
+        <v>257</v>
+      </c>
+      <c r="K28" t="s">
+        <v>258</v>
+      </c>
+      <c r="L28" t="s">
+        <v>259</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>237</v>
+      </c>
+      <c r="O28" t="s">
+        <v>144</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>252</v>
+      </c>
+      <c r="X28" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>261</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>262</v>
+      </c>
+      <c r="J29" t="s">
+        <v>263</v>
+      </c>
+      <c r="K29" t="s">
+        <v>264</v>
+      </c>
+      <c r="L29" t="s">
+        <v>265</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>266</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>267</v>
+      </c>
+      <c r="X29" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>270</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>271</v>
+      </c>
+      <c r="J30" t="s">
+        <v>272</v>
+      </c>
+      <c r="K30" t="s">
+        <v>273</v>
+      </c>
+      <c r="L30" t="s">
+        <v>274</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>267</v>
+      </c>
+      <c r="X30" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>276</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>277</v>
+      </c>
+      <c r="J31" t="s">
+        <v>278</v>
+      </c>
+      <c r="K31" t="s">
+        <v>279</v>
+      </c>
+      <c r="L31" t="s">
+        <v>280</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>281</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>282</v>
+      </c>
+      <c r="X31" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>285</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>286</v>
+      </c>
+      <c r="J32" t="s">
+        <v>287</v>
+      </c>
+      <c r="K32" t="s">
+        <v>288</v>
+      </c>
+      <c r="L32" t="s">
+        <v>289</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>290</v>
+      </c>
+      <c r="O32" t="s">
+        <v>144</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>291</v>
+      </c>
+      <c r="X32" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>294</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>295</v>
+      </c>
+      <c r="J33" t="s">
+        <v>296</v>
+      </c>
+      <c r="K33" t="s">
+        <v>297</v>
+      </c>
+      <c r="L33" t="s">
+        <v>298</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>299</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>300</v>
+      </c>
+      <c r="X33" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>303</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>304</v>
+      </c>
+      <c r="J34" t="s">
+        <v>305</v>
+      </c>
+      <c r="K34" t="s">
+        <v>306</v>
+      </c>
+      <c r="L34" t="s">
+        <v>307</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>308</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>309</v>
+      </c>
+      <c r="X34" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>312</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>313</v>
+      </c>
+      <c r="J35" t="s">
+        <v>314</v>
+      </c>
+      <c r="K35" t="s">
+        <v>315</v>
+      </c>
+      <c r="L35" t="s">
+        <v>316</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>317</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>318</v>
+      </c>
+      <c r="X35" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>321</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>322</v>
+      </c>
+      <c r="J36" t="s">
+        <v>323</v>
+      </c>
+      <c r="K36" t="s">
+        <v>324</v>
+      </c>
+      <c r="L36" t="s">
+        <v>325</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>317</v>
+      </c>
+      <c r="O36" t="s">
+        <v>175</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>318</v>
+      </c>
+      <c r="X36" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>327</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>328</v>
+      </c>
+      <c r="J37" t="s">
+        <v>329</v>
+      </c>
+      <c r="K37" t="s">
+        <v>141</v>
+      </c>
+      <c r="L37" t="s">
+        <v>330</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>331</v>
+      </c>
+      <c r="O37" t="s">
+        <v>144</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>318</v>
+      </c>
+      <c r="X37" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>333</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>334</v>
+      </c>
+      <c r="J38" t="s">
+        <v>335</v>
+      </c>
+      <c r="K38" t="s">
+        <v>336</v>
+      </c>
+      <c r="L38" t="s">
+        <v>337</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>338</v>
+      </c>
+      <c r="O38" t="s">
+        <v>118</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>339</v>
+      </c>
+      <c r="X38" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>342</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>343</v>
+      </c>
+      <c r="J39" t="s">
+        <v>344</v>
+      </c>
+      <c r="K39" t="s">
+        <v>345</v>
+      </c>
+      <c r="L39" t="s">
+        <v>346</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>339</v>
+      </c>
+      <c r="X39" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>348</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>349</v>
+      </c>
+      <c r="J40" t="s">
+        <v>350</v>
+      </c>
+      <c r="K40" t="s">
+        <v>351</v>
+      </c>
+      <c r="L40" t="s">
+        <v>352</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>338</v>
+      </c>
+      <c r="O40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>353</v>
+      </c>
+      <c r="X40" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>356</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>357</v>
+      </c>
+      <c r="J41" t="s">
+        <v>358</v>
+      </c>
+      <c r="K41" t="s">
+        <v>359</v>
+      </c>
+      <c r="L41" t="s">
+        <v>360</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>338</v>
+      </c>
+      <c r="O41" t="s">
+        <v>63</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>362</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>363</v>
+      </c>
+      <c r="J42" t="s">
+        <v>364</v>
+      </c>
+      <c r="K42" t="s">
+        <v>365</v>
+      </c>
+      <c r="L42" t="s">
+        <v>366</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>367</v>
+      </c>
+      <c r="O42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>368</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>369</v>
+      </c>
+      <c r="J43" t="s">
+        <v>370</v>
+      </c>
+      <c r="K43" t="s">
+        <v>371</v>
+      </c>
+      <c r="L43" t="s">
+        <v>372</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>373</v>
+      </c>
+      <c r="O43" t="s">
+        <v>63</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>374</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>375</v>
+      </c>
+      <c r="J44" t="s">
+        <v>376</v>
+      </c>
+      <c r="K44" t="s">
+        <v>377</v>
+      </c>
+      <c r="L44" t="s">
+        <v>378</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>367</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>379</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>380</v>
+      </c>
+      <c r="J45" t="s">
+        <v>381</v>
+      </c>
+      <c r="K45" t="s">
+        <v>382</v>
+      </c>
+      <c r="L45" t="s">
+        <v>383</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>384</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>386</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>387</v>
+      </c>
+      <c r="J46" t="s">
+        <v>388</v>
+      </c>
+      <c r="K46" t="s">
+        <v>389</v>
+      </c>
+      <c r="L46" t="s">
+        <v>390</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>391</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>392</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>393</v>
+      </c>
+      <c r="J47" t="s">
+        <v>394</v>
+      </c>
+      <c r="K47" t="s">
+        <v>395</v>
+      </c>
+      <c r="L47" t="s">
+        <v>396</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>391</v>
+      </c>
+      <c r="O47" t="s">
+        <v>144</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>397</v>
+      </c>
+      <c r="X47" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>400</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>401</v>
+      </c>
+      <c r="J48" t="s">
+        <v>402</v>
+      </c>
+      <c r="K48" t="s">
+        <v>403</v>
+      </c>
+      <c r="L48" t="s">
+        <v>404</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>391</v>
+      </c>
+      <c r="O48" t="s">
+        <v>144</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>405</v>
+      </c>
+      <c r="X48" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>408</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>409</v>
+      </c>
+      <c r="J49" t="s">
+        <v>410</v>
+      </c>
+      <c r="K49" t="s">
+        <v>411</v>
+      </c>
+      <c r="L49" t="s">
+        <v>412</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>413</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>414</v>
+      </c>
+      <c r="X49" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>417</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>418</v>
+      </c>
+      <c r="J50" t="s">
+        <v>419</v>
+      </c>
+      <c r="K50" t="s">
+        <v>420</v>
+      </c>
+      <c r="L50" t="s">
+        <v>421</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>384</v>
+      </c>
+      <c r="O50" t="s">
+        <v>144</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>422</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>423</v>
+      </c>
+      <c r="J51" t="s">
+        <v>424</v>
+      </c>
+      <c r="K51" t="s">
+        <v>425</v>
+      </c>
+      <c r="L51" t="s">
+        <v>426</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>413</v>
+      </c>
+      <c r="O51" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>427</v>
+      </c>
+      <c r="X51" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>430</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>431</v>
+      </c>
+      <c r="J52" t="s">
+        <v>432</v>
+      </c>
+      <c r="K52" t="s">
+        <v>433</v>
+      </c>
+      <c r="L52" t="s">
+        <v>434</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>413</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>435</v>
+      </c>
+      <c r="X52" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>438</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>439</v>
+      </c>
+      <c r="J53" t="s">
+        <v>440</v>
+      </c>
+      <c r="K53" t="s">
+        <v>441</v>
+      </c>
+      <c r="L53" t="s">
+        <v>442</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>443</v>
+      </c>
+      <c r="O53" t="s">
+        <v>63</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>444</v>
+      </c>
+      <c r="X53" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>447</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>448</v>
+      </c>
+      <c r="J54" t="s">
+        <v>449</v>
+      </c>
+      <c r="K54" t="s">
+        <v>450</v>
+      </c>
+      <c r="L54" t="s">
+        <v>451</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>452</v>
+      </c>
+      <c r="X54" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>455</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>456</v>
+      </c>
+      <c r="J55" t="s">
+        <v>457</v>
+      </c>
+      <c r="K55" t="s">
+        <v>458</v>
+      </c>
+      <c r="L55" t="s">
+        <v>459</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>460</v>
+      </c>
+      <c r="O55" t="s">
+        <v>63</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>461</v>
+      </c>
+      <c r="X55" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>464</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>465</v>
+      </c>
+      <c r="J56" t="s">
+        <v>466</v>
+      </c>
+      <c r="K56" t="s">
+        <v>467</v>
+      </c>
+      <c r="L56" t="s">
+        <v>468</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>469</v>
+      </c>
+      <c r="O56" t="s">
+        <v>118</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>470</v>
+      </c>
+      <c r="X56" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>473</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>474</v>
+      </c>
+      <c r="J57" t="s">
+        <v>475</v>
+      </c>
+      <c r="K57" t="s">
+        <v>476</v>
+      </c>
+      <c r="L57" t="s">
+        <v>477</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>478</v>
+      </c>
+      <c r="X57" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>481</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>482</v>
+      </c>
+      <c r="J58" t="s">
+        <v>483</v>
+      </c>
+      <c r="K58" t="s">
+        <v>484</v>
+      </c>
+      <c r="L58" t="s">
+        <v>485</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>469</v>
+      </c>
+      <c r="O58" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>486</v>
+      </c>
+      <c r="X58" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>489</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>490</v>
+      </c>
+      <c r="J59" t="s">
+        <v>491</v>
+      </c>
+      <c r="K59" t="s">
+        <v>203</v>
+      </c>
+      <c r="L59" t="s">
+        <v>492</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>493</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>494</v>
+      </c>
+      <c r="X59" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>497</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>498</v>
+      </c>
+      <c r="J60" t="s">
+        <v>499</v>
+      </c>
+      <c r="K60" t="s">
+        <v>500</v>
+      </c>
+      <c r="L60" t="s">
+        <v>501</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>502</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>494</v>
+      </c>
+      <c r="X60" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>504</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>505</v>
+      </c>
+      <c r="J61" t="s">
+        <v>499</v>
+      </c>
+      <c r="K61" t="s">
+        <v>506</v>
+      </c>
+      <c r="L61" t="s">
+        <v>507</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>502</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>508</v>
+      </c>
+      <c r="X61" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>511</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>512</v>
+      </c>
+      <c r="J62" t="s">
+        <v>513</v>
+      </c>
+      <c r="K62" t="s">
+        <v>514</v>
+      </c>
+      <c r="L62" t="s">
+        <v>515</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>516</v>
+      </c>
+      <c r="O62" t="s">
+        <v>63</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>517</v>
+      </c>
+      <c r="X62" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>520</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>521</v>
+      </c>
+      <c r="J63" t="s">
+        <v>513</v>
+      </c>
+      <c r="K63" t="s">
+        <v>522</v>
+      </c>
+      <c r="L63" t="s">
+        <v>523</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>460</v>
+      </c>
+      <c r="O63" t="s">
+        <v>144</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>517</v>
+      </c>
+      <c r="X63" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>525</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>526</v>
+      </c>
+      <c r="J64" t="s">
+        <v>527</v>
+      </c>
+      <c r="K64" t="s">
+        <v>528</v>
+      </c>
+      <c r="L64" t="s">
+        <v>529</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>460</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>530</v>
+      </c>
+      <c r="X64" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>533</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>534</v>
+      </c>
+      <c r="J65" t="s">
+        <v>535</v>
+      </c>
+      <c r="K65" t="s">
+        <v>536</v>
+      </c>
+      <c r="L65" t="s">
+        <v>537</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>460</v>
+      </c>
+      <c r="O65" t="s">
+        <v>63</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>538</v>
+      </c>
+      <c r="X65" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>541</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>542</v>
+      </c>
+      <c r="J66" t="s">
+        <v>543</v>
+      </c>
+      <c r="K66" t="s">
+        <v>544</v>
+      </c>
+      <c r="L66" t="s">
+        <v>545</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>546</v>
+      </c>
+      <c r="X66" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>549</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>550</v>
+      </c>
+      <c r="J67" t="s">
+        <v>551</v>
+      </c>
+      <c r="K67" t="s">
+        <v>552</v>
+      </c>
+      <c r="L67" t="s">
+        <v>553</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>493</v>
+      </c>
+      <c r="O67" t="s">
+        <v>118</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>554</v>
+      </c>
+      <c r="X67" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>557</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>558</v>
+      </c>
+      <c r="J68" t="s">
+        <v>559</v>
+      </c>
+      <c r="K68" t="s">
+        <v>560</v>
+      </c>
+      <c r="L68" t="s">
+        <v>561</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>562</v>
+      </c>
+      <c r="O68" t="s">
+        <v>63</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>563</v>
+      </c>
+      <c r="X68" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>566</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>567</v>
+      </c>
+      <c r="J69" t="s">
+        <v>568</v>
+      </c>
+      <c r="K69" t="s">
+        <v>569</v>
+      </c>
+      <c r="L69" t="s">
+        <v>570</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>571</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>572</v>
+      </c>
+      <c r="X69" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>575</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>576</v>
+      </c>
+      <c r="J70" t="s">
+        <v>577</v>
+      </c>
+      <c r="K70" t="s">
+        <v>578</v>
+      </c>
+      <c r="L70" t="s">
+        <v>579</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>580</v>
+      </c>
+      <c r="X70" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>583</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>584</v>
+      </c>
+      <c r="J71" t="s">
+        <v>585</v>
+      </c>
+      <c r="K71" t="s">
+        <v>586</v>
+      </c>
+      <c r="L71" t="s">
+        <v>587</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>571</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>588</v>
+      </c>
+      <c r="X71" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>591</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>592</v>
+      </c>
+      <c r="J72" t="s">
+        <v>593</v>
+      </c>
+      <c r="K72" t="s">
+        <v>594</v>
+      </c>
+      <c r="L72" t="s">
+        <v>595</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>596</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>597</v>
+      </c>
+      <c r="X72" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>600</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>601</v>
+      </c>
+      <c r="J73" t="s">
+        <v>602</v>
+      </c>
+      <c r="K73" t="s">
+        <v>603</v>
+      </c>
+      <c r="L73" t="s">
+        <v>604</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>605</v>
+      </c>
+      <c r="O73" t="s">
+        <v>63</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>606</v>
+      </c>
+      <c r="X73" t="s">
+        <v>607</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>609</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>610</v>
+      </c>
+      <c r="J74" t="s">
+        <v>611</v>
+      </c>
+      <c r="K74" t="s">
+        <v>612</v>
+      </c>
+      <c r="L74" t="s">
+        <v>613</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>614</v>
+      </c>
+      <c r="O74" t="s">
+        <v>118</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>615</v>
+      </c>
+      <c r="X74" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>618</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>619</v>
+      </c>
+      <c r="J75" t="s">
+        <v>620</v>
+      </c>
+      <c r="K75" t="s">
+        <v>621</v>
+      </c>
+      <c r="L75" t="s">
+        <v>622</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>605</v>
+      </c>
+      <c r="O75" t="s">
+        <v>63</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>623</v>
+      </c>
+      <c r="X75" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>626</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>627</v>
+      </c>
+      <c r="J76" t="s">
+        <v>628</v>
+      </c>
+      <c r="K76" t="s">
+        <v>629</v>
+      </c>
+      <c r="L76" t="s">
+        <v>630</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>631</v>
+      </c>
+      <c r="O76" t="s">
+        <v>144</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>632</v>
+      </c>
+      <c r="X76" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>635</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>636</v>
+      </c>
+      <c r="J77" t="s">
+        <v>637</v>
+      </c>
+      <c r="K77" t="s">
+        <v>638</v>
+      </c>
+      <c r="L77" t="s">
+        <v>639</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>614</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>640</v>
+      </c>
+      <c r="X77" t="s">
+        <v>641</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>643</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>644</v>
+      </c>
+      <c r="J78" t="s">
+        <v>645</v>
+      </c>
+      <c r="K78" t="s">
+        <v>646</v>
+      </c>
+      <c r="L78" t="s">
+        <v>647</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>648</v>
+      </c>
+      <c r="X78" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>651</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>652</v>
+      </c>
+      <c r="J79" t="s">
+        <v>653</v>
+      </c>
+      <c r="K79" t="s">
+        <v>654</v>
+      </c>
+      <c r="L79" t="s">
+        <v>655</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>656</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>657</v>
+      </c>
+      <c r="X79" t="s">
+        <v>658</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>660</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>661</v>
+      </c>
+      <c r="J80" t="s">
+        <v>662</v>
+      </c>
+      <c r="K80" t="s">
+        <v>663</v>
+      </c>
+      <c r="L80" t="s">
+        <v>664</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>665</v>
+      </c>
+      <c r="O80" t="s">
+        <v>63</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>666</v>
+      </c>
+      <c r="X80" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>669</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>670</v>
+      </c>
+      <c r="J81" t="s">
+        <v>671</v>
+      </c>
+      <c r="K81" t="s">
+        <v>672</v>
+      </c>
+      <c r="L81" t="s">
+        <v>673</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>674</v>
+      </c>
+      <c r="X81" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>677</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>678</v>
+      </c>
+      <c r="J82" t="s">
+        <v>679</v>
+      </c>
+      <c r="K82" t="s">
+        <v>680</v>
+      </c>
+      <c r="L82" t="s">
+        <v>681</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>682</v>
+      </c>
+      <c r="O82" t="s">
+        <v>63</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>674</v>
+      </c>
+      <c r="X82" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>684</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>685</v>
+      </c>
+      <c r="J83" t="s">
+        <v>686</v>
+      </c>
+      <c r="K83" t="s">
+        <v>687</v>
+      </c>
+      <c r="L83" t="s">
+        <v>688</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>682</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>689</v>
+      </c>
+      <c r="X83" t="s">
+        <v>690</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>692</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>693</v>
+      </c>
+      <c r="J84" t="s">
+        <v>694</v>
+      </c>
+      <c r="K84" t="s">
+        <v>695</v>
+      </c>
+      <c r="L84" t="s">
+        <v>696</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>697</v>
+      </c>
+      <c r="O84" t="s">
+        <v>144</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>698</v>
+      </c>
+      <c r="X84" t="s">
+        <v>699</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>701</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>702</v>
+      </c>
+      <c r="J85" t="s">
+        <v>703</v>
+      </c>
+      <c r="K85" t="s">
+        <v>704</v>
+      </c>
+      <c r="L85" t="s">
+        <v>705</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>697</v>
+      </c>
+      <c r="O85" t="s">
+        <v>144</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>706</v>
+      </c>
+      <c r="X85" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>709</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>710</v>
+      </c>
+      <c r="J86" t="s">
+        <v>711</v>
+      </c>
+      <c r="K86" t="s">
+        <v>712</v>
+      </c>
+      <c r="L86" t="s">
+        <v>713</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>714</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>715</v>
+      </c>
+      <c r="X86" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>718</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>719</v>
+      </c>
+      <c r="J87" t="s">
+        <v>711</v>
+      </c>
+      <c r="K87" t="s">
+        <v>720</v>
+      </c>
+      <c r="L87" t="s">
+        <v>721</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>714</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>715</v>
+      </c>
+      <c r="X87" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>723</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>724</v>
+      </c>
+      <c r="J88" t="s">
+        <v>725</v>
+      </c>
+      <c r="K88" t="s">
+        <v>726</v>
+      </c>
+      <c r="L88" t="s">
+        <v>727</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>714</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>715</v>
+      </c>
+      <c r="X88" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>729</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>730</v>
+      </c>
+      <c r="J89" t="s">
+        <v>731</v>
+      </c>
+      <c r="K89" t="s">
+        <v>732</v>
+      </c>
+      <c r="L89" t="s">
+        <v>733</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>734</v>
+      </c>
+      <c r="O89" t="s">
+        <v>63</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>735</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>736</v>
+      </c>
+      <c r="J90" t="s">
+        <v>731</v>
+      </c>
+      <c r="K90" t="s">
+        <v>737</v>
+      </c>
+      <c r="L90" t="s">
+        <v>738</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="s">
+        <v>739</v>
+      </c>
+      <c r="O90" t="s">
+        <v>63</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>740</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>741</v>
+      </c>
+      <c r="J91" t="s">
+        <v>731</v>
+      </c>
+      <c r="K91" t="s">
+        <v>742</v>
+      </c>
+      <c r="L91" t="s">
+        <v>743</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>734</v>
+      </c>
+      <c r="O91" t="s">
+        <v>63</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>744</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>745</v>
+      </c>
+      <c r="J92" t="s">
+        <v>746</v>
+      </c>
+      <c r="K92" t="s">
+        <v>747</v>
+      </c>
+      <c r="L92" t="s">
+        <v>748</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>2</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>749</v>
+      </c>
+      <c r="X92" t="s">
+        <v>750</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>752</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>753</v>
+      </c>
+      <c r="J93" t="s">
+        <v>754</v>
+      </c>
+      <c r="K93" t="s">
+        <v>755</v>
+      </c>
+      <c r="L93" t="s">
+        <v>756</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>757</v>
+      </c>
+      <c r="O93" t="s">
+        <v>63</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>749</v>
+      </c>
+      <c r="X93" t="s">
+        <v>750</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>759</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>760</v>
+      </c>
+      <c r="J94" t="s">
+        <v>761</v>
+      </c>
+      <c r="K94" t="s">
+        <v>762</v>
+      </c>
+      <c r="L94" t="s">
+        <v>763</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="s">
+        <v>757</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>764</v>
+      </c>
+      <c r="X94" t="s">
+        <v>765</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>767</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>768</v>
+      </c>
+      <c r="J95" t="s">
+        <v>769</v>
+      </c>
+      <c r="K95" t="s">
+        <v>578</v>
+      </c>
+      <c r="L95" t="s">
+        <v>770</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>757</v>
+      </c>
+      <c r="O95" t="s">
+        <v>63</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>764</v>
+      </c>
+      <c r="X95" t="s">
+        <v>765</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>772</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>773</v>
+      </c>
+      <c r="J96" t="s">
+        <v>774</v>
+      </c>
+      <c r="K96" t="s">
+        <v>775</v>
+      </c>
+      <c r="L96" t="s">
+        <v>776</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>777</v>
+      </c>
+      <c r="X96" t="s">
+        <v>778</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>780</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>781</v>
+      </c>
+      <c r="J97" t="s">
+        <v>782</v>
+      </c>
+      <c r="K97" t="s">
+        <v>783</v>
+      </c>
+      <c r="L97" t="s">
+        <v>784</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>785</v>
+      </c>
+      <c r="O97" t="s">
+        <v>63</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>786</v>
+      </c>
+      <c r="X97" t="s">
+        <v>787</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>789</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>790</v>
+      </c>
+      <c r="J98" t="s">
+        <v>791</v>
+      </c>
+      <c r="K98" t="s">
+        <v>792</v>
+      </c>
+      <c r="L98" t="s">
+        <v>793</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>794</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>795</v>
+      </c>
+      <c r="J99" t="s">
+        <v>796</v>
+      </c>
+      <c r="K99" t="s">
+        <v>797</v>
+      </c>
+      <c r="L99" t="s">
+        <v>798</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>799</v>
+      </c>
+      <c r="O99" t="s">
+        <v>63</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>800</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>801</v>
+      </c>
+      <c r="J100" t="s">
+        <v>802</v>
+      </c>
+      <c r="K100" t="s">
+        <v>803</v>
+      </c>
+      <c r="L100" t="s">
+        <v>804</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>805</v>
+      </c>
+      <c r="O100" t="s">
+        <v>63</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>806</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>807</v>
+      </c>
+      <c r="J101" t="s">
+        <v>808</v>
+      </c>
+      <c r="K101" t="s">
+        <v>809</v>
+      </c>
+      <c r="L101" t="s">
+        <v>810</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>811</v>
+      </c>
+      <c r="O101" t="s">
+        <v>63</v>
+      </c>
+      <c r="P101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>812</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>813</v>
+      </c>
+      <c r="J102" t="s">
+        <v>814</v>
+      </c>
+      <c r="K102" t="s">
+        <v>815</v>
+      </c>
+      <c r="L102" t="s">
+        <v>816</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>817</v>
+      </c>
+      <c r="O102" t="s">
+        <v>144</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="s"/>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>818</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>819</v>
+      </c>
+      <c r="J103" t="s">
+        <v>820</v>
+      </c>
+      <c r="K103" t="s">
+        <v>821</v>
+      </c>
+      <c r="L103" t="s">
+        <v>822</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>823</v>
+      </c>
+      <c r="O103" t="s">
+        <v>175</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>3</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>825</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>826</v>
+      </c>
+      <c r="J104" t="s">
+        <v>827</v>
+      </c>
+      <c r="K104" t="s">
+        <v>828</v>
+      </c>
+      <c r="L104" t="s">
+        <v>829</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>830</v>
+      </c>
+      <c r="O104" t="s">
+        <v>63</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>4</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>831</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>832</v>
+      </c>
+      <c r="J105" t="s">
+        <v>833</v>
+      </c>
+      <c r="K105" t="s">
+        <v>834</v>
+      </c>
+      <c r="L105" t="s">
+        <v>835</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>836</v>
+      </c>
+      <c r="O105" t="s">
+        <v>63</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>838</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>839</v>
+      </c>
+      <c r="J106" t="s">
+        <v>840</v>
+      </c>
+      <c r="K106" t="s">
+        <v>841</v>
+      </c>
+      <c r="L106" t="s">
+        <v>842</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>843</v>
+      </c>
+      <c r="O106" t="s">
+        <v>118</v>
+      </c>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>845</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>846</v>
+      </c>
+      <c r="J107" t="s">
+        <v>847</v>
+      </c>
+      <c r="K107" t="s">
+        <v>848</v>
+      </c>
+      <c r="L107" t="s">
+        <v>849</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>850</v>
+      </c>
+      <c r="O107" t="s">
+        <v>63</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>851</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>852</v>
+      </c>
+      <c r="J108" t="s">
+        <v>853</v>
+      </c>
+      <c r="K108" t="s">
+        <v>854</v>
+      </c>
+      <c r="L108" t="s">
+        <v>855</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>856</v>
+      </c>
+      <c r="O108" t="s">
+        <v>144</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>5</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>32583</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>858</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>859</v>
+      </c>
+      <c r="J109" t="s">
+        <v>860</v>
+      </c>
+      <c r="K109" t="s">
+        <v>861</v>
+      </c>
+      <c r="L109" t="s">
+        <v>862</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>863</v>
+      </c>
+      <c r="O109" t="s">
+        <v>63</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>5</v>
+      </c>
+      <c r="R109" t="s"/>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>864</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_649.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_649.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="973">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>vedettefille</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -187,6 +190,9 @@
   </si>
   <si>
     <t>This hotel is exactly what you would expect from a Residence Inn in a business district.  It was quiet night's sleep on the top floor with the exception of teens hanging out by the pool.  It wasn't extraordinary, but we didn't have any trouble either.More</t>
+  </si>
+  <si>
+    <t>deathracer</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r560320220-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
@@ -239,6 +245,9 @@
 As far as walking, there are many...I stayed at the Addison/Quorum Drive Residence Inn for 1 week while on businees in the area.My suite was on the 3rd floor near the end of the hall facing inwards away from the parking, but not close to the pool.  This location turned out to be very quiet, especially imprortaint becasue during this week, I was working late and sleeping through part of the day.  I read an earlier review about some kind of parking lot parties in the area.  I saw nothing like this around the hotel property at all.There are no elevators, so bringing bags up to the 3rd floor on the first day was a bit of a chore.Card access is required to get into the building - seems very  secure.There is plenty of parking.My suite was in very good shape with quite recent decor and furnishings.When I first saw the bed, I thought it was smaller than a queen, but in fact it is a queen size, but perhaps the height makes it look smaller.TV channel and selection were excellent and you can plug a media player into a free HDMI port and change the input with the remote.I really liked the L shaped couch and table.The area is full of restaurants with at least a half dozen that you can walk to.  I really liked Ida Claire restaurant.As far as walking, there are many sidewalks and you can see many people walking.The strip mall on the same side as the hotel (diagonally across the street) has (at least) a steak restaurant, a japanese restaurant, 2 cafes, and moreWhat I liked:- Quiet room - never heard my neighbours- Very clean and spacious suite- Feeling of security- Location location location - an area fulll of stuff and you can actually walk to quite a bit - and at the same time, be on the highway in 1 minuteMore</t>
   </si>
   <si>
+    <t>Bama_world_traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r558408382-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -260,6 +269,9 @@
     <t>My family of two adults and our late teen kids, plus a sister and my parents stayed here spread out over two rooms for six days over the Christmas holidays while visiting family in the Addison area.  Because of the holiday season, the hotel was pretty quiet.  In spite of that, their team took good care of us.  This Residence Inn is a pretty standard layout for the brand and we occupied their two-bedroom, two-bath suites which were quite comfortable.  In our room on the 3rd floor, it was quiet and we could barely hear any outside noise.  The location is great because there are numerous restaurants nearby as well as a Whole Foods market within a 5 minute drive or 15 minute walk.  The breakfast is standard fare for Residence Inn (sausages, bacon, scrambled eggs, cereals, etc.), but good enough for a few days - supplemented by whatever we got from the supermarket.  It's in North Dallas, away from the central downtown area - about 20-30 minute drive, but since we were there to hang out with family that were in the Addison area who were about 5 to 7 minutes away, the location was perfect for us.More</t>
   </si>
   <si>
+    <t>Christina C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r500054420-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -287,6 +299,9 @@
     <t>I absolutely love this hotel. I stayed here a week to visit our grandbaby for the first time. This hotel is immaculate, in a beautiful area, well maintained and ran by the most amazing team of people. Allen, Alan, Celina and Alexis made our stay exceptional and i cant be more impressed. There's a free shuttle, nightly wine down, free parking and amazing restaurants in walking distance. The complimentary breakfast daily was hot, fresh and shared with a smile. Not one request was denied or not one question left unanswered. We were in a gorgeous room with kitchenette and never ran low on essentials. Im grateful for Residence Inn Addison and their awesome team immaculately running it. This hotel absolutely rocks!  Oh and housekeeping Miss Cynthia and Sylvia are awesome sauce as well. Please remember to tip these ladies they are worth it.More</t>
   </si>
   <si>
+    <t>MongozDad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r491072752-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -308,6 +323,9 @@
     <t>Hotel is in good shape.  Desk crew is friendly and courteous.  Breakfast is typical hotel fare.  Wednesday mixer had an odd menu, green olives, s'mores, and watermelon. However, there are loud partyers in the parking lot adjacent to Building B carousing into the wee hours on most nights.  They blast music from the car stereos, and eventually usually set off their car alarms before they leave.  If you need to wake up at 0500, you can consider the car alarms like an added wakeup service.  They arrive somewhere around midnight, and depart somewhere around 5 am.  Ask for a room facing into the courtyard, particularly if you find yourself assigned to building B.More</t>
   </si>
   <si>
+    <t>ntlwhlr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r488360296-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -327,6 +345,9 @@
   </si>
   <si>
     <t>I had a good recent stay at the Residence Inn.  Summary:ROOMS:  The rooms are well sized, clean, and comfortable.  I found the free wifi to work well and I didn't have any real issues during the stay including streaming music or TV shows.  The main TV service for the hotel did not have too many channels and even some of them did not come in very well, so the streaming TV shows came in handy.SERVICE:  I found the service to be friendly and great overall.  Sometimes at the breakfast or evening receptions items were out on more than one occasion and had to wait for them to be filled back up or select something else.LOCATION:  The location of the hotel could not be much better.  It is easy to find and just off a main road, but tucked away so it is more quiet and relaxing than one might expect.  There is tons of shopping and food of any kind in short distance from the hotel and a number of places within short walking distance.  It is close to major highways to get anywhere in the area fairly easy.The hotel had a pool, sports court and exercise room as well.  I enjoyed the stay at this hotel and would stay here again without a doubt in the area.More</t>
+  </si>
+  <si>
+    <t>oumed</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r462911688-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
@@ -358,6 +379,9 @@
 At this point I noted that although the thermostat was set at 68 degrees it indicated a room temperature of 77 degrees. It also indicated a low battery warning so I took a photo of the thermostat to the front desk (see photos) and explained the issue to the attendant. I was given two options: 1) change the the thermostat batteries myself then wait 20 minutes to see if that would...My family visited Dallas on Sat Feb. 18th &amp; 19th. We were looking forward to a quick, fun weekend getaway in the Dallas/Addison but unfortunately, all did not go well. The air conditioner was not functioning properly in our unit. Although it was February, the daytime temperature was in the upper 70s to low 80s and since our room was on the west end of the property nearest the setting sun, the room temperature began to rise at night and  climbed to very uncomfortable levels leading to very poor sleep for myself and my wife. After a late evening swim in the pool, we returned to the room to settle in for the night, watch some TV with the kids and go to sleep. The rising temperature was not initially noted since we had come from the pool but shortly after my wife and two children had gone to bed it became apparent. I stayed up a bit later then noticed the issue as I was preparing for bed. At this point I noted that although the thermostat was set at 68 degrees it indicated a room temperature of 77 degrees. It also indicated a low battery warning so I took a photo of the thermostat to the front desk (see photos) and explained the issue to the attendant. I was given two options: 1) change the the thermostat batteries myself then wait 20 minutes to see if that would help the situation; 2) move to 2 separate 1 bedroom units, each located across the hall from one another, with the rate for both rooms together equally the same rate I currently had on the 2 bedroom 2 bathroom unit we were in.Since by this time it was 12:27 am and the kids were already asleep it was not feasible to move to 2 new rooms at that hour of the night/morning. Instead, I took the 2 new batteries from the front desk attendant and on my return trip to our room, I noted that as I walked further and further from the front desk and closer to our room, the temperature in the hallway became warmer and warmer. Upon returning to the room I put the batteries in the thermostat as instructed. Twenty minutes later it was no cooler. I then tried opening two small windows in the living area but since the air outside was still, no airflow could develop and at one point the temperature actually rose to 79 degrees. It should be noted that the A/C system did turn both before and after changing the batteries but when it did so, a very, very meager amount of air exited the vents and the temperature of that air was not very cool at all. Fortunately, the temperature in the children's bedroom appeared to be a couple degrees cooler than the living room or the bedroom my wife in I were staying, The temperature during the night never fell below 77 degrees and when we left the next day at 10:15 it rose to 79 degrees. Serial photos were taken of the thermostat to document the temperature over time and also to point out that it was properly set to "cool" and "auto" as it should be for proper function. Our night was long, hot and miserable and after finally falling asleep in the middle of the night, I awoke unrefreshed and tired.During this disappointing stay, the same front desk attendant that knew about our situation was approached on 3 separate occasions during the night and follwing morning but unfortunately during none of those encounters was any offer made to offset our discomfort and disappointment other than the one option to wake up the children and change rooms in the middle of the night. We secured a room rate in good faith and paid $ for that room to keep honor our side of the agreement but unfortunately we did NOT receive all the benefits that were offered in the agreement, namely an appropriate room temperature. In that light, the VERY least Marriott could have done was to offer us a price concession since we did not receive the full benefits offered. Once again, Marriott had 3 separate human interactions that could have lead to a different opinion on our part but they either would not or could not take the necessary step to change our opinion by offering us something of value. Now we will share our opinion of Marriott with anyone willing to listen.More</t>
   </si>
   <si>
+    <t>outoftowners2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r448590090-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -376,6 +400,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>MsSpriggs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r435191815-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -406,6 +433,9 @@
     <t>We stayed here while in town for a Cowboys game.  Since it was  three of us, we shared a two bedroom suite.  Plenty of space and all the comforts of home.  Breakfast was decent, but there are tons of places to go grab something... most within walking distance.  The staff was nice, room was clean and the property was neat.  We were about 25 minutes from both the stadium and the airport (DAL).  We'll definitely be back on our next trip to town.More</t>
   </si>
   <si>
+    <t>Jasonco6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r422133484-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -433,6 +463,9 @@
     <t>I travel to Dallas quite often for work and have stayed at a number of hotels in Addison/quorum area and this is my favorite.  Large rooms, super clean and friendly staff.  With all my travels for business, a comfortable room is a big deal for me.  I continue to come back here. More</t>
   </si>
   <si>
+    <t>MrJeph</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r419333557-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -454,6 +487,9 @@
     <t>Stayed here while on business at Hitachi.  Great rate and really good location for local business and restaurants.  The hotel is rather big and the rooms are in very nice condition.  Somehow I lucked out and got a suite with 2 bedrooms, 2 bathrooms, and kitchen and sitting area.  Fantastic!  Hotel breakfast is included and a great spread.  Lots of variety and hot food.  There was free drinks and appetizers one evening - actual beer and food (chicken strips). Wow!  Pool area and gym both nice.  This was my first time at the Residence by Marriott brand - I was very impressed.More</t>
   </si>
   <si>
+    <t>מריה ש</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r409541154-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -484,6 +520,9 @@
     <t>The hotel is very clean the room is big and has kitchen inside which is nice.i really like this place. Second time Im here and second time i enjoy it. The location is good close to so many places. Really liked itMore</t>
   </si>
   <si>
+    <t>Bart B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r396398280-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -511,6 +550,9 @@
     <t>Booked 5 rooms here for a basketball team for 3 nights, over the weekend.  Got a rate of $76 and it was worth every penny.   Every room was clean, roomy, had a nice kitchenette with microwave and full refrigerator...dishwasher also.   Free breakfast bar each morning was great..eggs, sausage, waffles, bagels, toast, muffins, yogurt, juices, coffee, milks...our team got filled up and was able to spend less money when we went out for lunch.  The outdoor pool was very nice, nice hot tub and basketball court.  The front desk staff was friendly and accommodating.  They allowed us to utilize their meeting room for our teambuilding activities and pre-game meetings.    April was very welcoming and worked with us to get our payment arrangements sorted out for each room.  This hotel is in a nice area...Addison is a beautiful suburb of Dallas...clean, many choices of restaurants close by.  We walked several places.  When in the area in the future,  we will check this property first for vacancy.More</t>
   </si>
   <si>
+    <t>DWHNO33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r394785087-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -529,6 +571,9 @@
     <t>The room was clean and spacious. Breakfast was delicious! Front desk was very kind. Kids left basketballs at home. They had some extras, that was allowed to be borrow. Addison Circle Park was a close walk. We stayed for Kaboom Town. Great job as usual, Marriot! More</t>
   </si>
   <si>
+    <t>Kristyle79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r389557641-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -547,6 +592,9 @@
     <t>Tнιѕ waѕ oυr ѕecond тιмe ѕтayιng aт тнιѕ Reѕιdence Inn and we love тнιѕ place! Kaвooм тown waѕ goιng on and we coυld ѕee тнe evenт ғroм oυr ѕυιтe. Everyтнιng aвoυт тнιѕ нoтel ιѕ oυтѕтandιng and Greg, тнe ѕтaғғ мeмвer aт nιgнт, ιѕ тнe BEST! Hιм and Allen! Boтн gυyѕ wenт aвove and вeyond тo мaĸe ѕυre we were coмғorтaвle dυrιng oυr enтιre 4 day ѕтay and тнey are ѕυper ғrιendly. My нυѕвand and I are тrυcĸ drιver'ѕ and have ѕтayed aт a loт oғ нoтelѕ ιn тнe area, вυт тнιѕ place ιѕ вy FAR тнe вeѕт yeт! Tнanĸ yoυ gυyѕ ғor everyтнιng and we looĸ ғorward тo ѕeeιng yoυ agaιn very ѕoon! Sιncerely,Mr. And Mrѕ. Harrιѕ, "Tнe Trυcĸer Coυple"More</t>
   </si>
   <si>
+    <t>AmRiver1966</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r381527230-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -577,6 +625,9 @@
     <t>I returned to this hotel for several reasons.  The pool area and small patio off the dining room are nicely landscaped spaces to converse, eat, or relax alone.  I was in town for my granddaughter's high school graduation, to see clients, and to visit with a friend who also came in from out of town.  One night my teenage granddaughters stayed with me, and two nights my friend stayed with me. The Q Studio is laid out well for three or four adults to lounge and visit comfortably.  The L-shaped sofa bed provides seating even when the bed is unfolded.  The dining table seats two and there is a very wide work desk.  The hot dishes at breakfast nearly ran out a little early the first day, but were fine the other four days.  The pool was chilly for most of us, but we all enjoyed the adjacent hot tub.  The property was spotlessly clean, but a close look showed beginning signs of wear.Staff support was outstanding, and everyone seemed happy to be working there.The hotel is on a quiet street off two major arteries.  You can walk to several restaurants such as Smashburger or drive 5' to many restaurants or a Whole Foods. There is a hotel shuttle to the Galleria shopping center and other places.More</t>
   </si>
   <si>
+    <t>bachboy2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r380494174-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -595,6 +646,9 @@
     <t>Very welcoming and polite staff who did all they could to oblige including driving us to the local Walmart and shopping centre. Very clean, large spacious room with AC. Would certainly go here again - thanks to all the staff at Residence Inn, Dallas.More</t>
   </si>
   <si>
+    <t>Ryan Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r380072079-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -613,6 +667,9 @@
     <t>My wife, my daughter and I arrived at this property around midnight.  I was not an easy customer and asked them for room preferences that were not easy to deliver on, but Tom and Aileen worked hard to meet my requests.  They were very understanding and very patient in working with me.  I travel a lot on business and appreciate the genuine customer service that both Tom and Aileen displayed at that crazy hour of the night. Hotel has been upgraded in the last few years and is nice.More</t>
   </si>
   <si>
+    <t>luvthecaribbean</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r369936996-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -640,6 +697,9 @@
     <t>We were surprised at how well we enjoyed our stay at this Residence Inn.  It was for only one night but we would have been happy to stay there for an extended time!  From the Guest Services Desk to our breakfast lady, everyone was very pleasant and were ready to make our stay enjoyable.  Our room was very clean, well kept, well equipped and the beds were very comfortable (this is important to me because of back problems).  There were three TV's in our unit which is nice for families.The location was easy to find and close to the events we had to attend.  (Also, the location was nice and quiet).  I would highly recommend this hotel to anyone!More</t>
   </si>
   <si>
+    <t>Vitaly M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r367989798-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -664,6 +724,9 @@
     <t>A great hotel with comfortable rooms, which answers all your needs. The room is actually a bedroom with a bath and a restroom and a salon with a kitchen. Both are large enough and have tv's. Other facilities are plenty of parking, free WiFi, a pool and a jacuzzi, small but enough fitness room and a basketball yard.The staff is quiet and helpful. The hotel has a pretty nice location, which allows you not driving to the local pub or a restaurant and there are few worth visiting near it.A nice place to consider whether you're visiting Dallas as a couple, as a family with kids, or just solo.More</t>
   </si>
   <si>
+    <t>LaKeshia H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r367518643-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -682,6 +745,9 @@
     <t>I called this location while encountering a HORRIBLE experience at Hawthorne Inn 15200 Addison Rd, Addison, TX.  The receptionist who took my call said that he would hold the room for me and I was able to get there and settled in very quickly.  It was clean, spacious and felt like home.  It is also in close proximity to many venues I visited such as the Improv, Zen Spa and Massage Envy.  It truly played a great part in our Ladies Relaxation weekend.  My cousin and I were treating our Mothers and they truly enjoyed themselves.More</t>
   </si>
   <si>
+    <t>Elemar N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r357257378-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -709,6 +775,9 @@
     <t>Very good place, excellent service and neiborhood, large and complete room, excellent breakfast, everything is very good for family with children,  the hotel is near of restaurants and mall with skate arena.More</t>
   </si>
   <si>
+    <t>traveljunk1e</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r355276568-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -736,6 +805,9 @@
     <t>Overall this was a good hotel experience.  Only negative was the bed which was way to soft.  Kept rolling to the middle.  Otherwise staff was very nice, breakfast was great, and location was close to things we were doing.More</t>
   </si>
   <si>
+    <t>BenVerona</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r353947126-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -763,6 +835,9 @@
     <t>This hotel was quite nice and comfortable, but what made the difference was the helpfulness of the front desk team. Every day (I was there for 3 nights) they greeted me with a smile and a "hello" each time I passed the front desk, morning or evening, and when my phone charger broke they searched their lost-and-found for a replacement! The location was good as well - many, many restaurants within walking distance of the hotel. I will definitely stay here again.More</t>
   </si>
   <si>
+    <t>Zack M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r350940945-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -781,6 +856,9 @@
     <t>Friendly service from the staff.  Room was spacious and clean with nearly new furnishings.  Bed was very comfortable.  Had a good hot breakfast included in the rate.  Preferred location in Addison. Will stay here again.More</t>
   </si>
   <si>
+    <t>kfeam18</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r346276533-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -805,6 +883,9 @@
     <t>I checked in late and the night auditor was awesome friendly and helped me after my disaster at another hotel chain. I loved breakfast and majority of the restaurants and fun things were in walking distance which was great.More</t>
   </si>
   <si>
+    <t>Jerry R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r346005267-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -823,6 +904,9 @@
     <t>We've stayed at this location several times in the past 5 years. Every time we've stayed here it's been hassle free and the perfect stay.  The rooms are clean and the pool/hot tub is well maintained also. Each person we've dealt with at the front desk has always greeted us with a smile and very professional. The location is perfect if you're looking to just walk to dinner or entertainment.  Pete's Dueling Piano Bar &amp; The Improv Comedy Club are 1/2 a block away. Cross the street to the Addison Walk for great restaurants such as Kenny's Wood Fire Grill (great steaks, heck everything is great!), Shuck n Jive &amp; Memphis for great Cajun food and AWESOME live music any night of the week, Kobe's Japanese Steakhouse, or Buffalo Wild Wings if that's more your type. If that's not enough then just look up and down Beltline Dr for 50 more choices!!  It's a great place for a weekend get away. We love it.More</t>
   </si>
   <si>
+    <t>Jacob R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r342838099-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -850,6 +934,9 @@
     <t>When we visit Dallas family, we stay here. We like Residence Inn, and this property suites our needs. Pros: 1 br suite, dog friendly, full sized fridge and stove top. Location and price great. Cons: recommend King beds and would prefer a stove to a cook top. Really small exercise room.More</t>
   </si>
   <si>
+    <t>PlatinumAtMultiple</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r341721135-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -868,6 +955,9 @@
     <t>Quietest and cleanest place I have been in Addison.  The socials put together in the evening, while small were appreciated and helped me relax after work.  Room was super clean and comfortable. The staff was super attentive to any of my requests.  I would repeat here often if the price was just a little lower.More</t>
   </si>
   <si>
+    <t>97antoine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r338332340-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -895,6 +985,9 @@
     <t>I had a horrible experience at this hotel. Although I had my Do Not Disturb sign on my door staff members would still knock on my door. The maintenance man came in to change the filters on the air conditioner even though I had my Do Not Disturb sign on the door. when I made a complaint to front office staff and ask to speak to the manager she was never available. I contacted guest services to make a formal complaint receive additional marriott reward points however I will not return to this location.More</t>
   </si>
   <si>
+    <t>MrsGILee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r327162272-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -922,6 +1015,9 @@
     <t>This place is a great place to stay at. Clean bathroom and room. We got the studio queen and it was very spacious. The bed was amazing as well. Soft pillow top bed with awesome pillows. The front desk employees were really nice too. They greeted us with smile and was very helpful. The breakfast was good too if you can get up early enough to enjoy it. I would definitely come back to stay here.More</t>
   </si>
   <si>
+    <t>TallTex_Austin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r317267379-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -949,6 +1045,9 @@
     <t>We drove up from Austin to take State Fair of Texas over the long OU Texas Weekend. We came up Thursday night October 8. We had reserved our two bedroom back in August on one of the travel sites and got a 2/2 with full kitchen for $134/night plus 13 or 14% taxes. Great Deal for such a roomy place near Beltline Rd and the Dallas Galleria. Lots and lots of great eating out choices everywhere or you may shop and keep food and drink items in the full kitchen. The property is an older property but has been kept fresh and updated. Our condo type room has three flat panel TVs, free wifi, ice maker in fridge, even a manufactured log burning fireplace and the first log is free at the desk. We preffer Residence Inns for their breakfast which is great for a family with small children and the after work Happy Hours or food  get together M-W or so. (depends on property and location) This property does not have a HH but does have some after work food.More</t>
   </si>
   <si>
+    <t>LVSquared</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r314498214-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -976,6 +1075,9 @@
     <t>My experience was made more relaxing by knowing I could count on the front desk staff. The fitness center, breakfast area and pool were kept very clean and in order.  My room was spacious and I enjoyed the full kitchen and living areas.  Parking all the way around the buildings was always available.  My only concern was they entered my room to do some service, but didn't notify me of the work.  A card leaving some info about entry time and date would have been awesome.  The internet also tended to be spotty and almost unreliable at times.  Otherwise, I have nothing to complain about.  Will stay here in the future.More</t>
   </si>
   <si>
+    <t>Tisha G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r288561842-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1003,6 +1105,9 @@
     <t>This property has a REAL customer service issue &amp; no manager available on staff on weekends, so problems can only be handled on week-day stay...unfortunately like many people, we stayed over a weekend &amp; they DID NOT clean our room after we were out of the room for 6 hours (11 am to 5 pm)...When I called down to the front desk to inquire about our dirty room I was told the housekeeping staff were gone for the day &amp; they could send up some clean towels! I felt this was unacceptable so I went to the front desk to speak to a manager &amp; was told no manger would be available on the weekends...Basically tough luck lady! The staff was ill prepared to solve a problem, a problem I would have NEVER had, had they just done their jobs in the first place! Is it too much to ask to expect a clean hotel room during my stay?? I have stayed with a friend at this hotel &amp; this has happened to us during that stay also...I called Marriot to file an official complaint on the property &amp; the manager finally called me &amp; said her staff said it wasn't cleaned because of a "do not disturb" sign which was NOT true! The maid knocked on our door at 10 am &amp; opened it less then 5 seconds later while I was undressed!! Then never came back to clean...This property has a REAL customer service issue &amp; no manager available on staff on weekends, so problems can only be handled on week-day stay...unfortunately like many people, we stayed over a weekend &amp; they DID NOT clean our room after we were out of the room for 6 hours (11 am to 5 pm)...When I called down to the front desk to inquire about our dirty room I was told the housekeeping staff were gone for the day &amp; they could send up some clean towels! I felt this was unacceptable so I went to the front desk to speak to a manager &amp; was told no manger would be available on the weekends...Basically tough luck lady! The staff was ill prepared to solve a problem, a problem I would have NEVER had, had they just done their jobs in the first place! Is it too much to ask to expect a clean hotel room during my stay?? I have stayed with a friend at this hotel &amp; this has happened to us during that stay also...I called Marriot to file an official complaint on the property &amp; the manager finally called me &amp; said her staff said it wasn't cleaned because of a "do not disturb" sign which was NOT true! The maid knocked on our door at 10 am &amp; opened it less then 5 seconds later while I was undressed!! Then never came back to clean I guess...Basically tons of excuses for NOT doing what they were supposed to do &amp; a total lack of customer service!  Skip this hotel if you value cleanliness &amp; GOOD customer service...More</t>
   </si>
   <si>
+    <t>adiwsusanto</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r287431229-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1021,6 +1126,9 @@
     <t>I stayed on the 3rd floor, it's a studio setting complete with small sink, fridge, dishwasher. The amenities are ok &amp; everything works perfectly. I stayed solo, but the room could easily fit 1 more adult &amp; children. It's a short 5-10 minutes walk to the belt line where the restaurants are &amp; the addison circle park where the 4th of july celebration are. This is the right hotel to be. Close enough to the "happening" but far enough for peace &amp; quite sleep.More</t>
   </si>
   <si>
+    <t>billy b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r280218086-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1039,6 +1147,9 @@
     <t>Great hotel. For $85, nice big room. Big fridge and stove top.  Big nice couch. Overall nice clean hotel. Good breakfast, pool area. Couple grills outside to cook on. The staff was nice, but not too talkative that you would think they was just dumb or not caring.  Overall great. More</t>
   </si>
   <si>
+    <t>Valerie T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r267197519-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1066,6 +1177,9 @@
     <t>While it's not in the most exciting part of town, you can't help but feel the comfort of home by staying here. The rooms are fantastic. Large enough to fit a family and come with a kitchen, including a full-sized fridge, stove-top, dish washer, and microwave. The works! This is definitely a fantastic place to be if you need to take an extended stay away from home (foundation repairs come to mind). They also offer breakfast for guests every morning. The selection is enough that even those with diet restrictions are able to eat.Staff was friendly and accommodating. We didn't spend much time interacting with them, but they were always a pleasure to speak with.As a whole, great stay. But be prepared to drive. If you're in town to see the sights, you'll need to rent a car. Everything you want to see will be south, or west out in Ft. Worth. There isn't much to do in Addison other then eat. The hotel's location is right off of "restaurant row."More</t>
   </si>
   <si>
+    <t>Tammy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r266537568-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1084,6 +1198,9 @@
     <t>We had 2 rooms and there was NO PARKING  told to find a parking in a different hotel and walk back to hotel and take a chance of being towed. Mean while has truck with trailer taking up 5 spaces, handicap spots taken without tags. Told US to call cops to get them towed that they couldn't do it. Would not even pay for cab or arrange transportation back to hotel from having to walk back from parking at another locations.More</t>
   </si>
   <si>
+    <t>Ian H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r266303191-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1106,6 +1223,9 @@
   </si>
   <si>
     <t>Stayed here for eight days for business purposes. I found the rooms to be very clean, spacious and well equipped given a kitchen, seating area separate from the bedroom and bathroom. Staff were very friendly at all times and breakfast could cater for both vegetarians and meat eaters. It made  my stay enjoyable and hassle free. I found the hotel to be quite at night and would be very suitable for family holidays also. I will be returning to Dallas for work and will definitely stay there again. More</t>
+  </si>
+  <si>
+    <t>George B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r265072701-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
@@ -1138,6 +1258,9 @@
 The hotel had one exercise "room" in the main building. It has one cycle, one elliptical, and two treadmills. Everyone of these had...Had to find a place to stay for the week, wanted a short drive for work and the ability to walk once back for food/entertainment.FOOD (Hotel &amp; Nearby)You will be very pleased with the amount of businesses you can walk to for food/drink. A Starbucks is within walking distance for your coffee fix. Buffalo Wild Wings is right across the street for watching the game and good bar food.But don't sell the property short either, on Monday they had free snacks (you couldget full for dinner if desired) and drinks (beer - decent bottled beer, not generic drafts, wine and soft drinks). On Tuesday they had hamburgers, chips, potato salad and apps. The hamburger was grilled out, but it was a pre-made patty, but edible. Wednesday had a food truck, this week it was Gourmet BBQ, but it was not free you had to pay the vendor. I did not see any advertisements for Thur-Sun, but I left Thursday so they may have additional activities I didn't see.Each morning, there was a buffet setup that had fresh fruit, cereal and yogurt, breads and pastries, and some hot food (I didn't eat any of the hot food, but it smelled/looked good). Overall a better selection than many other hotel offerings.EXERCISE (Hotel &amp; Outside)The hotel had one exercise "room" in the main building. It has one cycle, one elliptical, and two treadmills. Everyone of these had a TV so you can watch what you wanted (one of the treadmills TV was broken), there was not a TV on a wall for the room. There is also a selection of weights and a filtered water station present with a shelf full of towels for use. There is not a fan in the room, and the door was propped open and the window was open while I was there to get fresh/cool air in, if this door was closed I would imagine that it would get stuffy quick. The room did have a despensor for wipes, so everyone could wipe down the equipment after use, I appreciate this versus just the towels.Outside, it is a nice tree lined road, with sidewalks. I went out for a walk (one way goes to the main road and the other direction is a short walk down to a park, while there is a sidewalk the time I went the amount of cars coming out of the businesses (its in a commercial area) prevented me from trying to run outside, I did not ask the desk for local trails/running paths as I was not there for a long time, but this is information they might think about putting in the exercise room.ROOMSI was put into a two bedroom, it had a small kitchen (fridge, oven, sink, dishwasher, coffeemaker) a sofa and table (with 4 chairs), fireplace and TV in the main area. One of the bedrooms had a desk, while both had a queen bed, two stands with lamps, a phone and alarm clock, and a bath (the room without the desk had the larger bath area).The pillows were all feather pillows, maybe I am in a minority as this is what I see everywhere, but if they can give me 4 pillows per bed, why cant one of them (or heck even put it in the closet) be a foam pillow?The largest con I have was the lighting, everything is controlled via each light (other than the bathroom and the light over the kitchen). I don't come home and turn on each and every light, please go back to a light-switch to control the lights, minor nitpick but its a pain to have to go turn off 8 separate lights when its time to go to bed.WIFIThis deserves a section for itself, they do offer "free WiFi" but its 1 meg or less. You have to purchase "Premium WiFi" for $4.95/day for WiFi that allows you to stream (I tried the free with mlb.tv/netflix and it would not work, preformed fine once I paid and switched. Tech data, speedtest.net showed 4meg down/up on premium connection.OVERALLThe staff at check-in was very friendly, even with a delay in my room being ready. The rest of the staff during my stay was pleasant and visible.I was very pleased, and this is a location that I would bring my family to as it offered many activities outside for families (pool, activity court, businesses nearby for them).If you are gold/plat with Marriott the premium WiFi is free, otherwise if your going to be using the WiFi figure the extra $5/day into your expenses.MISC NOTEThere is a Whole Foods near the hotel, great place to grab stuff if your staying here for an extended stayMore</t>
   </si>
   <si>
+    <t>ayan_mukherji</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r264525225-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1156,6 +1279,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>CRIS S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r260074854-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1174,6 +1300,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Earl H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r256274168-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1189,6 +1318,9 @@
     <t>Of course, it all starts at the front desk for me. They share with me my requirement I had online and offered a great room. The room was quiet and offered two bedrooms with great space in both of them. The hotel also offered free breakfast that was alright. Every time I had a question, they had very good answers for me.</t>
   </si>
   <si>
+    <t>GoHeeterGo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r256084297-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1210,6 +1342,9 @@
     <t>We stayed here two nights while my son was playing in a hockey tournament in the area. The rate could not be beat, and included a hot breakfast each morning. The room was huge, much larger than a standard hotel. We had a full size fridge, and studio kitchen with all utensils, place settings, etc. provided. There was a living area with a fold out sofa and a separate bedroom with a queen bed. The 3 of us were quite comfortable. We made use of the sport court, which I thought was a neat amenity that I had not seen at a hotel before. Our group played street hockey on the sport court for a fun warm up. The court also has a basketball hoop, and we saw others enjoying this as well. I used the fitness center too...small but adequate for a hotel facility. The hotel also has a nice outside lounge area with a fire pit going at night. There's also a hot tub and pool. Hotel is in a great location with plenty of restaurants and night life around. Staff was friendly and helpful.More</t>
   </si>
   <si>
+    <t>aracana_1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r253413973-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1228,6 +1363,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>JayC852</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r250939050-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1252,6 +1390,9 @@
     <t>My wife and I stayed here for one night even though it's really set up for extended stays.  The room was very nice and clean.  The bedroom is separate from the living/kitchenette. It is in a great location close (walking distance) to restaurants and bars. It is also close to the DART line. The check-in staff was very friendly and helpful. We would definitely stay again especially for an extended stay. More</t>
   </si>
   <si>
+    <t>Javier R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r249113381-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1276,6 +1417,9 @@
     <t>The neighborhood is great. Many restaurants, bars, nightclubs, shopping. Good location in the Dallas FW metro. Rooms are very clean, updated.My only two complaints: The bed was bad, we only stayed for one night and I therefore survived. But for a long stay, business trip, probably no sleep.The other thing we didn´t like was that in order to walk from our room to the main lobby for breakfast, we had to go outside. It was rainy and cold, and we could not find a way under the roof. Maybe there is a way, but we did not find it.We had a great price for saturday, and we will probably come back, but making sure we have a good bed.More</t>
   </si>
   <si>
+    <t>Clinton F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r246360901-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1303,6 +1447,9 @@
     <t>I recently stayed at this property for one month after moving back from Europe.  The facilities are good and the kitchens are very functional in the rooms.  The staff were all outstanding and courteous, getting to know me &amp; my family by name given our length of stay.  Any time we needed extra things from housekeeping they were always prompt in getting them to us.  The complementary breakfast is very good and certainly worth the visit each morning.  If you need a long term place in Addison this is certainly one to chose.More</t>
   </si>
   <si>
+    <t>Kevin M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r243402189-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1318,6 +1465,9 @@
     <t>recently sold our home quicker than expected. We are using Homewood Suite as our temporary home.Very clean, quite and comfortable. Breakfast included every morning. Dinner included Monday - Thursday.If you consider this in the price then you are looking at a price that is comparable to the cheapest hotel in town.</t>
   </si>
   <si>
+    <t>Dhakra</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r241253455-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1342,6 +1492,9 @@
     <t>If you are looking for a long stay, then this place is absolutely convenient for stay. There are a lot of eating options nearby within walking distance. The place is good, clean and typical of residence inn. I would definitely recommend for long stay over 2-3 weeks. I enjoyed the stay here, the staff was courteous and hospitable. They have a hot pool as well if you are adventurous to jump into it during the cold :-).Overall, great experienc.eMore</t>
   </si>
   <si>
+    <t>EdAmyZD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r238144941-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1366,6 +1519,9 @@
     <t>Up in Dallas for the weekend. This hotel is great for families traveling with children as you can get a suite and have the ability for everyone to have their own room. Internet was fast, breakfast was good. The only issue we had was that our room backed up to the elevator so there was some random mechanical noises during the day.More</t>
   </si>
   <si>
+    <t>Flyby0161</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r235973039-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1393,6 +1549,9 @@
     <t>the hotel has a great location within walking distance to lots of great dinning and nearby shopping. The hotel is showing some age, the facilities are maintained, however, the rooms and hallways are not crisp like new facilities.  Both of our mattresses in the two room suite should have been updated.  The rooms were nice, however, I expect new and crisp.  The morning breakfast was nothing special, decent selections but it felt more about volume then quality.  Saying all of this, you couldn't ask for a more friendly staff.  Overall, the hotel is clean, has a great location, it gets lots of volume and overdue for a deep renovation. More</t>
   </si>
   <si>
+    <t>jojoU.s.a.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r235111509-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1417,6 +1576,9 @@
     <t>This hotel was rated #1 on tripadvisor but not sure why. We had friends staying with us and first thing we had a very large black insect on the white tile floor. The next morning our friends were awakened @ 5am with the alarm music next door which was never turned off . We had a nice breakfast and did not complain. Next night from 9pm till 11:30pm it sounded like the ceiling would cave in with possibly unattended children upstairs. We did finally alert the front desk who after calling twice with no change finally told us that she was Alone and did not have any security (???) until after 11 to be able to physically go knock on their door.  I guess the kids fell asleep after 11:30 since they did stop jumping on the floor.  Again the alarm went off @ 5am with loud music and the front desk said since the room was supposedly rented they could do nothing.  We spoke to the front desk at checkout and asked for the mgr to call us. Sergio never did. I even called back a week later and said we had not received a call still no reply.  We will not return.  Pretty grounds but not good service.  Old rooms remodeled with very thin walls and large bugs.More</t>
   </si>
   <si>
+    <t>Maria W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r228380274-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1444,6 +1606,9 @@
     <t>I stayed in this hotel from February to April this year for work. The staff was friendly and very accommodating especially for an overseas visitor. The suite was clean and in good order with plenty of room for just myself could be a bit squashy for more than one adult staying for long periods. The room I was in did have some noise from the people above but as I was on the ground floor that is to be expected. Breakfast very ordinary however all hotels I have been sent to by my Company in America have similar breakfast choices. I am normally used to having more choices and the breakfast being cooked as required when staying in hotel for business in Australia or England There are plenty of restaurants and some shops within a short walk of the hotel which is good as the hotel doesn’t have a restaurant. There is a large fridge and kitchen utilizes which use can use to cook you own lunch and dinner if you are staying for long periods. Overall my stay here was good and quite enjoyable.More</t>
   </si>
   <si>
+    <t>Lyn B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r225518139-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1471,6 +1636,9 @@
     <t>i have stayed at this hotel numerous times. the staff are very accommodating and i have never experienced a problem. clean and well maintained.  the breakfast choices leave much to be desired, it bests going elsewhere early in the morning.i love the location--it is close to all kinds of restaurants and nightlife.More</t>
   </si>
   <si>
+    <t>Guillermo C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r224075898-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1495,6 +1663,9 @@
     <t>Stay was great good breakfast and Monday thru Thursday they do dinner they have a menu what they will serve but my wife was won over with small things for example we got a crib and when they dropped it off there were baby toys that we keep and in there lobby restrooms they has a baby changing station More</t>
   </si>
   <si>
+    <t>Burro_racer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r223522457-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1519,6 +1690,9 @@
     <t>Gave them my laundry one evening. When it was not returned by 8:30 pm the next evening I went to front desk. It had not been sent to the cleaners and I needed it for meetings the next morning. Management knew it had missed the morning pick up and had done nothing to make it right.No adequate explanation, no effort to get it done, no communication, no accountability by management, no compensation (not that it would help my situation), no handover from shift to shift.The single front desk clerk did not know the name of the manager.I tried this hotel as a cheaper, better (with kitchen etc) alternative to the local Marriott. Will not stay here again.More</t>
   </si>
   <si>
+    <t>sandisan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r215250618-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1543,6 +1717,9 @@
     <t>We had a 2 br. suite. i used our Marriott reward membership and go an upgrade. It was be4autiful. Our daughter stayed with us, and we ord3ered in food. There were plenty of dishes for 4 of us, and we enjoyed the place and will go back.More</t>
   </si>
   <si>
+    <t>Elizabeth C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r214132328-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1564,6 +1741,9 @@
     <t>I was greeted by an overwhelmingly cheerful staff, not just the front desk person, but EVERYONE was so nice.  Kudos to the management, you must be doing something right, because it is very obvious that these people enjoy their job.More</t>
   </si>
   <si>
+    <t>TravelerfromArizona</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r214079825-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1585,6 +1765,9 @@
     <t>First of all the check in was great and courteous.  The next morning, not so much.  I went to the breakfast area and asked a VERY simple question of the breakfast attendant.  It was "do you have Tabasco?"  She did not speak English and turned immediately to a manager that was in another conversation, who rightly, but annoyingly blew me off.  The way she did it was frankly annoying, but most of all, why doesn't (I am assuming) someone from Mexico have no idea what Tabasco is??  It is a state in Mexico and is pretty recognized all over.  If you cannot hire a breakfast attendant that does not understand a pretty basic and normal question, then expect a crap review.  One of the reasons that you spend a single night in a Residence Inn is the size of the room and/or the decent free breakfast in the morning.  The latter being a hassle, puts this right in line with the Springhill across the road,  The Springhill across the road is a lot less money and I feel real silly for straying from it.  I will not make the same mistake again.More</t>
   </si>
   <si>
+    <t>Mark M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r205267109-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1612,6 +1795,9 @@
     <t>First time to the Dallas area and this was the hotel that my company put me in.  I usually tend to look for Marriott branded properties but had not stayed at a Residence Inn before.  The staff was very good at check in, gracious and friendly.  Rooms were very nice and quite roomy, more so than I needed for my short stay.  The property was undergoing a renovation, but even so, was very clean &amp; organized.  Staff even secured my ground transportation for the next day to the airport.  Will definitely mark this hotel as a favorite.More</t>
   </si>
   <si>
+    <t>EurotravelerTO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r205229391-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1627,6 +1813,9 @@
     <t>Loved the location on a quite street off the crowded Belt Line Road. If you are looking for a great restaurant they are all within a mile or 2 on the Belt Line. Traffic is very congested in the area. Lots of freeway construction. Took about 15 minutes to get to DFW on a Saturday. Hotel had the best hospitality meals we have ever had, breakfasts were quite good also. Hotel is a well maintained older property. Nice pool area. Staff couldn't have been more friendly. Dallas was a very pleasant change after visiting sleazy New Orleans.More</t>
   </si>
   <si>
+    <t>Danelover2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r204327252-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1651,6 +1840,9 @@
     <t>We had an excellent experience at this hotel. The staff was the best! Very friendly, professional, and helpful. The property was in beautiful condition,the suite was very comfortable and clean, not to mention the breakfast was enjoyable as well. We will definately come back and stay here when we are in the area again. It was probably on of the most enjoyable recent hotel experiences. Keep up the good work!More</t>
   </si>
   <si>
+    <t>cocoadill</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r199769746-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1675,6 +1867,9 @@
     <t>I know people really read these reviews because I do.  Often times people complain about the bad stuff but I wanted to tell everybody about my experience with Kellie-Ann at the Residence Inn Dallas Addison/Quorum Drive location.  The Marriott customer service made a terrible mistake with a reservation and even though they had proof that it was their fault they did not want to change or even fix the problem.  So I decided to called the hotel personally, even though I had reservations because customer service told me no one could help me.  But, Kellie-Ann listened to my concerns and without any hesitation or confrustation noticed it was an error and corrected it while being polite and professional.  I will for sure go back to her hotel just because I know they are fair and don't have a problem fixing a problem!!!!!More</t>
   </si>
   <si>
+    <t>MeggieFie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r198643418-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1699,6 +1894,9 @@
     <t>I stayed over the weekend and it was wonderful! Clean and well put together. The GM, Wendy was so kind to make sure our suite was everything we needed. They even have us cookies when we checked in. Loved this hotel!More</t>
   </si>
   <si>
+    <t>katmarie7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r198523269-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1723,6 +1921,9 @@
     <t>I had a girls' weekend and we stayed at this hotel! It was not only a great location near many attractions, but this hotel pays attention to details! From the cookies greeting you at the front desk, to the artwork in the hotel rooms, all the way to the whipped cream for your coffee in the morning at breakfast- my expectations were exceeded! The GM, Wendy, made sure that our suite was comfortable and convenient. Definitely will stay again if I come to Dallas!!! Thank you for such a wonderful experience!More</t>
   </si>
   <si>
+    <t>Carl D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r195846265-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1750,6 +1951,9 @@
     <t>If you need to spend a week of your life away from home, then this is the place to do it!   I spend two weeks every month here and I can tell you that this is the best extended stay hotel in the area.   The staff is amazing, dedicated, hard working and really professional.  The location is fantatic.  You will love your stay here.More</t>
   </si>
   <si>
+    <t>Julie J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r191650421-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1777,6 +1981,9 @@
     <t>This hotel is so nice. It has a great location and the food is tasty. The staff is very helpful and happy. Our room was clean and comfortable. This place just feel comfortable. You can walk to other restaurants and shopping. We were only there for a weekend and had a really nice experience and will definitely be back.More</t>
   </si>
   <si>
+    <t>Ashleyalbertson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r188945337-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1801,6 +2008,9 @@
     <t>Loved this hotel, mainly because the staff went above and beyond to make us feel at home. The customer service was amazing. It was very clean and the rooms were up to date and extremely comfortable. Will definitely recommend and will stay again. More</t>
   </si>
   <si>
+    <t>don628</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r187111734-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1825,6 +2035,9 @@
     <t>Due to ice storm with major power loss in Dallas,  we searched for an Inn which would accept us with our dog.  These folks were extra nice and very accommodating.  The one bedroom had sitting room with TV, free WiFi and a kitchen fully equipped.  We brought our dinner since they do not have a restaurant.  (We did not even have free WiFi at the Ritz in Phila. last month!)  The room was clean and inviting.  The bathroom was large and bright.                                     A beautiful breakfast buffet is served with eggs, bacon, sausage, pancakes, waffles, bagel, breads, Eng. muffins, yogurt.On Sat., with ice still on ground I asked if we could remain an extra night and was told "yes".Went home to find power on so called and cancelled the reserve for that night.  Again, they were very nice and allowed the cancellation with no penalty.  I wouldn't hesitate to stay at a Residence Inn again, anywhere in the states.More</t>
   </si>
   <si>
+    <t>SherriHarrison</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r185859970-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1852,6 +2065,9 @@
     <t>We traveled to the Dallas area for "Pink" concert.  Residence Inn was amazing!! Very spacious (we had 2 bedroom suite) and staff was very informative and prompt. Rooms were very nice! Would recommend staying here again!!!  Great restaurants....all within .6 miles!More</t>
   </si>
   <si>
+    <t>GPKPSP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r185542055-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1879,6 +2095,9 @@
     <t>Staff is very friendly and eager to help.  They don't wait for you to come to them, but rather go out of their way to assist guests.  Rooms are nicely done, with plenty of workspace and are well decorated.  My only complaint is the quality of the food for breakfast and at the happy hour/dinner.  It is hard to complain about free, but some of it is pretty low quality.  Eggs are pretty awful, and sweaty lunch meat should never be on the bar for happy hour.  A keg of Shiner wouldn't bankrupt the place either.More</t>
   </si>
   <si>
+    <t>LaneRizz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r184682736-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1906,6 +2125,9 @@
     <t>Cannot say enough about the staff at this hotel but I'll keep it simple. They were very nice and accommodating to everything I needed. The place was clean, the grounds were nice, even had a basketball court! There is also a lot to do around there as well, with a piano bar and comedy club right next door and restaurants all up and down the street.I would highly recommend this hotel for any occasion.More</t>
   </si>
   <si>
+    <t>Ruffus06</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r182994259-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1930,6 +2152,9 @@
     <t>We spent several evenings at the Residence Inn and really enjoyed our stay.  The room was large and extremely clean.  The staff was helpful and provided great assistance.  The breakfast was delicious.  Finally, the location is perfect if you are in the North Dallas area - easy access to everywhere and right in the middle of hundreds of restaurants and shopping.More</t>
   </si>
   <si>
+    <t>noonday_son</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r181537907-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -1955,6 +2180,9 @@
   </si>
   <si>
     <t>Wife and I stayed here and were pleased. Room seemed to be built for extended stay - with full supplied kitchen, studio style arrangement with separate sleeping and lounging/desk area. Breakfast was adequate, exercise room decent, nice outside pool and conversation areas.The place is not new but was kept up rather well. Two subtractions were door frame was way oversize for door letting sound, and a million watt light right over lounge window which lightened up room too much for my taste. Very pleasant staff. Would stay again, without a doubt.More</t>
+  </si>
+  <si>
+    <t>5genoklahoman</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r175174857-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
@@ -1989,6 +2217,9 @@
 It isn't perfect but the list is SO small I can rattle it off. There are NO KING BEDS in this large property. The HVAC doesn't work as well as it should - one room was colder than the other and neither were cold enough for...The first night of our vacation at another hotel was disastrous - sleepless and exhausting. I plotted our escape and found this newly-renovated Residence Inn. They rescued our vacation!Being just a few miles from the Galleria, the location is centrally-located to most anything in Dallas, and Addison is a classy little area of DFW with lots of corporate headquarters - and plenty of entertainment to cater to them. The rooms are larger - or just laid out better - than many Residence Inns. We stayed on the first floor in a full hotel and never heard anyone overhead. (I'm sure it is possible, though). EVERY single employee we encountered was eager, kind, helpful and simply professional. KUDOS! There is a landscaped, large outdoor pool with a nearby firepit and a fun little combo tennis/half-basketball court. We saw LOTS of young kids having a great time! The fitness center is adequate with dumbbells, treadmills, bike and a stair climber - all clean and in excellent condition. Breakfast was the standard fare. Powdered eggs and frozen sausage but plenty of other options like fresh fruit cut in the kitchen (I saw them!), oatmeal and yogurt. It isn't perfect but the list is SO small I can rattle it off. There are NO KING BEDS in this large property. The HVAC doesn't work as well as it should - one room was colder than the other and neither were cold enough for the humid 106 degrees outside. They left the popcorn ceilings (that's just me). And the TV and Internet systems are old - bandwidth-limited internet, little HD, no onscreen tv guide, 30 channels which are infomercials all night. They should fire their 3rd party IT operator and get someone LOCAL to do it right. But very honestly, these were minor concerns. The remodel is GENUINE. Classy and clean and comfortable, including the mattresses, furniture, woodwork, carpets. *** This is how you run a hotel! *** We will definitely be back. Highly recommended!More</t>
   </si>
   <si>
+    <t>bearnstar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r171808435-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2013,6 +2244,9 @@
     <t>I spent 2 nights here while visiting family.  Very roomy and comfortable.  Desk clerk was very nice and took time to explain and apologize for the need for 2 keys while they change out the lock system.  Really liked the new key system.  Only negative was not really the facilities fault.  I was awakened at 1 a.m. to the thundering footsteps (stomps) of my upstairs neighbor.  They must have been dancing in the living room for over 30 minutes. Sounded like a heard of buffalo!  Walls and ceiling a bit thin but I've experienced worse at other hotels.  Not much you can do about rude/inconsiderate neighbors.  Checkout is always painless with Marriotts and this was no exception.  I will definitely stay again but will request a top floor next time.  More</t>
   </si>
   <si>
+    <t>sitinongo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r171217731-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2040,6 +2274,9 @@
     <t>I stayed here with my sons and nephews while we visited museums, water-parks and Lego Discovery Center.  The lobby area was clean, neat and safe feeling.  The staff at the desk, housekeepers and breakfast area service workers were all very friendly, helpful and professional.  The breakfast was more complete than I thought it would be and they kept it replenished until past the close-up time.  The room was clean.  Beds were comfortable and made up well.  The pull out sofa was fine for the 15 year old boy.  The towels were clean and new but only average quality.  The big disappointment was the small size of the swimming pool.  But it was clean and had nice seating around.  The double bed suite had enough  room to move around in and the fridge and microwave were good for evening snacks.  Would easily recommend for business travelers, families traveling for sports tournaments and camps and family in town for other visits.More</t>
   </si>
   <si>
+    <t>Daniel Lorng Yo... W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r159815353-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2067,6 +2304,9 @@
     <t>Newly renovated and very nice. Food for breakfast and supper are real good. Location is excellent for foodies too. Right next to Pete's Dueling Piano (you get a free drink with your room card). So far the best hotel I've stayed in in Texas.More</t>
   </si>
   <si>
+    <t>Coxette</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r158430537-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2091,6 +2331,9 @@
     <t>My girlfriends and I stayed in the two bedroom/2 bathroom suite with the pull out sofa and fireplace which comfortably fit all 5 of us. The full kitchen was an added benefit. Pete's Piano bar and the Improve Comedy club were conveniently located behind the hotel and less than a 5 minute walk. The staff was wonderful, breakfast was delicious, the room was perfect and the price was very affordable. Would highly recommend to anyone looking to stay in this area.More</t>
   </si>
   <si>
+    <t>T_CWiltshire</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r157643102-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2112,6 +2355,9 @@
     <t>Stayed here for two weeks while on business.  The room was a good size with lounge, bedroom and kitchen area.  Staff were extremely friendly.  Breakfast and evening supper were good too.  Would stay here again.More</t>
   </si>
   <si>
+    <t>il0veCO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r148796572-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2136,6 +2382,9 @@
     <t>I would stay again.  I think their updating stuff as well, which should take care of the out dated hallways.  The breakfast was very good with a lot of options.  Very friendly staff throughout the complex.  Convenient location to a million restaurants and other things in north Dallas.  I even used the hot tub while I was there, which was nice and clean.More</t>
   </si>
   <si>
+    <t>Jan185</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r144977295-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2163,6 +2412,9 @@
     <t>My husband and I stayed here in early October.  The reception at the front desk was warm friendly. The rooms were spacious, modern, and clean. The living room was a bonus as it was a delight not to be viewing the TV from a bed.  I can say that everything that we needed was at our disposal.  My only complaint would be that the breakfast room was very crowded, and both mornings it was difficult to secure a table.More</t>
   </si>
   <si>
+    <t>Wowx3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r144702930-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2187,6 +2439,9 @@
     <t>We had a very pleasant stay this year however, the free wi-fi only worked if you sat in certain parts of our hotel room so the service was spotty at best.  Also they only offer Queen beds and no kings so if you sleep with a big guy like me this can be a problem.More</t>
   </si>
   <si>
+    <t>Brenda F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r136534975-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2214,6 +2469,9 @@
     <t>From start to finish, our experience here was amazing!  The staff was very enthusiastic and eager to assist, our room was clean, spacious, and comfortable, and the complimentary hot breakfast provided a wide variety to please everyone.  There is a pool, jacuzzi, sport court which provided entertainment for our group.  The location is perfect as you are close enough to a bizillion restaurants and shops that you can walk to, and have easy access to 635 and the North Tollway!Definitely a winner!More</t>
   </si>
   <si>
+    <t>KimS317</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r136474875-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2229,6 +2487,9 @@
     <t>Can't say enough good things about this location!  Easy on/off access to the highway, but also walking distance to many restaurants and shops.  The front office staff was attentive and personable, the rooms were spacious, comfortable, and clean, and the complimentary hot breakfast had something for everyone.  The children in our group enjoyed the sport court as well as the pool.  We would definitely stay here again!More</t>
   </si>
   <si>
+    <t>Lori A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r136419329-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2247,6 +2508,9 @@
     <t>We had excellent service from making our reservations to our check in, our stay, morning breakfast and check out! Lovely, updated, very clean place and room! We loved the sport court and having a pool.  Hot breakfast was great and the hotel is very close to the freeway, stores, shops and restaurants!More</t>
   </si>
   <si>
+    <t>Rebecca C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r135900904-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2265,6 +2529,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Tue N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r135899295-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2280,6 +2547,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>aaron b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r135894086-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2292,6 +2562,9 @@
     <t>Stayed here for business meetings.  Friendly Staff, Clean place, great breakfast, great service.  Short and to the point, but it was a nice venue.  They food was good, and they had a lot of options.  The meeting room was a little small, but served it's purpose.</t>
   </si>
   <si>
+    <t>cooper12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r132602473-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2316,6 +2589,9 @@
     <t>The staff here was nice but this hotel has a few problems.  First some of the rooms face inward and they have a pool and basketball court in the inside courtyard.  There Are screaming kids and teenagers till 10pm nightly.  You can request an outside room.  Second the free breakfast is plentiful but gljuat not very good.  Rooms were clean and adequate.More</t>
   </si>
   <si>
+    <t>brophyfish</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r132370805-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2337,6 +2613,9 @@
     <t>The overall stay was ok. The internet was extremely slow.  The free breakfast was good, the coffee not so good.  The exercise room has broken equipment.  The bed was comfortable.  I think that they need to have a designated smoking area not outside of every exit of the hotel, especially at the entrance of the main lobby from the guest rooms.  Room service/cleaning/guest services was good.More</t>
   </si>
   <si>
+    <t>Dansladen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r131891913-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2361,6 +2640,9 @@
     <t>We decided to stay at this hotel during out home relocation trip to the area and also the low price it offered for a two bedroom suite when compared to other similarly priced hotels. This Residence Inn is centrally located in the Addison business district and within walking distance to more restaurants than you ca try in a weekend. Check inn was quick and friendly and the hotel lobby area is kept clean and organized. The only gripe we had during our stay was the musty smell our suite had. I am almost certain that the smell is due to the A/C system and the fact that the windows are never opened to let fresh air in. Other than the musty smell issue, I would not hesitate recommending this hotel to any Trip Advisor members.More</t>
   </si>
   <si>
+    <t>Lindsay B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r131433099-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2376,6 +2658,9 @@
     <t>I stayed here for training and it was really nice. Good food with happy hour drinks too. The staff was really nice too.More</t>
   </si>
   <si>
+    <t>Randajeur</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r131189753-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2400,6 +2685,9 @@
     <t>The rooms are very big and include a real kitchen. The hotel also offer a very nice seevice: they do the grocery shopping for you and the service is free. The hotel also offers a full breakfast (included) and few days per week (included). Amenities include a nuce gym, tennis court and an outdoor pool+Jacuzzi! Great value for money!More</t>
   </si>
   <si>
+    <t>jerseyans</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r130813472-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2427,6 +2715,9 @@
     <t>This is a beautiful place to stay. The room is very nice and well kept. The full size refrigerator is a big help if you are going to stock a lot of supplies. Two TVs in two rooms (bedroom and the seating area) will surely come in handy when staying with kids. The breakfast offered great food. The evening social dinner had separate main items every night along with salads, soft drinks, wine and beer. The location is great, just off the Belt Line road with loads of eating places, but a little inside, so you do not get the traffic noise. The employees are very welcoming, and I was glad to see that they honored y request for a high floor room (even though the hotel has only 3 floors, I always prefer the highest floor). The pool and the gym seemd very clean and well maintained. Overall, this is a great hotel, and next time when I am in Dallas/Addison area, I am going to stay here.More</t>
   </si>
   <si>
+    <t>Davidh903</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r126459577-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2442,6 +2733,9 @@
     <t xml:space="preserve">Been a home away from home for the past 2 years. Arrive on Sunday and leave on Friday and never had any problems with billing.  Excellent personnel, clean rooms and by many restrauants.  </t>
   </si>
   <si>
+    <t>Vijay J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r125795371-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2460,6 +2754,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>Andy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r124036364-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2478,6 +2775,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>I3ishop</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r117600551-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2496,6 +2796,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>James B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r111583521-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2514,6 +2817,9 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>ecmfw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r76570152-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2535,6 +2841,9 @@
     <t>I spent one night here, and I was very impressed the quality of the staff, including the young lady who checked me in Thursday (8/19) night.  My room was very clean and the hotel has been updated within the past few years.  The breakfast bar was excellent. The Wi-Fi worked well with my laptop.One minor complaint is that the televisions were older CRT-based sets.  They both worked well, but neither could be connected to my laptop's S-Video or VGA outputs.My caveat is the basic architecture of the hotel.  It is set up like a miniature apartment complex with three separate buildings.  The lobby is in one building, and the guest rooms split between the other two.  I think that this arrangement could be problematic on very hot or rainy days.  Also, I had problems with some of the card readers on one of the buildings, but those may have been my fault.In brief, recommended.More</t>
   </si>
   <si>
+    <t>Desi2007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r19994273-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2553,6 +2862,9 @@
     <t>August 2008</t>
   </si>
   <si>
+    <t>zapataii</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r17507131-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2574,6 +2886,9 @@
     <t>I spent 10 days at this property with my wife and son and have to say it is another good Residence Inn.  We picked the location in Addison due to the great eating establishments surrounding the property, as well as the easy access to the Dallas North Tollway and main arteries.  The staff was very friendly, from the front desk staff, the dining area staff and cleaning crew.  The room was just as requested, a one room suite.  I would have rated this stay as excellent but the furniture and carpet were a bit worn.  The kitchen did have new stainless steel appliances, and the bed was quite comfortable.  The only bummer is that no king size suites are offered at his property (maybe a residence inn policy?).  Whether your are on business or pleasure, this is the place to stay.  Hot breakfast in the morning, light dinner service Mon-Thur, outdoor pool and hot tub, it has it all.  In terms of amenities, the exercise room was quite weak.  Only an elliptical machine and 2 treadmills if I'm not mistaken.  Overall a good property, would recommend to family and friends!More</t>
   </si>
   <si>
+    <t>Coco#55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r16421891-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2595,6 +2910,9 @@
     <t>My friend and I stayed for 5 days in April at this property in order to visit with her daughter and son-in-law who recently moved to the area.  We had a two bedroom suite and it was perfect.  The hotel appears to have had a recent renovation as all the appliances were stainless and  the living room furniture did not show any sign of wear.  The hotel is in a business park and therefore caters to a business client - which suited us - though there were also a couple of families.The front desk staff was welcoming and very accomodating and it was a pleasure any time we had to ask directions, etc - excellent and very well trained.The property was well care for and welcoming,  The breakfast in the morning was more than one would expect - also during the week there was a big spread in the afternoon.We enjoyed the hotel and the area - so many restaurants and stores and we look forward to returning.More</t>
   </si>
   <si>
+    <t>LouisianaChris</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r6738230-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2613,6 +2931,9 @@
     <t>December 2006</t>
   </si>
   <si>
+    <t>txtrekkers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r5774641-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
   </si>
   <si>
@@ -2632,6 +2953,9 @@
   </si>
   <si>
     <t>We had an excellent one night stay... our studio suite was roomy... smelled clean... livingroom/kitchen provided plenty of room for the two of us. The queen sized bed was comfortable... quiet room, even though close to the Addison airport &amp; restaurant row... nice layout in bathroom with lavoratory separate from the commode &amp; shower/tub.. water pressure was great... nice showerhead &amp; shower curtain rod was curved so water wouldn't leak out of the tub while showering...EXCELLENT BREAKFAST BUFFET-- offered eggs, sausage, french toast &amp; waffles, yogurt, medley of thawed berries, granola, juices, milk, coffee, tea, pastries &amp; cereal... It is within walking distance to many restaurants &amp; Addison Circle Park. We walked to the park to view the Labor Day fireworks!We will definitely stay here again... the staff were friendly with easy check-in and check out.More</t>
+  </si>
+  <si>
+    <t>Paco J</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109565-r4896729-Residence_Inn_Dallas_Addison_Quorum_Drive-Addison_Texas.html</t>
@@ -3157,43 +3481,47 @@
       <c r="A2" t="n">
         <v>32583</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>175585</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3209,56 +3537,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>32583</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>175586</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -3274,56 +3606,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>32583</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>34918</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3339,56 +3675,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>32583</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>15384</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3400,56 +3740,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>32583</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>175587</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -3467,56 +3811,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>32583</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>175588</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -3534,56 +3882,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>32583</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>175589</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3599,56 +3951,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="X8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>32583</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>175590</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3666,50 +4022,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>32583</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>175591</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="O10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3721,56 +4081,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="X10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>32583</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>175592</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3782,56 +4146,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="X11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Y11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>32583</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>175593</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3849,56 +4217,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="X12" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Y12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>32583</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>175594</v>
+      </c>
+      <c r="C13" t="s">
+        <v>149</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="O13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3910,56 +4282,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="X13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="Y13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>32583</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>175595</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -3977,56 +4353,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="X14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>32583</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>175596</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -4038,56 +4418,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="X15" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="Y15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>32583</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>175597</v>
+      </c>
+      <c r="C16" t="s">
+        <v>177</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="J16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="K16" t="s">
+        <v>181</v>
+      </c>
+      <c r="L16" t="s">
+        <v>182</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>166</v>
       </c>
-      <c r="L16" t="s">
-        <v>167</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>153</v>
-      </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -4099,56 +4483,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="X16" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>32583</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>175598</v>
+      </c>
+      <c r="C17" t="s">
+        <v>184</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="O17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -4166,56 +4554,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="X17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="Y17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>32583</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>175599</v>
+      </c>
+      <c r="C18" t="s">
+        <v>195</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -4231,56 +4623,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="X18" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="Y18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>32583</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>175600</v>
+      </c>
+      <c r="C19" t="s">
+        <v>202</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="J19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="K19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="L19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4296,56 +4692,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="X19" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="Y19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>32583</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>175601</v>
+      </c>
+      <c r="C20" t="s">
+        <v>209</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="J20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="K20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -4361,56 +4761,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="X20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="Y20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>32583</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>175602</v>
+      </c>
+      <c r="C21" t="s">
+        <v>219</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="J21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="K21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4422,56 +4826,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="X21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="Y21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>32583</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>175603</v>
+      </c>
+      <c r="C22" t="s">
+        <v>228</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="J22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="K22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="L22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -4489,56 +4897,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="X22" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="Y22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>32583</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>175604</v>
+      </c>
+      <c r="C23" t="s">
+        <v>235</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="J23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="K23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="L23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -4556,56 +4968,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="X23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="Y23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>32583</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>175605</v>
+      </c>
+      <c r="C24" t="s">
+        <v>245</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="J24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="K24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="L24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="O24" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4617,56 +5033,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="X24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="Y24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>32583</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>68587</v>
+      </c>
+      <c r="C25" t="s">
+        <v>255</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="J25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="K25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="L25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="O25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -4684,56 +5104,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="X25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="Y25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>32583</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>74249</v>
+      </c>
+      <c r="C26" t="s">
+        <v>265</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="J26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="K26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="L26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4749,56 +5173,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="X26" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="Y26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>32583</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>175606</v>
+      </c>
+      <c r="C27" t="s">
+        <v>272</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="J27" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="K27" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="L27" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="O27" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4816,56 +5244,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="X27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="Y27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>32583</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>5769</v>
+      </c>
+      <c r="C28" t="s">
+        <v>281</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="J28" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="K28" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="L28" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="O28" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4877,56 +5309,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="X28" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="Y28" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>32583</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>97803</v>
+      </c>
+      <c r="C29" t="s">
+        <v>288</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="J29" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="K29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="L29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4938,47 +5374,51 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="X29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="Y29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>32583</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>175607</v>
+      </c>
+      <c r="C30" t="s">
+        <v>298</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="J30" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="K30" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="L30" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
@@ -4995,56 +5435,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="X30" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="Y30" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>32583</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>175608</v>
+      </c>
+      <c r="C31" t="s">
+        <v>305</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="J31" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="K31" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="L31" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -5056,56 +5500,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="X31" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="Y31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>32583</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>175609</v>
+      </c>
+      <c r="C32" t="s">
+        <v>315</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="J32" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="K32" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="L32" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="O32" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -5117,56 +5565,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="X32" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="Y32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>32583</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>175610</v>
+      </c>
+      <c r="C33" t="s">
+        <v>325</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="J33" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="K33" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="L33" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -5182,56 +5634,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="X33" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="Y33" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>32583</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>175611</v>
+      </c>
+      <c r="C34" t="s">
+        <v>335</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="J34" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="K34" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="L34" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -5247,56 +5703,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="X34" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="Y34" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>32583</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>175612</v>
+      </c>
+      <c r="C35" t="s">
+        <v>345</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="J35" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="K35" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="L35" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -5314,56 +5774,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="X35" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="Y35" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>32583</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>175613</v>
+      </c>
+      <c r="C36" t="s">
+        <v>355</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="J36" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="K36" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="L36" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="O36" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5379,56 +5843,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="X36" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="Y36" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>32583</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>175614</v>
+      </c>
+      <c r="C37" t="s">
+        <v>362</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="J37" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="K37" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="L37" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="O37" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5440,56 +5908,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="X37" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="Y37" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>32583</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>54480</v>
+      </c>
+      <c r="C38" t="s">
+        <v>369</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="J38" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="K38" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="L38" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="O38" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -5505,47 +5977,51 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="X38" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="Y38" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>32583</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>17624</v>
+      </c>
+      <c r="C39" t="s">
+        <v>379</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="J39" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="K39" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="L39" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
@@ -5562,56 +6038,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="X39" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="Y39" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>32583</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>7586</v>
+      </c>
+      <c r="C40" t="s">
+        <v>386</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="J40" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="K40" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="L40" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="O40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5623,56 +6103,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="X40" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="Y40" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>32583</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>30718</v>
+      </c>
+      <c r="C41" t="s">
+        <v>395</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="J41" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="K41" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="L41" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="O41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P41" t="n">
         <v>2</v>
@@ -5692,50 +6176,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>32583</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>175615</v>
+      </c>
+      <c r="C42" t="s">
+        <v>402</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="J42" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="K42" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="L42" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5753,50 +6241,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>32583</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>175616</v>
+      </c>
+      <c r="C43" t="s">
+        <v>409</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="J43" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="K43" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="L43" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="O43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5816,50 +6308,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>32583</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>175617</v>
+      </c>
+      <c r="C44" t="s">
+        <v>416</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="J44" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="K44" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="L44" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5879,50 +6375,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>32583</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>175618</v>
+      </c>
+      <c r="C45" t="s">
+        <v>422</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="J45" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="K45" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="L45" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5940,50 +6440,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>32583</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>175619</v>
+      </c>
+      <c r="C46" t="s">
+        <v>430</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="J46" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="K46" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="L46" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -6001,50 +6505,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>32583</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>175620</v>
+      </c>
+      <c r="C47" t="s">
+        <v>437</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="J47" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="K47" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="L47" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="O47" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -6056,56 +6564,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="X47" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="Y47" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>32583</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>57463</v>
+      </c>
+      <c r="C48" t="s">
+        <v>446</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
       <c r="J48" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="K48" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="L48" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="O48" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -6121,56 +6633,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="X48" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="Y48" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>32583</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>45177</v>
+      </c>
+      <c r="C49" t="s">
+        <v>455</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>408</v>
+        <v>456</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>409</v>
+        <v>457</v>
       </c>
       <c r="J49" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="K49" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="L49" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -6182,56 +6698,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="X49" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="Y49" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>32583</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>3788</v>
+      </c>
+      <c r="C50" t="s">
+        <v>465</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="J50" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="K50" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="L50" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="O50" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -6245,50 +6765,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>32583</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>175621</v>
+      </c>
+      <c r="C51" t="s">
+        <v>471</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="J51" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="K51" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="L51" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="O51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -6306,56 +6830,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="X51" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="Y51" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>32583</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>175622</v>
+      </c>
+      <c r="C52" t="s">
+        <v>480</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="J52" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="K52" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="L52" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6371,56 +6899,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="X52" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="Y52" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>32583</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>126411</v>
+      </c>
+      <c r="C53" t="s">
+        <v>489</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="J53" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="K53" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="L53" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="O53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6432,47 +6964,51 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="X53" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="Y53" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>32583</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>175623</v>
+      </c>
+      <c r="C54" t="s">
+        <v>499</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
       <c r="J54" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="K54" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="L54" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
@@ -6499,56 +7035,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="X54" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="Y54" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>32583</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>78450</v>
+      </c>
+      <c r="C55" t="s">
+        <v>508</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>455</v>
+        <v>509</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="J55" t="s">
-        <v>457</v>
+        <v>511</v>
       </c>
       <c r="K55" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="L55" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="O55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6564,56 +7104,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="X55" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
       <c r="Y55" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>32583</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>50705</v>
+      </c>
+      <c r="C56" t="s">
+        <v>518</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>464</v>
+        <v>519</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="J56" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="K56" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
       <c r="L56" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="O56" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6625,47 +7169,51 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="X56" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="Y56" t="s">
-        <v>472</v>
+        <v>527</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>32583</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>72709</v>
+      </c>
+      <c r="C57" t="s">
+        <v>528</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
       <c r="J57" t="s">
-        <v>475</v>
+        <v>531</v>
       </c>
       <c r="K57" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="L57" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
@@ -6682,56 +7230,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
       <c r="X57" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
       <c r="Y57" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>32583</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>175624</v>
+      </c>
+      <c r="C58" t="s">
+        <v>537</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="J58" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="K58" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="L58" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="O58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -6749,56 +7301,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>486</v>
+        <v>543</v>
       </c>
       <c r="X58" t="s">
-        <v>487</v>
+        <v>544</v>
       </c>
       <c r="Y58" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>32583</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>175625</v>
+      </c>
+      <c r="C59" t="s">
+        <v>546</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>489</v>
+        <v>547</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>490</v>
+        <v>548</v>
       </c>
       <c r="J59" t="s">
-        <v>491</v>
+        <v>549</v>
       </c>
       <c r="K59" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="L59" t="s">
-        <v>492</v>
+        <v>550</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>493</v>
+        <v>551</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6816,56 +7372,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="X59" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="Y59" t="s">
-        <v>496</v>
+        <v>554</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>32583</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C60" t="s">
+        <v>555</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>497</v>
+        <v>556</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
       <c r="J60" t="s">
-        <v>499</v>
+        <v>558</v>
       </c>
       <c r="K60" t="s">
-        <v>500</v>
+        <v>559</v>
       </c>
       <c r="L60" t="s">
-        <v>501</v>
+        <v>560</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>502</v>
+        <v>561</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6887,56 +7447,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="X60" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="Y60" t="s">
-        <v>503</v>
+        <v>562</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>32583</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>175626</v>
+      </c>
+      <c r="C61" t="s">
+        <v>563</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
       <c r="J61" t="s">
-        <v>499</v>
+        <v>558</v>
       </c>
       <c r="K61" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
       <c r="L61" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>502</v>
+        <v>561</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>2</v>
@@ -6958,56 +7522,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>508</v>
+        <v>568</v>
       </c>
       <c r="X61" t="s">
-        <v>509</v>
+        <v>569</v>
       </c>
       <c r="Y61" t="s">
-        <v>510</v>
+        <v>570</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>32583</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>3638</v>
+      </c>
+      <c r="C62" t="s">
+        <v>571</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>511</v>
+        <v>572</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>512</v>
+        <v>573</v>
       </c>
       <c r="J62" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="K62" t="s">
-        <v>514</v>
+        <v>575</v>
       </c>
       <c r="L62" t="s">
-        <v>515</v>
+        <v>576</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>516</v>
+        <v>577</v>
       </c>
       <c r="O62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -7019,56 +7587,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="X62" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="Y62" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>32583</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>99002</v>
+      </c>
+      <c r="C63" t="s">
+        <v>581</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>520</v>
+        <v>582</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>521</v>
+        <v>583</v>
       </c>
       <c r="J63" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="K63" t="s">
-        <v>522</v>
+        <v>584</v>
       </c>
       <c r="L63" t="s">
-        <v>523</v>
+        <v>585</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="O63" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -7090,56 +7662,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="X63" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="Y63" t="s">
-        <v>524</v>
+        <v>586</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>32583</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>175627</v>
+      </c>
+      <c r="C64" t="s">
+        <v>587</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>525</v>
+        <v>588</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>526</v>
+        <v>589</v>
       </c>
       <c r="J64" t="s">
-        <v>527</v>
+        <v>590</v>
       </c>
       <c r="K64" t="s">
-        <v>528</v>
+        <v>591</v>
       </c>
       <c r="L64" t="s">
-        <v>529</v>
+        <v>592</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -7161,56 +7737,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>530</v>
+        <v>593</v>
       </c>
       <c r="X64" t="s">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="Y64" t="s">
-        <v>532</v>
+        <v>595</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>32583</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>175628</v>
+      </c>
+      <c r="C65" t="s">
+        <v>596</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>533</v>
+        <v>597</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>534</v>
+        <v>598</v>
       </c>
       <c r="J65" t="s">
-        <v>535</v>
+        <v>599</v>
       </c>
       <c r="K65" t="s">
-        <v>536</v>
+        <v>600</v>
       </c>
       <c r="L65" t="s">
-        <v>537</v>
+        <v>601</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="O65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -7232,47 +7812,51 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>538</v>
+        <v>602</v>
       </c>
       <c r="X65" t="s">
-        <v>539</v>
+        <v>603</v>
       </c>
       <c r="Y65" t="s">
-        <v>540</v>
+        <v>604</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>32583</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>175629</v>
+      </c>
+      <c r="C66" t="s">
+        <v>605</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>541</v>
+        <v>606</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>542</v>
+        <v>607</v>
       </c>
       <c r="J66" t="s">
-        <v>543</v>
+        <v>608</v>
       </c>
       <c r="K66" t="s">
-        <v>544</v>
+        <v>609</v>
       </c>
       <c r="L66" t="s">
-        <v>545</v>
+        <v>610</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
@@ -7299,56 +7883,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>546</v>
+        <v>611</v>
       </c>
       <c r="X66" t="s">
-        <v>547</v>
+        <v>612</v>
       </c>
       <c r="Y66" t="s">
-        <v>548</v>
+        <v>613</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>32583</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>175630</v>
+      </c>
+      <c r="C67" t="s">
+        <v>614</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>549</v>
+        <v>615</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>550</v>
+        <v>616</v>
       </c>
       <c r="J67" t="s">
+        <v>617</v>
+      </c>
+      <c r="K67" t="s">
+        <v>618</v>
+      </c>
+      <c r="L67" t="s">
+        <v>619</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
         <v>551</v>
       </c>
-      <c r="K67" t="s">
-        <v>552</v>
-      </c>
-      <c r="L67" t="s">
-        <v>553</v>
-      </c>
-      <c r="M67" t="n">
-        <v>5</v>
-      </c>
-      <c r="N67" t="s">
-        <v>493</v>
-      </c>
       <c r="O67" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -7370,56 +7958,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
       <c r="X67" t="s">
-        <v>555</v>
+        <v>621</v>
       </c>
       <c r="Y67" t="s">
-        <v>556</v>
+        <v>622</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>32583</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>117051</v>
+      </c>
+      <c r="C68" t="s">
+        <v>623</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>557</v>
+        <v>624</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>558</v>
+        <v>625</v>
       </c>
       <c r="J68" t="s">
-        <v>559</v>
+        <v>626</v>
       </c>
       <c r="K68" t="s">
-        <v>560</v>
+        <v>627</v>
       </c>
       <c r="L68" t="s">
-        <v>561</v>
+        <v>628</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>562</v>
+        <v>629</v>
       </c>
       <c r="O68" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7441,56 +8033,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>563</v>
+        <v>630</v>
       </c>
       <c r="X68" t="s">
-        <v>564</v>
+        <v>631</v>
       </c>
       <c r="Y68" t="s">
-        <v>565</v>
+        <v>632</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>32583</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>3819</v>
+      </c>
+      <c r="C69" t="s">
+        <v>633</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>566</v>
+        <v>634</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>567</v>
+        <v>635</v>
       </c>
       <c r="J69" t="s">
-        <v>568</v>
+        <v>636</v>
       </c>
       <c r="K69" t="s">
-        <v>569</v>
+        <v>637</v>
       </c>
       <c r="L69" t="s">
-        <v>570</v>
+        <v>638</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>571</v>
+        <v>639</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7512,47 +8108,51 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>572</v>
+        <v>640</v>
       </c>
       <c r="X69" t="s">
-        <v>573</v>
+        <v>641</v>
       </c>
       <c r="Y69" t="s">
-        <v>574</v>
+        <v>642</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>32583</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>175631</v>
+      </c>
+      <c r="C70" t="s">
+        <v>643</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>575</v>
+        <v>644</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>576</v>
+        <v>645</v>
       </c>
       <c r="J70" t="s">
-        <v>577</v>
+        <v>646</v>
       </c>
       <c r="K70" t="s">
-        <v>578</v>
+        <v>647</v>
       </c>
       <c r="L70" t="s">
-        <v>579</v>
+        <v>648</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
@@ -7579,56 +8179,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>580</v>
+        <v>649</v>
       </c>
       <c r="X70" t="s">
-        <v>581</v>
+        <v>650</v>
       </c>
       <c r="Y70" t="s">
-        <v>582</v>
+        <v>651</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>32583</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>175632</v>
+      </c>
+      <c r="C71" t="s">
+        <v>652</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>583</v>
+        <v>653</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>584</v>
+        <v>654</v>
       </c>
       <c r="J71" t="s">
-        <v>585</v>
+        <v>655</v>
       </c>
       <c r="K71" t="s">
-        <v>586</v>
+        <v>656</v>
       </c>
       <c r="L71" t="s">
-        <v>587</v>
+        <v>657</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>571</v>
+        <v>639</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -7650,56 +8254,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>588</v>
+        <v>658</v>
       </c>
       <c r="X71" t="s">
-        <v>589</v>
+        <v>659</v>
       </c>
       <c r="Y71" t="s">
-        <v>590</v>
+        <v>660</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>32583</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>175633</v>
+      </c>
+      <c r="C72" t="s">
+        <v>661</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>591</v>
+        <v>662</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>592</v>
+        <v>663</v>
       </c>
       <c r="J72" t="s">
-        <v>593</v>
+        <v>664</v>
       </c>
       <c r="K72" t="s">
-        <v>594</v>
+        <v>665</v>
       </c>
       <c r="L72" t="s">
-        <v>595</v>
+        <v>666</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>596</v>
+        <v>667</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7721,56 +8329,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>597</v>
+        <v>668</v>
       </c>
       <c r="X72" t="s">
-        <v>598</v>
+        <v>669</v>
       </c>
       <c r="Y72" t="s">
-        <v>599</v>
+        <v>670</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>32583</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>175634</v>
+      </c>
+      <c r="C73" t="s">
+        <v>671</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>600</v>
+        <v>672</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>601</v>
+        <v>673</v>
       </c>
       <c r="J73" t="s">
-        <v>602</v>
+        <v>674</v>
       </c>
       <c r="K73" t="s">
-        <v>603</v>
+        <v>675</v>
       </c>
       <c r="L73" t="s">
-        <v>604</v>
+        <v>676</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>605</v>
+        <v>677</v>
       </c>
       <c r="O73" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -7792,56 +8404,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>606</v>
+        <v>678</v>
       </c>
       <c r="X73" t="s">
-        <v>607</v>
+        <v>679</v>
       </c>
       <c r="Y73" t="s">
-        <v>608</v>
+        <v>680</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>32583</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>175635</v>
+      </c>
+      <c r="C74" t="s">
+        <v>681</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>609</v>
+        <v>682</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>610</v>
+        <v>683</v>
       </c>
       <c r="J74" t="s">
-        <v>611</v>
+        <v>684</v>
       </c>
       <c r="K74" t="s">
-        <v>612</v>
+        <v>685</v>
       </c>
       <c r="L74" t="s">
-        <v>613</v>
+        <v>686</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>614</v>
+        <v>687</v>
       </c>
       <c r="O74" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7863,56 +8479,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>615</v>
+        <v>688</v>
       </c>
       <c r="X74" t="s">
-        <v>616</v>
+        <v>689</v>
       </c>
       <c r="Y74" t="s">
-        <v>617</v>
+        <v>690</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>32583</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>41158</v>
+      </c>
+      <c r="C75" t="s">
+        <v>691</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>618</v>
+        <v>692</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>619</v>
+        <v>693</v>
       </c>
       <c r="J75" t="s">
-        <v>620</v>
+        <v>694</v>
       </c>
       <c r="K75" t="s">
-        <v>621</v>
+        <v>695</v>
       </c>
       <c r="L75" t="s">
-        <v>622</v>
+        <v>696</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>605</v>
+        <v>677</v>
       </c>
       <c r="O75" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7934,56 +8554,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>623</v>
+        <v>697</v>
       </c>
       <c r="X75" t="s">
-        <v>624</v>
+        <v>698</v>
       </c>
       <c r="Y75" t="s">
-        <v>625</v>
+        <v>699</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>32583</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>175636</v>
+      </c>
+      <c r="C76" t="s">
+        <v>700</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>626</v>
+        <v>701</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>627</v>
+        <v>702</v>
       </c>
       <c r="J76" t="s">
-        <v>628</v>
+        <v>703</v>
       </c>
       <c r="K76" t="s">
-        <v>629</v>
+        <v>704</v>
       </c>
       <c r="L76" t="s">
-        <v>630</v>
+        <v>705</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>631</v>
+        <v>706</v>
       </c>
       <c r="O76" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -8003,56 +8627,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>632</v>
+        <v>707</v>
       </c>
       <c r="X76" t="s">
-        <v>633</v>
+        <v>708</v>
       </c>
       <c r="Y76" t="s">
-        <v>634</v>
+        <v>709</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>32583</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>175637</v>
+      </c>
+      <c r="C77" t="s">
+        <v>710</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>635</v>
+        <v>711</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>636</v>
+        <v>712</v>
       </c>
       <c r="J77" t="s">
-        <v>637</v>
+        <v>713</v>
       </c>
       <c r="K77" t="s">
-        <v>638</v>
+        <v>714</v>
       </c>
       <c r="L77" t="s">
-        <v>639</v>
+        <v>715</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>614</v>
+        <v>687</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -8074,47 +8702,51 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>640</v>
+        <v>716</v>
       </c>
       <c r="X77" t="s">
-        <v>641</v>
+        <v>717</v>
       </c>
       <c r="Y77" t="s">
-        <v>642</v>
+        <v>718</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>32583</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>175638</v>
+      </c>
+      <c r="C78" t="s">
+        <v>719</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>643</v>
+        <v>720</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>644</v>
+        <v>721</v>
       </c>
       <c r="J78" t="s">
-        <v>645</v>
+        <v>722</v>
       </c>
       <c r="K78" t="s">
-        <v>646</v>
+        <v>723</v>
       </c>
       <c r="L78" t="s">
-        <v>647</v>
+        <v>724</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
@@ -8141,56 +8773,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>648</v>
+        <v>725</v>
       </c>
       <c r="X78" t="s">
-        <v>649</v>
+        <v>726</v>
       </c>
       <c r="Y78" t="s">
-        <v>650</v>
+        <v>727</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>32583</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>175639</v>
+      </c>
+      <c r="C79" t="s">
+        <v>728</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>651</v>
+        <v>729</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>652</v>
+        <v>730</v>
       </c>
       <c r="J79" t="s">
-        <v>653</v>
+        <v>731</v>
       </c>
       <c r="K79" t="s">
-        <v>654</v>
+        <v>732</v>
       </c>
       <c r="L79" t="s">
-        <v>655</v>
+        <v>733</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>656</v>
+        <v>734</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -8212,56 +8848,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>657</v>
+        <v>735</v>
       </c>
       <c r="X79" t="s">
-        <v>658</v>
+        <v>736</v>
       </c>
       <c r="Y79" t="s">
-        <v>659</v>
+        <v>737</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>32583</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>175640</v>
+      </c>
+      <c r="C80" t="s">
+        <v>738</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>660</v>
+        <v>739</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>661</v>
+        <v>740</v>
       </c>
       <c r="J80" t="s">
-        <v>662</v>
+        <v>741</v>
       </c>
       <c r="K80" t="s">
-        <v>663</v>
+        <v>742</v>
       </c>
       <c r="L80" t="s">
-        <v>664</v>
+        <v>743</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>665</v>
+        <v>744</v>
       </c>
       <c r="O80" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -8283,47 +8923,51 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>666</v>
+        <v>745</v>
       </c>
       <c r="X80" t="s">
-        <v>667</v>
+        <v>746</v>
       </c>
       <c r="Y80" t="s">
-        <v>668</v>
+        <v>747</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>32583</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>175641</v>
+      </c>
+      <c r="C81" t="s">
+        <v>748</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>669</v>
+        <v>749</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>670</v>
+        <v>750</v>
       </c>
       <c r="J81" t="s">
-        <v>671</v>
+        <v>751</v>
       </c>
       <c r="K81" t="s">
-        <v>672</v>
+        <v>752</v>
       </c>
       <c r="L81" t="s">
-        <v>673</v>
+        <v>753</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
@@ -8350,56 +8994,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>674</v>
+        <v>754</v>
       </c>
       <c r="X81" t="s">
-        <v>675</v>
+        <v>755</v>
       </c>
       <c r="Y81" t="s">
-        <v>676</v>
+        <v>756</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>32583</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>175642</v>
+      </c>
+      <c r="C82" t="s">
+        <v>757</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>677</v>
+        <v>758</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>678</v>
+        <v>759</v>
       </c>
       <c r="J82" t="s">
-        <v>679</v>
+        <v>760</v>
       </c>
       <c r="K82" t="s">
-        <v>680</v>
+        <v>761</v>
       </c>
       <c r="L82" t="s">
-        <v>681</v>
+        <v>762</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>682</v>
+        <v>763</v>
       </c>
       <c r="O82" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8421,56 +9069,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>674</v>
+        <v>754</v>
       </c>
       <c r="X82" t="s">
-        <v>675</v>
+        <v>755</v>
       </c>
       <c r="Y82" t="s">
-        <v>683</v>
+        <v>764</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>32583</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>175643</v>
+      </c>
+      <c r="C83" t="s">
+        <v>765</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>684</v>
+        <v>766</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>685</v>
+        <v>767</v>
       </c>
       <c r="J83" t="s">
-        <v>686</v>
+        <v>768</v>
       </c>
       <c r="K83" t="s">
-        <v>687</v>
+        <v>769</v>
       </c>
       <c r="L83" t="s">
-        <v>688</v>
+        <v>770</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>682</v>
+        <v>763</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8492,56 +9144,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>689</v>
+        <v>771</v>
       </c>
       <c r="X83" t="s">
-        <v>690</v>
+        <v>772</v>
       </c>
       <c r="Y83" t="s">
-        <v>691</v>
+        <v>773</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>32583</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>175644</v>
+      </c>
+      <c r="C84" t="s">
+        <v>774</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>692</v>
+        <v>775</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>693</v>
+        <v>776</v>
       </c>
       <c r="J84" t="s">
-        <v>694</v>
+        <v>777</v>
       </c>
       <c r="K84" t="s">
-        <v>695</v>
+        <v>778</v>
       </c>
       <c r="L84" t="s">
-        <v>696</v>
+        <v>779</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>697</v>
+        <v>780</v>
       </c>
       <c r="O84" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8563,56 +9219,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>698</v>
+        <v>781</v>
       </c>
       <c r="X84" t="s">
-        <v>699</v>
+        <v>782</v>
       </c>
       <c r="Y84" t="s">
-        <v>700</v>
+        <v>783</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>32583</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>175645</v>
+      </c>
+      <c r="C85" t="s">
+        <v>784</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>701</v>
+        <v>785</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>702</v>
+        <v>786</v>
       </c>
       <c r="J85" t="s">
-        <v>703</v>
+        <v>787</v>
       </c>
       <c r="K85" t="s">
-        <v>704</v>
+        <v>788</v>
       </c>
       <c r="L85" t="s">
-        <v>705</v>
+        <v>789</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>697</v>
+        <v>780</v>
       </c>
       <c r="O85" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="P85" t="n">
         <v>3</v>
@@ -8634,56 +9294,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>706</v>
+        <v>790</v>
       </c>
       <c r="X85" t="s">
-        <v>707</v>
+        <v>791</v>
       </c>
       <c r="Y85" t="s">
-        <v>708</v>
+        <v>792</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>32583</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>12433</v>
+      </c>
+      <c r="C86" t="s">
+        <v>793</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>709</v>
+        <v>794</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>710</v>
+        <v>795</v>
       </c>
       <c r="J86" t="s">
-        <v>711</v>
+        <v>796</v>
       </c>
       <c r="K86" t="s">
-        <v>712</v>
+        <v>797</v>
       </c>
       <c r="L86" t="s">
-        <v>713</v>
+        <v>798</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>714</v>
+        <v>799</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8705,56 +9369,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>715</v>
+        <v>800</v>
       </c>
       <c r="X86" t="s">
-        <v>716</v>
+        <v>801</v>
       </c>
       <c r="Y86" t="s">
-        <v>717</v>
+        <v>802</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>32583</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>175646</v>
+      </c>
+      <c r="C87" t="s">
+        <v>803</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>718</v>
+        <v>804</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>719</v>
+        <v>805</v>
       </c>
       <c r="J87" t="s">
-        <v>711</v>
+        <v>796</v>
       </c>
       <c r="K87" t="s">
-        <v>720</v>
+        <v>806</v>
       </c>
       <c r="L87" t="s">
-        <v>721</v>
+        <v>807</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>714</v>
+        <v>799</v>
       </c>
       <c r="O87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8776,56 +9444,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>715</v>
+        <v>800</v>
       </c>
       <c r="X87" t="s">
-        <v>716</v>
+        <v>801</v>
       </c>
       <c r="Y87" t="s">
-        <v>722</v>
+        <v>808</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>32583</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>23637</v>
+      </c>
+      <c r="C88" t="s">
+        <v>809</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>723</v>
+        <v>810</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>724</v>
+        <v>811</v>
       </c>
       <c r="J88" t="s">
-        <v>725</v>
+        <v>812</v>
       </c>
       <c r="K88" t="s">
-        <v>726</v>
+        <v>813</v>
       </c>
       <c r="L88" t="s">
-        <v>727</v>
+        <v>814</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>714</v>
+        <v>799</v>
       </c>
       <c r="O88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8847,56 +9519,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>715</v>
+        <v>800</v>
       </c>
       <c r="X88" t="s">
-        <v>716</v>
+        <v>801</v>
       </c>
       <c r="Y88" t="s">
-        <v>728</v>
+        <v>815</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>32583</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>9113</v>
+      </c>
+      <c r="C89" t="s">
+        <v>816</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>729</v>
+        <v>817</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>730</v>
+        <v>818</v>
       </c>
       <c r="J89" t="s">
-        <v>731</v>
+        <v>819</v>
       </c>
       <c r="K89" t="s">
-        <v>732</v>
+        <v>820</v>
       </c>
       <c r="L89" t="s">
-        <v>733</v>
+        <v>821</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>734</v>
+        <v>822</v>
       </c>
       <c r="O89" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P89" t="n">
         <v>4</v>
@@ -8920,50 +9596,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>733</v>
+        <v>821</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>32583</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>175647</v>
+      </c>
+      <c r="C90" t="s">
+        <v>823</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>735</v>
+        <v>824</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>736</v>
+        <v>825</v>
       </c>
       <c r="J90" t="s">
-        <v>731</v>
+        <v>819</v>
       </c>
       <c r="K90" t="s">
-        <v>737</v>
+        <v>826</v>
       </c>
       <c r="L90" t="s">
-        <v>738</v>
+        <v>827</v>
       </c>
       <c r="M90" t="n">
         <v>2</v>
       </c>
       <c r="N90" t="s">
-        <v>739</v>
+        <v>828</v>
       </c>
       <c r="O90" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P90" t="n">
         <v>3</v>
@@ -8987,50 +9667,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>738</v>
+        <v>827</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>32583</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>175648</v>
+      </c>
+      <c r="C91" t="s">
+        <v>829</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>740</v>
+        <v>830</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>741</v>
+        <v>831</v>
       </c>
       <c r="J91" t="s">
-        <v>731</v>
+        <v>819</v>
       </c>
       <c r="K91" t="s">
-        <v>742</v>
+        <v>832</v>
       </c>
       <c r="L91" t="s">
-        <v>743</v>
+        <v>833</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>734</v>
+        <v>822</v>
       </c>
       <c r="O91" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -9054,41 +9738,45 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>743</v>
+        <v>833</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>32583</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>175649</v>
+      </c>
+      <c r="C92" t="s">
+        <v>834</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>744</v>
+        <v>835</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>745</v>
+        <v>836</v>
       </c>
       <c r="J92" t="s">
-        <v>746</v>
+        <v>837</v>
       </c>
       <c r="K92" t="s">
-        <v>747</v>
+        <v>838</v>
       </c>
       <c r="L92" t="s">
-        <v>748</v>
+        <v>839</v>
       </c>
       <c r="M92" t="n">
         <v>3</v>
@@ -9115,56 +9803,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>749</v>
+        <v>840</v>
       </c>
       <c r="X92" t="s">
-        <v>750</v>
+        <v>841</v>
       </c>
       <c r="Y92" t="s">
-        <v>751</v>
+        <v>842</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>32583</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>175650</v>
+      </c>
+      <c r="C93" t="s">
+        <v>843</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>752</v>
+        <v>844</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>753</v>
+        <v>845</v>
       </c>
       <c r="J93" t="s">
-        <v>754</v>
+        <v>846</v>
       </c>
       <c r="K93" t="s">
-        <v>755</v>
+        <v>847</v>
       </c>
       <c r="L93" t="s">
-        <v>756</v>
+        <v>848</v>
       </c>
       <c r="M93" t="n">
         <v>3</v>
       </c>
       <c r="N93" t="s">
-        <v>757</v>
+        <v>849</v>
       </c>
       <c r="O93" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P93" t="n">
         <v>3</v>
@@ -9186,56 +9878,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>749</v>
+        <v>840</v>
       </c>
       <c r="X93" t="s">
-        <v>750</v>
+        <v>841</v>
       </c>
       <c r="Y93" t="s">
-        <v>758</v>
+        <v>850</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>32583</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>69370</v>
+      </c>
+      <c r="C94" t="s">
+        <v>851</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>759</v>
+        <v>852</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>760</v>
+        <v>853</v>
       </c>
       <c r="J94" t="s">
-        <v>761</v>
+        <v>854</v>
       </c>
       <c r="K94" t="s">
-        <v>762</v>
+        <v>855</v>
       </c>
       <c r="L94" t="s">
-        <v>763</v>
+        <v>856</v>
       </c>
       <c r="M94" t="n">
         <v>3</v>
       </c>
       <c r="N94" t="s">
-        <v>757</v>
+        <v>849</v>
       </c>
       <c r="O94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -9257,56 +9953,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>764</v>
+        <v>857</v>
       </c>
       <c r="X94" t="s">
-        <v>765</v>
+        <v>858</v>
       </c>
       <c r="Y94" t="s">
-        <v>766</v>
+        <v>859</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>32583</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>51803</v>
+      </c>
+      <c r="C95" t="s">
+        <v>860</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>767</v>
+        <v>861</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>768</v>
+        <v>862</v>
       </c>
       <c r="J95" t="s">
-        <v>769</v>
+        <v>863</v>
       </c>
       <c r="K95" t="s">
-        <v>578</v>
+        <v>647</v>
       </c>
       <c r="L95" t="s">
-        <v>770</v>
+        <v>864</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>757</v>
+        <v>849</v>
       </c>
       <c r="O95" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -9328,47 +10028,51 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>764</v>
+        <v>857</v>
       </c>
       <c r="X95" t="s">
-        <v>765</v>
+        <v>858</v>
       </c>
       <c r="Y95" t="s">
-        <v>771</v>
+        <v>865</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>32583</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>175651</v>
+      </c>
+      <c r="C96" t="s">
+        <v>866</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>772</v>
+        <v>867</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>773</v>
+        <v>868</v>
       </c>
       <c r="J96" t="s">
-        <v>774</v>
+        <v>869</v>
       </c>
       <c r="K96" t="s">
-        <v>775</v>
+        <v>870</v>
       </c>
       <c r="L96" t="s">
-        <v>776</v>
+        <v>871</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
@@ -9395,56 +10099,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>777</v>
+        <v>872</v>
       </c>
       <c r="X96" t="s">
-        <v>778</v>
+        <v>873</v>
       </c>
       <c r="Y96" t="s">
-        <v>779</v>
+        <v>874</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>32583</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>175652</v>
+      </c>
+      <c r="C97" t="s">
+        <v>875</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>780</v>
+        <v>876</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>781</v>
+        <v>877</v>
       </c>
       <c r="J97" t="s">
-        <v>782</v>
+        <v>878</v>
       </c>
       <c r="K97" t="s">
-        <v>783</v>
+        <v>879</v>
       </c>
       <c r="L97" t="s">
-        <v>784</v>
+        <v>880</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>785</v>
+        <v>881</v>
       </c>
       <c r="O97" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9466,47 +10174,51 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>786</v>
+        <v>882</v>
       </c>
       <c r="X97" t="s">
-        <v>787</v>
+        <v>883</v>
       </c>
       <c r="Y97" t="s">
-        <v>788</v>
+        <v>884</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>32583</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>175653</v>
+      </c>
+      <c r="C98" t="s">
+        <v>885</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>789</v>
+        <v>886</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>790</v>
+        <v>887</v>
       </c>
       <c r="J98" t="s">
-        <v>791</v>
+        <v>888</v>
       </c>
       <c r="K98" t="s">
-        <v>792</v>
+        <v>889</v>
       </c>
       <c r="L98" t="s">
-        <v>793</v>
+        <v>890</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
@@ -9535,50 +10247,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>793</v>
+        <v>890</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>32583</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>175654</v>
+      </c>
+      <c r="C99" t="s">
+        <v>891</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>794</v>
+        <v>892</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>795</v>
+        <v>893</v>
       </c>
       <c r="J99" t="s">
-        <v>796</v>
+        <v>894</v>
       </c>
       <c r="K99" t="s">
-        <v>797</v>
+        <v>895</v>
       </c>
       <c r="L99" t="s">
-        <v>798</v>
+        <v>896</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>799</v>
+        <v>897</v>
       </c>
       <c r="O99" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9602,50 +10318,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>798</v>
+        <v>896</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>32583</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>2377</v>
+      </c>
+      <c r="C100" t="s">
+        <v>898</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>800</v>
+        <v>899</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>801</v>
+        <v>900</v>
       </c>
       <c r="J100" t="s">
-        <v>802</v>
+        <v>901</v>
       </c>
       <c r="K100" t="s">
-        <v>803</v>
+        <v>902</v>
       </c>
       <c r="L100" t="s">
-        <v>804</v>
+        <v>903</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>805</v>
+        <v>904</v>
       </c>
       <c r="O100" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P100" t="n">
         <v>4</v>
@@ -9669,50 +10389,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>804</v>
+        <v>903</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>32583</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>175655</v>
+      </c>
+      <c r="C101" t="s">
+        <v>905</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>806</v>
+        <v>906</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>807</v>
+        <v>907</v>
       </c>
       <c r="J101" t="s">
-        <v>808</v>
+        <v>908</v>
       </c>
       <c r="K101" t="s">
-        <v>809</v>
+        <v>909</v>
       </c>
       <c r="L101" t="s">
-        <v>810</v>
+        <v>910</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>811</v>
+        <v>911</v>
       </c>
       <c r="O101" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P101" t="n">
         <v>3</v>
@@ -9732,50 +10456,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>810</v>
+        <v>910</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>32583</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>7151</v>
+      </c>
+      <c r="C102" t="s">
+        <v>912</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>812</v>
+        <v>913</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>813</v>
+        <v>914</v>
       </c>
       <c r="J102" t="s">
-        <v>814</v>
+        <v>915</v>
       </c>
       <c r="K102" t="s">
-        <v>815</v>
+        <v>916</v>
       </c>
       <c r="L102" t="s">
-        <v>816</v>
+        <v>917</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>817</v>
+        <v>918</v>
       </c>
       <c r="O102" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9795,50 +10523,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>816</v>
+        <v>917</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>32583</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>175656</v>
+      </c>
+      <c r="C103" t="s">
+        <v>919</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>818</v>
+        <v>920</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>819</v>
+        <v>921</v>
       </c>
       <c r="J103" t="s">
-        <v>820</v>
+        <v>922</v>
       </c>
       <c r="K103" t="s">
-        <v>821</v>
+        <v>923</v>
       </c>
       <c r="L103" t="s">
-        <v>822</v>
+        <v>924</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>823</v>
+        <v>925</v>
       </c>
       <c r="O103" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
@@ -9862,50 +10594,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>824</v>
+        <v>926</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>32583</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>175657</v>
+      </c>
+      <c r="C104" t="s">
+        <v>927</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>825</v>
+        <v>928</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>826</v>
+        <v>929</v>
       </c>
       <c r="J104" t="s">
-        <v>827</v>
+        <v>930</v>
       </c>
       <c r="K104" t="s">
-        <v>828</v>
+        <v>931</v>
       </c>
       <c r="L104" t="s">
-        <v>829</v>
+        <v>932</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>830</v>
+        <v>933</v>
       </c>
       <c r="O104" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -9929,50 +10665,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>829</v>
+        <v>932</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>32583</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>175658</v>
+      </c>
+      <c r="C105" t="s">
+        <v>934</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>831</v>
+        <v>935</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>832</v>
+        <v>936</v>
       </c>
       <c r="J105" t="s">
-        <v>833</v>
+        <v>937</v>
       </c>
       <c r="K105" t="s">
-        <v>834</v>
+        <v>938</v>
       </c>
       <c r="L105" t="s">
-        <v>835</v>
+        <v>939</v>
       </c>
       <c r="M105" t="n">
         <v>4</v>
       </c>
       <c r="N105" t="s">
-        <v>836</v>
+        <v>940</v>
       </c>
       <c r="O105" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -9996,50 +10736,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>837</v>
+        <v>941</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>32583</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>175659</v>
+      </c>
+      <c r="C106" t="s">
+        <v>942</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>838</v>
+        <v>943</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>839</v>
+        <v>944</v>
       </c>
       <c r="J106" t="s">
-        <v>840</v>
+        <v>945</v>
       </c>
       <c r="K106" t="s">
-        <v>841</v>
+        <v>946</v>
       </c>
       <c r="L106" t="s">
-        <v>842</v>
+        <v>947</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>843</v>
+        <v>948</v>
       </c>
       <c r="O106" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="P106" t="n">
         <v>4</v>
@@ -10063,50 +10807,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>844</v>
+        <v>949</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>32583</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>175660</v>
+      </c>
+      <c r="C107" t="s">
+        <v>950</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>845</v>
+        <v>951</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>846</v>
+        <v>952</v>
       </c>
       <c r="J107" t="s">
-        <v>847</v>
+        <v>953</v>
       </c>
       <c r="K107" t="s">
-        <v>848</v>
+        <v>954</v>
       </c>
       <c r="L107" t="s">
-        <v>849</v>
+        <v>955</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
       </c>
       <c r="N107" t="s">
-        <v>850</v>
+        <v>956</v>
       </c>
       <c r="O107" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -10130,50 +10878,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>849</v>
+        <v>955</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>32583</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>175661</v>
+      </c>
+      <c r="C108" t="s">
+        <v>957</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>851</v>
+        <v>958</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>852</v>
+        <v>959</v>
       </c>
       <c r="J108" t="s">
-        <v>853</v>
+        <v>960</v>
       </c>
       <c r="K108" t="s">
-        <v>854</v>
+        <v>961</v>
       </c>
       <c r="L108" t="s">
-        <v>855</v>
+        <v>962</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>856</v>
+        <v>963</v>
       </c>
       <c r="O108" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="P108" t="n">
         <v>5</v>
@@ -10197,50 +10949,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>857</v>
+        <v>964</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>32583</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>175662</v>
+      </c>
+      <c r="C109" t="s">
+        <v>965</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>858</v>
+        <v>966</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>859</v>
+        <v>967</v>
       </c>
       <c r="J109" t="s">
-        <v>860</v>
+        <v>968</v>
       </c>
       <c r="K109" t="s">
-        <v>861</v>
+        <v>969</v>
       </c>
       <c r="L109" t="s">
-        <v>862</v>
+        <v>970</v>
       </c>
       <c r="M109" t="n">
         <v>4</v>
       </c>
       <c r="N109" t="s">
-        <v>863</v>
+        <v>971</v>
       </c>
       <c r="O109" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -10262,7 +11018,7 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>864</v>
+        <v>972</v>
       </c>
     </row>
   </sheetData>
